--- a/VT_IE_COM.xlsx
+++ b/VT_IE_COM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E215697-F342-49E2-8DBE-DDEF4EB9BF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD6907A-8881-4564-AC27-2C1E9B8F6186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="891" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -1036,7 +1036,7 @@
     <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1065,7 +1065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1079,7 +1079,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1639,7 +1639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="614">
   <si>
     <t>ELC</t>
   </si>
@@ -3488,6 +3488,15 @@
   </si>
   <si>
     <t>Stock with a cooling system</t>
+  </si>
+  <si>
+    <t>SHARE-I~UP~0</t>
+  </si>
+  <si>
+    <t>I/E rule</t>
+  </si>
+  <si>
+    <t>SHARE-O~UP~0</t>
   </si>
 </sst>
 </file>
@@ -3508,10 +3517,17 @@
     <numFmt numFmtId="174" formatCode="0.000000_)"/>
     <numFmt numFmtId="175" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="95">
+  <fonts count="96">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6605,990 +6621,990 @@
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="157" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="158" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="159" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="86" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="87" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="88" fillId="42" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="89" fillId="43" borderId="161" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="90" fillId="43" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="162" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="44" borderId="163" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="164" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="157" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="158" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="159" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="87" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="88" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="89" fillId="42" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="90" fillId="43" borderId="161" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="43" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="162" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="44" borderId="163" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="164" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="796">
+  <cellXfs count="801">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="32" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="170" fontId="33" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="34" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="31" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="31" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="31" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="30" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="29" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="30" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="31" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="30" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="31" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="29" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="30" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="30" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="25" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="29" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="26" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="30" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="30" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="30" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="30" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="31" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="30" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="30" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="30" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="30" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="30" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="22" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="30" fillId="22" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="30" fillId="22" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="30" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="30" fillId="16" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="30" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="30" fillId="22" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="30" fillId="22" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="30" fillId="22" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="49" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="11" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="11" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="50" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="48" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="11" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="11" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="11" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="47" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="47" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="50" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="51" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="57" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="37" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="31" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="31" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="31" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="31" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="31" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="31" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="31" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="32" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="31" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="31" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="31" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="31" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="31" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="31" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="32" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="22" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="31" fillId="22" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="31" fillId="22" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="31" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="31" fillId="16" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="31" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="31" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="31" fillId="22" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="31" fillId="22" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="31" fillId="22" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="50" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="11" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="11" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="51" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="49" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="11" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="11" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="11" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="48" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="48" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="51" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="52" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="58" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="38" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="57" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="38" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="38" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="58" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="38" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="167" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="38" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="55" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="56" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="54" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="55" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="54" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="55" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="38" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="38" fontId="47" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="48" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="15" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="15" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="15" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="49" fillId="15" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="15" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="15" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="15" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="49" fillId="15" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="15" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="49" fillId="15" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="15" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="15" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="15" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="49" fillId="15" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="29" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="30" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="30" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="31" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="31" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="30" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="31" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="30" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="31" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="59" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="60" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="45" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="46" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
@@ -7598,61 +7614,61 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="38" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="38" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="37" fillId="24" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="38" fillId="24" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="37" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="38" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="24" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="31" fillId="24" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7662,420 +7678,648 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="38" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="37" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="38" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="38" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="73" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="73" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="73" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="73" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="73" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="73" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="73" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="73" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="73" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="73" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="73" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="80" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="81" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="72" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="72" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="72" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="72" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="72" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="72" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="37" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="36" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="36" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="36" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="147" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="24" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="72" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="72" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="72" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="72" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="31" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="72" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="72" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="79" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="80" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="37" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="36" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="36" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="36" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="147" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="24" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="30" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="48" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="38" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="48" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="38" fontId="48" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="38" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="38" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="38" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="38" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="38" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="48" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="38" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="38" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="38" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="38" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="38" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="38" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="48" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="38" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="48" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="48" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="48" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="38" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="38" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="48" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="48" fillId="38" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="48" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8087,343 +8331,122 @@
     <xf numFmtId="38" fontId="48" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="48" fillId="38" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="48" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="38" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="38" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="38" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="38" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="38" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="38" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="38" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="38" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="38" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="38" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="48" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="49" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="48" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="49" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="48" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="49" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="48" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="49" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="67" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="93" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="3" fontId="68" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="94" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="93" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="95" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="94" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="69" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="73" fillId="16" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="73" fillId="16" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="68" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="1" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -9132,22 +9155,22 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.265625" style="578" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="14.1328125" style="578" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" style="578" customWidth="1"/>
-    <col min="10" max="12" width="8.1328125" style="578" customWidth="1"/>
-    <col min="13" max="13" width="9.73046875" style="578" customWidth="1"/>
-    <col min="14" max="14" width="8.1328125" style="578" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="578" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="14.140625" style="578" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="578" customWidth="1"/>
+    <col min="10" max="12" width="8.140625" style="578" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="578" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="578" customWidth="1"/>
     <col min="15" max="15" width="10" style="578" customWidth="1"/>
-    <col min="16" max="16" width="11.3984375" style="578" customWidth="1"/>
-    <col min="17" max="17" width="13.3984375" style="578" customWidth="1"/>
-    <col min="18" max="31" width="8.86328125" style="578"/>
-    <col min="32" max="32" width="21.3984375" style="578" customWidth="1"/>
-    <col min="33" max="38" width="8.86328125" style="578"/>
-    <col min="39" max="39" width="21.265625" style="578" customWidth="1"/>
-    <col min="40" max="16384" width="8.86328125" style="578"/>
+    <col min="16" max="16" width="11.42578125" style="578" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="578" customWidth="1"/>
+    <col min="18" max="31" width="8.85546875" style="578"/>
+    <col min="32" max="32" width="21.42578125" style="578" customWidth="1"/>
+    <col min="33" max="38" width="8.85546875" style="578"/>
+    <col min="39" max="39" width="21.28515625" style="578" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="578"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9578,23 +9601,23 @@
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="58.86328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="12.59765625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="12.59765625" style="1" customWidth="1"/>
-    <col min="14" max="19" width="12.59765625" style="16" customWidth="1"/>
-    <col min="20" max="21" width="12.59765625" style="69" customWidth="1"/>
-    <col min="22" max="22" width="11.3984375" style="69" customWidth="1"/>
-    <col min="23" max="255" width="11.3984375" style="16" customWidth="1"/>
-    <col min="256" max="16384" width="9.1328125" style="16"/>
+    <col min="2" max="2" width="12.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="12.5703125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="19" width="12.5703125" style="16" customWidth="1"/>
+    <col min="20" max="21" width="12.5703125" style="69" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="69" customWidth="1"/>
+    <col min="23" max="255" width="11.42578125" style="16" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="25.5">
+    <row r="1" spans="2:21" ht="26.25">
       <c r="B1" s="83" t="s">
         <v>242</v>
       </c>
@@ -9605,7 +9628,7 @@
     <row r="2" spans="2:21">
       <c r="M2" s="69"/>
     </row>
-    <row r="3" spans="2:21" ht="18">
+    <row r="3" spans="2:21" ht="18.75">
       <c r="B3" s="66" t="s">
         <v>252</v>
       </c>
@@ -9637,7 +9660,7 @@
       <c r="Q4" s="75"/>
       <c r="R4" s="75"/>
     </row>
-    <row r="5" spans="2:21" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="2:21" ht="16.5" thickBot="1">
       <c r="B5" s="96" t="s">
         <v>17</v>
       </c>
@@ -9749,7 +9772,7 @@
       <c r="F9" s="137"/>
       <c r="M9" s="69"/>
     </row>
-    <row r="10" spans="2:21" ht="18">
+    <row r="10" spans="2:21" ht="18.75">
       <c r="B10" s="66" t="s">
         <v>581</v>
       </c>
@@ -9781,7 +9804,7 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
     </row>
-    <row r="12" spans="2:21" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="2:21" ht="16.5" thickBot="1">
       <c r="B12" s="96" t="s">
         <v>17</v>
       </c>
@@ -9973,7 +9996,7 @@
       <c r="C15" s="141"/>
       <c r="F15" s="68"/>
     </row>
-    <row r="16" spans="2:21" ht="18">
+    <row r="16" spans="2:21" ht="18.75">
       <c r="B16" s="66" t="str">
         <f>"Base-year technologies for commercial water heating ("&amp;COM_Balance!$S$11&amp;")"</f>
         <v>Base-year technologies for commercial water heating (Commercial Services)</v>
@@ -10001,7 +10024,7 @@
       <c r="R16" s="134"/>
       <c r="S16" s="85"/>
     </row>
-    <row r="17" spans="2:19" ht="31.9" thickBot="1">
+    <row r="17" spans="2:19" ht="45.75" thickBot="1">
       <c r="B17" s="127" t="s">
         <v>22</v>
       </c>
@@ -11113,7 +11136,7 @@
       <c r="Q41" s="25"/>
       <c r="R41" s="94"/>
     </row>
-    <row r="42" spans="2:19" ht="18">
+    <row r="42" spans="2:19" ht="18.75">
       <c r="B42" s="66" t="str">
         <f>"Base-year technologies for commercial water heating ("&amp;COM_Balance!$S$12&amp;")"</f>
         <v>Base-year technologies for commercial water heating (Public Services)</v>
@@ -11141,7 +11164,7 @@
       <c r="R42" s="134"/>
       <c r="S42" s="85"/>
     </row>
-    <row r="43" spans="2:19" ht="31.9" thickBot="1">
+    <row r="43" spans="2:19" ht="45.75" thickBot="1">
       <c r="B43" s="127" t="s">
         <v>22</v>
       </c>
@@ -12420,22 +12443,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="21" width="11.1328125" customWidth="1"/>
-    <col min="22" max="255" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="255" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="25.5">
+    <row r="1" spans="2:21" ht="26.25">
       <c r="B1" s="83" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="16" customFormat="1" ht="14.25"/>
-    <row r="3" spans="2:21" s="16" customFormat="1" ht="18">
+    <row r="2" spans="2:21" s="16" customFormat="1" ht="15"/>
+    <row r="3" spans="2:21" s="16" customFormat="1" ht="18.75">
       <c r="B3" s="66" t="s">
         <v>251</v>
       </c>
@@ -12446,7 +12469,7 @@
       </c>
       <c r="J3" s="86"/>
     </row>
-    <row r="4" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="4" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B4" s="68" t="s">
         <v>80</v>
       </c>
@@ -12464,7 +12487,7 @@
       <c r="Q4" s="75"/>
       <c r="R4" s="75"/>
     </row>
-    <row r="5" spans="2:21" s="16" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="2:21" s="16" customFormat="1" ht="16.5" thickBot="1">
       <c r="B5" s="96" t="s">
         <v>17</v>
       </c>
@@ -12509,7 +12532,7 @@
       <c r="Q6" s="86"/>
       <c r="R6" s="75"/>
     </row>
-    <row r="7" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="7" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B7" s="54" t="str">
         <f>COM_Balance!C36</f>
         <v>CCCS</v>
@@ -12535,7 +12558,7 @@
       <c r="Q7" s="75"/>
       <c r="R7" s="75"/>
     </row>
-    <row r="8" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="8" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B8" s="54" t="str">
         <f>COM_Balance!C37</f>
         <v>CCPS</v>
@@ -12561,13 +12584,13 @@
       <c r="Q8" s="75"/>
       <c r="R8" s="75"/>
     </row>
-    <row r="9" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="9" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B9" s="102"/>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
       <c r="G9" s="137"/>
     </row>
-    <row r="10" spans="2:21" s="16" customFormat="1" ht="18">
+    <row r="10" spans="2:21" s="16" customFormat="1" ht="18.75">
       <c r="B10" s="66" t="s">
         <v>584</v>
       </c>
@@ -12591,12 +12614,12 @@
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
     </row>
-    <row r="11" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="11" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="C11" s="68" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="12" spans="2:21" s="16" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="2:21" s="16" customFormat="1" ht="16.5" thickBot="1">
       <c r="B12" s="96" t="s">
         <v>17</v>
       </c>
@@ -12658,7 +12681,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="13" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="13" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B13" s="54" t="str">
         <f>B7</f>
         <v>CCCS</v>
@@ -12721,7 +12744,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="14" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B14" s="54" t="str">
         <f>B8</f>
         <v>CCPS</v>
@@ -12784,14 +12807,14 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="15" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B15" s="69"/>
       <c r="C15" s="69"/>
       <c r="D15" s="69"/>
       <c r="G15" s="67"/>
       <c r="I15" s="176"/>
     </row>
-    <row r="16" spans="2:21" s="16" customFormat="1" ht="18">
+    <row r="16" spans="2:21" s="16" customFormat="1" ht="18.75">
       <c r="B16" s="66" t="str">
         <f>"Base-year technologies for commercial space cooling ("&amp;COM_Balance!$S$11&amp;")"</f>
         <v>Base-year technologies for commercial space cooling (Commercial Services)</v>
@@ -12819,7 +12842,7 @@
       <c r="S16" s="134"/>
       <c r="T16" s="85"/>
     </row>
-    <row r="17" spans="2:20" s="16" customFormat="1" ht="43.15" thickBot="1">
+    <row r="17" spans="2:20" s="16" customFormat="1" ht="60.75" thickBot="1">
       <c r="B17" s="127" t="s">
         <v>22</v>
       </c>
@@ -12919,7 +12942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="19" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B19" s="54" t="str">
         <f t="shared" ref="B19:B24" si="0">$B$7</f>
         <v>CCCS</v>
@@ -12983,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:20" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="20" spans="2:20" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B20" s="54" t="str">
         <f t="shared" si="0"/>
         <v>CCCS</v>
@@ -13044,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="21" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B21" s="54" t="str">
         <f t="shared" si="0"/>
         <v>CCCS</v>
@@ -13107,7 +13130,7 @@
         <v>149.71157562907015</v>
       </c>
     </row>
-    <row r="22" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="22" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B22" s="54" t="str">
         <f t="shared" si="0"/>
         <v>CCCS</v>
@@ -13171,7 +13194,7 @@
         <v>15902.487057655375</v>
       </c>
     </row>
-    <row r="23" spans="2:20" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="23" spans="2:20" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B23" s="54" t="str">
         <f t="shared" si="0"/>
         <v>CCCS</v>
@@ -13235,7 +13258,7 @@
         <v>1077.0325657155558</v>
       </c>
     </row>
-    <row r="24" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="24" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B24" s="54" t="str">
         <f t="shared" si="0"/>
         <v>CCCS</v>
@@ -13296,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="25" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B25" s="162" t="s">
         <v>23</v>
       </c>
@@ -13330,7 +13353,7 @@
       <c r="S25" s="116"/>
       <c r="T25" s="76"/>
     </row>
-    <row r="26" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="26" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B26" s="162" t="s">
         <v>23</v>
       </c>
@@ -13374,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="27" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B27" s="162" t="s">
         <v>23</v>
       </c>
@@ -13408,7 +13431,7 @@
       <c r="S27" s="116"/>
       <c r="T27" s="76"/>
     </row>
-    <row r="28" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="28" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B28" s="162" t="s">
         <v>23</v>
       </c>
@@ -13452,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="29" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B29" s="162" t="s">
         <v>23</v>
       </c>
@@ -13474,7 +13497,7 @@
       <c r="S29" s="116"/>
       <c r="T29" s="54"/>
     </row>
-    <row r="30" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="30" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B30" s="108" t="s">
         <v>84</v>
       </c>
@@ -13511,7 +13534,7 @@
         <v>17129.231198999998</v>
       </c>
     </row>
-    <row r="31" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="31" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="I31" s="94"/>
       <c r="O31" s="95"/>
       <c r="S31" s="94"/>
@@ -13521,7 +13544,7 @@
       <c r="I32" s="94"/>
       <c r="S32" s="94"/>
     </row>
-    <row r="33" spans="2:20" s="16" customFormat="1" ht="18">
+    <row r="33" spans="2:20" s="16" customFormat="1" ht="18.75">
       <c r="B33" s="66" t="str">
         <f>"Base-year technologies for commercial space cooling ("&amp;COM_Balance!$S$12&amp;")"</f>
         <v>Base-year technologies for commercial space cooling (Public Services)</v>
@@ -13547,7 +13570,7 @@
       <c r="S33" s="134"/>
       <c r="T33" s="85"/>
     </row>
-    <row r="34" spans="2:20" s="16" customFormat="1" ht="43.15" thickBot="1">
+    <row r="34" spans="2:20" s="16" customFormat="1" ht="60.75" thickBot="1">
       <c r="B34" s="127" t="s">
         <v>22</v>
       </c>
@@ -13647,7 +13670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="36" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B36" s="54" t="str">
         <f t="shared" ref="B36:B41" si="5">$B$8</f>
         <v>CCPS</v>
@@ -13711,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:20" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="37" spans="2:20" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B37" s="54" t="str">
         <f t="shared" si="5"/>
         <v>CCPS</v>
@@ -13772,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="38" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B38" s="54" t="str">
         <f t="shared" si="5"/>
         <v>CCPS</v>
@@ -13835,7 +13858,7 @@
         <v>102.79352764548445</v>
       </c>
     </row>
-    <row r="39" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="39" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B39" s="54" t="str">
         <f t="shared" si="5"/>
         <v>CCPS</v>
@@ -13899,7 +13922,7 @@
         <v>10918.813299000809</v>
       </c>
     </row>
-    <row r="40" spans="2:20" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="40" spans="2:20" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B40" s="54" t="str">
         <f t="shared" si="5"/>
         <v>CCPS</v>
@@ -13963,7 +13986,7 @@
         <v>739.50178103309997</v>
       </c>
     </row>
-    <row r="41" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="41" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B41" s="54" t="str">
         <f t="shared" si="5"/>
         <v>CCPS</v>
@@ -14024,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="42" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B42" s="162" t="s">
         <v>23</v>
       </c>
@@ -14058,7 +14081,7 @@
       <c r="S42" s="116"/>
       <c r="T42" s="76"/>
     </row>
-    <row r="43" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="43" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B43" s="162" t="s">
         <v>23</v>
       </c>
@@ -14102,7 +14125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="44" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B44" s="162" t="s">
         <v>23</v>
       </c>
@@ -14136,7 +14159,7 @@
       <c r="S44" s="116"/>
       <c r="T44" s="76"/>
     </row>
-    <row r="45" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="45" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B45" s="162" t="s">
         <v>23</v>
       </c>
@@ -14180,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="46" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B46" s="162" t="s">
         <v>23</v>
       </c>
@@ -14202,7 +14225,7 @@
       <c r="S46" s="116"/>
       <c r="T46" s="54"/>
     </row>
-    <row r="47" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="47" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="B47" s="108" t="s">
         <v>84</v>
       </c>
@@ -14239,240 +14262,240 @@
         <v>11761.108607679394</v>
       </c>
     </row>
-    <row r="48" spans="2:20" s="16" customFormat="1" ht="14.25">
+    <row r="48" spans="2:20" s="16" customFormat="1" ht="15">
       <c r="I48" s="94"/>
       <c r="O48" s="95"/>
       <c r="S48" s="94"/>
     </row>
-    <row r="49" s="16" customFormat="1" ht="14.25"/>
-    <row r="50" s="16" customFormat="1" ht="14.25"/>
-    <row r="51" s="16" customFormat="1" ht="14.25"/>
-    <row r="52" s="16" customFormat="1" ht="14.25"/>
-    <row r="53" s="16" customFormat="1" ht="14.25"/>
-    <row r="54" s="16" customFormat="1" ht="14.25"/>
-    <row r="55" s="16" customFormat="1" ht="14.25"/>
-    <row r="56" s="16" customFormat="1" ht="14.25"/>
-    <row r="57" s="16" customFormat="1" ht="14.25"/>
-    <row r="58" s="16" customFormat="1" ht="14.25"/>
-    <row r="59" s="16" customFormat="1" ht="14.25"/>
-    <row r="60" s="16" customFormat="1" ht="14.25"/>
-    <row r="61" s="16" customFormat="1" ht="14.25"/>
-    <row r="62" s="16" customFormat="1" ht="14.25"/>
-    <row r="63" s="16" customFormat="1" ht="14.25"/>
-    <row r="64" s="16" customFormat="1" ht="14.25"/>
-    <row r="65" s="16" customFormat="1" ht="14.25"/>
-    <row r="66" s="16" customFormat="1" ht="14.25"/>
-    <row r="67" s="16" customFormat="1" ht="14.25"/>
-    <row r="68" s="16" customFormat="1" ht="14.25"/>
-    <row r="69" s="16" customFormat="1" ht="14.25"/>
-    <row r="70" s="16" customFormat="1" ht="14.25"/>
-    <row r="71" s="16" customFormat="1" ht="14.25"/>
-    <row r="72" s="16" customFormat="1" ht="14.25"/>
-    <row r="73" s="16" customFormat="1" ht="14.25"/>
-    <row r="74" s="16" customFormat="1" ht="14.25"/>
-    <row r="75" s="16" customFormat="1" ht="14.25"/>
-    <row r="76" s="16" customFormat="1" ht="14.25"/>
-    <row r="77" s="16" customFormat="1" ht="14.25"/>
-    <row r="78" s="16" customFormat="1" ht="14.25"/>
-    <row r="79" s="16" customFormat="1" ht="14.25"/>
-    <row r="80" s="16" customFormat="1" ht="14.25"/>
-    <row r="81" s="16" customFormat="1" ht="14.25"/>
-    <row r="82" s="16" customFormat="1" ht="14.25"/>
-    <row r="83" s="16" customFormat="1" ht="14.25"/>
-    <row r="84" s="16" customFormat="1" ht="14.25"/>
-    <row r="85" s="16" customFormat="1" ht="14.25"/>
-    <row r="86" s="16" customFormat="1" ht="14.25"/>
-    <row r="87" s="16" customFormat="1" ht="14.25"/>
-    <row r="88" s="16" customFormat="1" ht="14.25"/>
-    <row r="89" s="16" customFormat="1" ht="14.25"/>
-    <row r="90" s="16" customFormat="1" ht="14.25"/>
-    <row r="91" s="16" customFormat="1" ht="14.25"/>
-    <row r="92" s="16" customFormat="1" ht="14.25"/>
-    <row r="93" s="16" customFormat="1" ht="14.25"/>
-    <row r="94" s="16" customFormat="1" ht="14.25"/>
-    <row r="95" s="16" customFormat="1" ht="14.25"/>
-    <row r="96" s="16" customFormat="1" ht="14.25"/>
-    <row r="97" s="16" customFormat="1" ht="14.25"/>
-    <row r="98" s="16" customFormat="1" ht="14.25"/>
-    <row r="99" s="16" customFormat="1" ht="14.25"/>
-    <row r="100" s="16" customFormat="1" ht="14.25"/>
-    <row r="101" s="16" customFormat="1" ht="14.25"/>
-    <row r="102" s="16" customFormat="1" ht="14.25"/>
-    <row r="103" s="16" customFormat="1" ht="14.25"/>
-    <row r="104" s="16" customFormat="1" ht="14.25"/>
-    <row r="105" s="16" customFormat="1" ht="14.25"/>
-    <row r="106" s="16" customFormat="1" ht="14.25"/>
-    <row r="107" s="16" customFormat="1" ht="14.25"/>
-    <row r="108" s="16" customFormat="1" ht="14.25"/>
-    <row r="109" s="16" customFormat="1" ht="14.25"/>
-    <row r="110" s="16" customFormat="1" ht="14.25"/>
-    <row r="111" s="16" customFormat="1" ht="14.25"/>
-    <row r="112" s="16" customFormat="1" ht="14.25"/>
-    <row r="113" s="16" customFormat="1" ht="14.25"/>
-    <row r="114" s="16" customFormat="1" ht="14.25"/>
-    <row r="115" s="16" customFormat="1" ht="14.25"/>
-    <row r="116" s="16" customFormat="1" ht="14.25"/>
-    <row r="117" s="16" customFormat="1" ht="14.25"/>
-    <row r="118" s="16" customFormat="1" ht="14.25"/>
-    <row r="119" s="16" customFormat="1" ht="14.25"/>
-    <row r="120" s="16" customFormat="1" ht="14.25"/>
-    <row r="121" s="16" customFormat="1" ht="14.25"/>
-    <row r="122" s="16" customFormat="1" ht="14.25"/>
-    <row r="123" s="16" customFormat="1" ht="14.25"/>
-    <row r="124" s="16" customFormat="1" ht="14.25"/>
-    <row r="125" s="16" customFormat="1" ht="14.25"/>
-    <row r="126" s="16" customFormat="1" ht="14.25"/>
-    <row r="127" s="16" customFormat="1" ht="14.25"/>
-    <row r="128" s="16" customFormat="1" ht="14.25"/>
-    <row r="129" s="16" customFormat="1" ht="14.25"/>
-    <row r="130" s="16" customFormat="1" ht="14.25"/>
-    <row r="131" s="16" customFormat="1" ht="14.25"/>
-    <row r="132" s="16" customFormat="1" ht="14.25"/>
-    <row r="133" s="16" customFormat="1" ht="14.25"/>
-    <row r="134" s="16" customFormat="1" ht="14.25"/>
-    <row r="135" s="16" customFormat="1" ht="14.25"/>
-    <row r="136" s="16" customFormat="1" ht="14.25"/>
-    <row r="137" s="16" customFormat="1" ht="14.25"/>
-    <row r="138" s="16" customFormat="1" ht="14.25"/>
-    <row r="139" s="16" customFormat="1" ht="14.25"/>
-    <row r="140" s="16" customFormat="1" ht="14.25"/>
-    <row r="141" s="16" customFormat="1" ht="14.25"/>
-    <row r="142" s="16" customFormat="1" ht="14.25"/>
-    <row r="143" s="16" customFormat="1" ht="14.25"/>
-    <row r="144" s="16" customFormat="1" ht="14.25"/>
-    <row r="145" s="16" customFormat="1" ht="14.25"/>
-    <row r="146" s="16" customFormat="1" ht="14.25"/>
-    <row r="147" s="16" customFormat="1" ht="14.25"/>
-    <row r="148" s="16" customFormat="1" ht="14.25"/>
-    <row r="149" s="16" customFormat="1" ht="14.25"/>
-    <row r="150" s="16" customFormat="1" ht="14.25"/>
-    <row r="151" s="16" customFormat="1" ht="14.25"/>
-    <row r="152" s="16" customFormat="1" ht="14.25"/>
-    <row r="153" s="16" customFormat="1" ht="14.25"/>
-    <row r="154" s="16" customFormat="1" ht="14.25"/>
-    <row r="155" s="16" customFormat="1" ht="14.25"/>
-    <row r="156" s="16" customFormat="1" ht="14.25"/>
-    <row r="157" s="16" customFormat="1" ht="14.25"/>
-    <row r="158" s="16" customFormat="1" ht="14.25"/>
-    <row r="159" s="16" customFormat="1" ht="14.25"/>
-    <row r="160" s="16" customFormat="1" ht="14.25"/>
-    <row r="161" s="16" customFormat="1" ht="14.25"/>
-    <row r="162" s="16" customFormat="1" ht="14.25"/>
-    <row r="163" s="16" customFormat="1" ht="14.25"/>
-    <row r="164" s="16" customFormat="1" ht="14.25"/>
-    <row r="165" s="16" customFormat="1" ht="14.25"/>
-    <row r="166" s="16" customFormat="1" ht="14.25"/>
-    <row r="167" s="16" customFormat="1" ht="14.25"/>
-    <row r="168" s="16" customFormat="1" ht="14.25"/>
-    <row r="169" s="16" customFormat="1" ht="14.25"/>
-    <row r="170" s="16" customFormat="1" ht="14.25"/>
-    <row r="171" s="16" customFormat="1" ht="14.25"/>
-    <row r="172" s="16" customFormat="1" ht="14.25"/>
-    <row r="173" s="16" customFormat="1" ht="14.25"/>
-    <row r="174" s="16" customFormat="1" ht="14.25"/>
-    <row r="175" s="16" customFormat="1" ht="14.25"/>
-    <row r="176" s="16" customFormat="1" ht="14.25"/>
-    <row r="177" s="16" customFormat="1" ht="14.25"/>
-    <row r="178" s="16" customFormat="1" ht="14.25"/>
-    <row r="179" s="16" customFormat="1" ht="14.25"/>
-    <row r="180" s="16" customFormat="1" ht="14.25"/>
-    <row r="181" s="16" customFormat="1" ht="14.25"/>
-    <row r="182" s="16" customFormat="1" ht="14.25"/>
-    <row r="183" s="16" customFormat="1" ht="14.25"/>
-    <row r="184" s="16" customFormat="1" ht="14.25"/>
-    <row r="185" s="16" customFormat="1" ht="14.25"/>
-    <row r="186" s="16" customFormat="1" ht="14.25"/>
-    <row r="187" s="16" customFormat="1" ht="14.25"/>
-    <row r="188" s="16" customFormat="1" ht="14.25"/>
-    <row r="189" s="16" customFormat="1" ht="14.25"/>
-    <row r="190" s="16" customFormat="1" ht="14.25"/>
-    <row r="191" s="16" customFormat="1" ht="14.25"/>
-    <row r="192" s="16" customFormat="1" ht="14.25"/>
-    <row r="193" s="16" customFormat="1" ht="14.25"/>
-    <row r="194" s="16" customFormat="1" ht="14.25"/>
-    <row r="195" s="16" customFormat="1" ht="14.25"/>
-    <row r="196" s="16" customFormat="1" ht="14.25"/>
-    <row r="197" s="16" customFormat="1" ht="14.25"/>
-    <row r="198" s="16" customFormat="1" ht="14.25"/>
-    <row r="199" s="16" customFormat="1" ht="14.25"/>
-    <row r="200" s="16" customFormat="1" ht="14.25"/>
-    <row r="201" s="16" customFormat="1" ht="14.25"/>
-    <row r="202" s="16" customFormat="1" ht="14.25"/>
-    <row r="203" s="16" customFormat="1" ht="14.25"/>
-    <row r="204" s="16" customFormat="1" ht="14.25"/>
-    <row r="205" s="16" customFormat="1" ht="14.25"/>
-    <row r="206" s="16" customFormat="1" ht="14.25"/>
-    <row r="207" s="16" customFormat="1" ht="14.25"/>
-    <row r="208" s="16" customFormat="1" ht="14.25"/>
-    <row r="209" s="16" customFormat="1" ht="14.25"/>
-    <row r="210" s="16" customFormat="1" ht="14.25"/>
-    <row r="211" s="16" customFormat="1" ht="14.25"/>
-    <row r="212" s="16" customFormat="1" ht="14.25"/>
-    <row r="213" s="16" customFormat="1" ht="14.25"/>
-    <row r="214" s="16" customFormat="1" ht="14.25"/>
-    <row r="215" s="16" customFormat="1" ht="14.25"/>
-    <row r="216" s="16" customFormat="1" ht="14.25"/>
-    <row r="217" s="16" customFormat="1" ht="14.25"/>
-    <row r="218" s="16" customFormat="1" ht="14.25"/>
-    <row r="219" s="16" customFormat="1" ht="14.25"/>
-    <row r="220" s="16" customFormat="1" ht="14.25"/>
-    <row r="221" s="16" customFormat="1" ht="14.25"/>
-    <row r="222" s="16" customFormat="1" ht="14.25"/>
-    <row r="223" s="16" customFormat="1" ht="14.25"/>
-    <row r="224" s="16" customFormat="1" ht="14.25"/>
-    <row r="225" s="16" customFormat="1" ht="14.25"/>
-    <row r="226" s="16" customFormat="1" ht="14.25"/>
-    <row r="227" s="16" customFormat="1" ht="14.25"/>
-    <row r="228" s="16" customFormat="1" ht="14.25"/>
-    <row r="229" s="16" customFormat="1" ht="14.25"/>
-    <row r="230" s="16" customFormat="1" ht="14.25"/>
-    <row r="231" s="16" customFormat="1" ht="14.25"/>
-    <row r="232" s="16" customFormat="1" ht="14.25"/>
-    <row r="233" s="16" customFormat="1" ht="14.25"/>
-    <row r="234" s="16" customFormat="1" ht="14.25"/>
-    <row r="235" s="16" customFormat="1" ht="14.25"/>
-    <row r="236" s="16" customFormat="1" ht="14.25"/>
-    <row r="237" s="16" customFormat="1" ht="14.25"/>
-    <row r="238" s="16" customFormat="1" ht="14.25"/>
-    <row r="239" s="16" customFormat="1" ht="14.25"/>
-    <row r="240" s="16" customFormat="1" ht="14.25"/>
-    <row r="241" s="16" customFormat="1" ht="14.25"/>
-    <row r="242" s="16" customFormat="1" ht="14.25"/>
-    <row r="243" s="16" customFormat="1" ht="14.25"/>
-    <row r="244" s="16" customFormat="1" ht="14.25"/>
-    <row r="245" s="16" customFormat="1" ht="14.25"/>
-    <row r="246" s="16" customFormat="1" ht="14.25"/>
-    <row r="247" s="16" customFormat="1" ht="14.25"/>
-    <row r="248" s="16" customFormat="1" ht="14.25"/>
-    <row r="249" s="16" customFormat="1" ht="14.25"/>
-    <row r="250" s="16" customFormat="1" ht="14.25"/>
-    <row r="251" s="16" customFormat="1" ht="14.25"/>
-    <row r="252" s="16" customFormat="1" ht="14.25"/>
-    <row r="253" s="16" customFormat="1" ht="14.25"/>
-    <row r="254" s="16" customFormat="1" ht="14.25"/>
-    <row r="255" s="16" customFormat="1" ht="14.25"/>
-    <row r="256" s="16" customFormat="1" ht="14.25"/>
-    <row r="257" s="16" customFormat="1" ht="14.25"/>
-    <row r="258" s="16" customFormat="1" ht="14.25"/>
-    <row r="259" s="16" customFormat="1" ht="14.25"/>
-    <row r="260" s="16" customFormat="1" ht="14.25"/>
-    <row r="261" s="16" customFormat="1" ht="14.25"/>
-    <row r="262" s="16" customFormat="1" ht="14.25"/>
-    <row r="263" s="16" customFormat="1" ht="14.25"/>
-    <row r="264" s="16" customFormat="1" ht="14.25"/>
-    <row r="265" s="16" customFormat="1" ht="14.25"/>
-    <row r="266" s="16" customFormat="1" ht="14.25"/>
-    <row r="267" s="16" customFormat="1" ht="14.25"/>
-    <row r="268" s="16" customFormat="1" ht="14.25"/>
-    <row r="269" s="16" customFormat="1" ht="14.25"/>
-    <row r="270" s="16" customFormat="1" ht="14.25"/>
-    <row r="271" s="16" customFormat="1" ht="14.25"/>
-    <row r="272" s="16" customFormat="1" ht="14.25"/>
-    <row r="273" s="16" customFormat="1" ht="14.25"/>
-    <row r="274" s="16" customFormat="1" ht="14.25"/>
-    <row r="275" s="16" customFormat="1" ht="14.25"/>
-    <row r="276" s="16" customFormat="1" ht="14.25"/>
-    <row r="277" s="16" customFormat="1" ht="14.25"/>
+    <row r="49" s="16" customFormat="1" ht="15"/>
+    <row r="50" s="16" customFormat="1" ht="15"/>
+    <row r="51" s="16" customFormat="1" ht="15"/>
+    <row r="52" s="16" customFormat="1" ht="15"/>
+    <row r="53" s="16" customFormat="1" ht="15"/>
+    <row r="54" s="16" customFormat="1" ht="15"/>
+    <row r="55" s="16" customFormat="1" ht="15"/>
+    <row r="56" s="16" customFormat="1" ht="15"/>
+    <row r="57" s="16" customFormat="1" ht="15"/>
+    <row r="58" s="16" customFormat="1" ht="15"/>
+    <row r="59" s="16" customFormat="1" ht="15"/>
+    <row r="60" s="16" customFormat="1" ht="15"/>
+    <row r="61" s="16" customFormat="1" ht="15"/>
+    <row r="62" s="16" customFormat="1" ht="15"/>
+    <row r="63" s="16" customFormat="1" ht="15"/>
+    <row r="64" s="16" customFormat="1" ht="15"/>
+    <row r="65" s="16" customFormat="1" ht="15"/>
+    <row r="66" s="16" customFormat="1" ht="15"/>
+    <row r="67" s="16" customFormat="1" ht="15"/>
+    <row r="68" s="16" customFormat="1" ht="15"/>
+    <row r="69" s="16" customFormat="1" ht="15"/>
+    <row r="70" s="16" customFormat="1" ht="15"/>
+    <row r="71" s="16" customFormat="1" ht="15"/>
+    <row r="72" s="16" customFormat="1" ht="15"/>
+    <row r="73" s="16" customFormat="1" ht="15"/>
+    <row r="74" s="16" customFormat="1" ht="15"/>
+    <row r="75" s="16" customFormat="1" ht="15"/>
+    <row r="76" s="16" customFormat="1" ht="15"/>
+    <row r="77" s="16" customFormat="1" ht="15"/>
+    <row r="78" s="16" customFormat="1" ht="15"/>
+    <row r="79" s="16" customFormat="1" ht="15"/>
+    <row r="80" s="16" customFormat="1" ht="15"/>
+    <row r="81" s="16" customFormat="1" ht="15"/>
+    <row r="82" s="16" customFormat="1" ht="15"/>
+    <row r="83" s="16" customFormat="1" ht="15"/>
+    <row r="84" s="16" customFormat="1" ht="15"/>
+    <row r="85" s="16" customFormat="1" ht="15"/>
+    <row r="86" s="16" customFormat="1" ht="15"/>
+    <row r="87" s="16" customFormat="1" ht="15"/>
+    <row r="88" s="16" customFormat="1" ht="15"/>
+    <row r="89" s="16" customFormat="1" ht="15"/>
+    <row r="90" s="16" customFormat="1" ht="15"/>
+    <row r="91" s="16" customFormat="1" ht="15"/>
+    <row r="92" s="16" customFormat="1" ht="15"/>
+    <row r="93" s="16" customFormat="1" ht="15"/>
+    <row r="94" s="16" customFormat="1" ht="15"/>
+    <row r="95" s="16" customFormat="1" ht="15"/>
+    <row r="96" s="16" customFormat="1" ht="15"/>
+    <row r="97" s="16" customFormat="1" ht="15"/>
+    <row r="98" s="16" customFormat="1" ht="15"/>
+    <row r="99" s="16" customFormat="1" ht="15"/>
+    <row r="100" s="16" customFormat="1" ht="15"/>
+    <row r="101" s="16" customFormat="1" ht="15"/>
+    <row r="102" s="16" customFormat="1" ht="15"/>
+    <row r="103" s="16" customFormat="1" ht="15"/>
+    <row r="104" s="16" customFormat="1" ht="15"/>
+    <row r="105" s="16" customFormat="1" ht="15"/>
+    <row r="106" s="16" customFormat="1" ht="15"/>
+    <row r="107" s="16" customFormat="1" ht="15"/>
+    <row r="108" s="16" customFormat="1" ht="15"/>
+    <row r="109" s="16" customFormat="1" ht="15"/>
+    <row r="110" s="16" customFormat="1" ht="15"/>
+    <row r="111" s="16" customFormat="1" ht="15"/>
+    <row r="112" s="16" customFormat="1" ht="15"/>
+    <row r="113" s="16" customFormat="1" ht="15"/>
+    <row r="114" s="16" customFormat="1" ht="15"/>
+    <row r="115" s="16" customFormat="1" ht="15"/>
+    <row r="116" s="16" customFormat="1" ht="15"/>
+    <row r="117" s="16" customFormat="1" ht="15"/>
+    <row r="118" s="16" customFormat="1" ht="15"/>
+    <row r="119" s="16" customFormat="1" ht="15"/>
+    <row r="120" s="16" customFormat="1" ht="15"/>
+    <row r="121" s="16" customFormat="1" ht="15"/>
+    <row r="122" s="16" customFormat="1" ht="15"/>
+    <row r="123" s="16" customFormat="1" ht="15"/>
+    <row r="124" s="16" customFormat="1" ht="15"/>
+    <row r="125" s="16" customFormat="1" ht="15"/>
+    <row r="126" s="16" customFormat="1" ht="15"/>
+    <row r="127" s="16" customFormat="1" ht="15"/>
+    <row r="128" s="16" customFormat="1" ht="15"/>
+    <row r="129" s="16" customFormat="1" ht="15"/>
+    <row r="130" s="16" customFormat="1" ht="15"/>
+    <row r="131" s="16" customFormat="1" ht="15"/>
+    <row r="132" s="16" customFormat="1" ht="15"/>
+    <row r="133" s="16" customFormat="1" ht="15"/>
+    <row r="134" s="16" customFormat="1" ht="15"/>
+    <row r="135" s="16" customFormat="1" ht="15"/>
+    <row r="136" s="16" customFormat="1" ht="15"/>
+    <row r="137" s="16" customFormat="1" ht="15"/>
+    <row r="138" s="16" customFormat="1" ht="15"/>
+    <row r="139" s="16" customFormat="1" ht="15"/>
+    <row r="140" s="16" customFormat="1" ht="15"/>
+    <row r="141" s="16" customFormat="1" ht="15"/>
+    <row r="142" s="16" customFormat="1" ht="15"/>
+    <row r="143" s="16" customFormat="1" ht="15"/>
+    <row r="144" s="16" customFormat="1" ht="15"/>
+    <row r="145" s="16" customFormat="1" ht="15"/>
+    <row r="146" s="16" customFormat="1" ht="15"/>
+    <row r="147" s="16" customFormat="1" ht="15"/>
+    <row r="148" s="16" customFormat="1" ht="15"/>
+    <row r="149" s="16" customFormat="1" ht="15"/>
+    <row r="150" s="16" customFormat="1" ht="15"/>
+    <row r="151" s="16" customFormat="1" ht="15"/>
+    <row r="152" s="16" customFormat="1" ht="15"/>
+    <row r="153" s="16" customFormat="1" ht="15"/>
+    <row r="154" s="16" customFormat="1" ht="15"/>
+    <row r="155" s="16" customFormat="1" ht="15"/>
+    <row r="156" s="16" customFormat="1" ht="15"/>
+    <row r="157" s="16" customFormat="1" ht="15"/>
+    <row r="158" s="16" customFormat="1" ht="15"/>
+    <row r="159" s="16" customFormat="1" ht="15"/>
+    <row r="160" s="16" customFormat="1" ht="15"/>
+    <row r="161" s="16" customFormat="1" ht="15"/>
+    <row r="162" s="16" customFormat="1" ht="15"/>
+    <row r="163" s="16" customFormat="1" ht="15"/>
+    <row r="164" s="16" customFormat="1" ht="15"/>
+    <row r="165" s="16" customFormat="1" ht="15"/>
+    <row r="166" s="16" customFormat="1" ht="15"/>
+    <row r="167" s="16" customFormat="1" ht="15"/>
+    <row r="168" s="16" customFormat="1" ht="15"/>
+    <row r="169" s="16" customFormat="1" ht="15"/>
+    <row r="170" s="16" customFormat="1" ht="15"/>
+    <row r="171" s="16" customFormat="1" ht="15"/>
+    <row r="172" s="16" customFormat="1" ht="15"/>
+    <row r="173" s="16" customFormat="1" ht="15"/>
+    <row r="174" s="16" customFormat="1" ht="15"/>
+    <row r="175" s="16" customFormat="1" ht="15"/>
+    <row r="176" s="16" customFormat="1" ht="15"/>
+    <row r="177" s="16" customFormat="1" ht="15"/>
+    <row r="178" s="16" customFormat="1" ht="15"/>
+    <row r="179" s="16" customFormat="1" ht="15"/>
+    <row r="180" s="16" customFormat="1" ht="15"/>
+    <row r="181" s="16" customFormat="1" ht="15"/>
+    <row r="182" s="16" customFormat="1" ht="15"/>
+    <row r="183" s="16" customFormat="1" ht="15"/>
+    <row r="184" s="16" customFormat="1" ht="15"/>
+    <row r="185" s="16" customFormat="1" ht="15"/>
+    <row r="186" s="16" customFormat="1" ht="15"/>
+    <row r="187" s="16" customFormat="1" ht="15"/>
+    <row r="188" s="16" customFormat="1" ht="15"/>
+    <row r="189" s="16" customFormat="1" ht="15"/>
+    <row r="190" s="16" customFormat="1" ht="15"/>
+    <row r="191" s="16" customFormat="1" ht="15"/>
+    <row r="192" s="16" customFormat="1" ht="15"/>
+    <row r="193" s="16" customFormat="1" ht="15"/>
+    <row r="194" s="16" customFormat="1" ht="15"/>
+    <row r="195" s="16" customFormat="1" ht="15"/>
+    <row r="196" s="16" customFormat="1" ht="15"/>
+    <row r="197" s="16" customFormat="1" ht="15"/>
+    <row r="198" s="16" customFormat="1" ht="15"/>
+    <row r="199" s="16" customFormat="1" ht="15"/>
+    <row r="200" s="16" customFormat="1" ht="15"/>
+    <row r="201" s="16" customFormat="1" ht="15"/>
+    <row r="202" s="16" customFormat="1" ht="15"/>
+    <row r="203" s="16" customFormat="1" ht="15"/>
+    <row r="204" s="16" customFormat="1" ht="15"/>
+    <row r="205" s="16" customFormat="1" ht="15"/>
+    <row r="206" s="16" customFormat="1" ht="15"/>
+    <row r="207" s="16" customFormat="1" ht="15"/>
+    <row r="208" s="16" customFormat="1" ht="15"/>
+    <row r="209" s="16" customFormat="1" ht="15"/>
+    <row r="210" s="16" customFormat="1" ht="15"/>
+    <row r="211" s="16" customFormat="1" ht="15"/>
+    <row r="212" s="16" customFormat="1" ht="15"/>
+    <row r="213" s="16" customFormat="1" ht="15"/>
+    <row r="214" s="16" customFormat="1" ht="15"/>
+    <row r="215" s="16" customFormat="1" ht="15"/>
+    <row r="216" s="16" customFormat="1" ht="15"/>
+    <row r="217" s="16" customFormat="1" ht="15"/>
+    <row r="218" s="16" customFormat="1" ht="15"/>
+    <row r="219" s="16" customFormat="1" ht="15"/>
+    <row r="220" s="16" customFormat="1" ht="15"/>
+    <row r="221" s="16" customFormat="1" ht="15"/>
+    <row r="222" s="16" customFormat="1" ht="15"/>
+    <row r="223" s="16" customFormat="1" ht="15"/>
+    <row r="224" s="16" customFormat="1" ht="15"/>
+    <row r="225" s="16" customFormat="1" ht="15"/>
+    <row r="226" s="16" customFormat="1" ht="15"/>
+    <row r="227" s="16" customFormat="1" ht="15"/>
+    <row r="228" s="16" customFormat="1" ht="15"/>
+    <row r="229" s="16" customFormat="1" ht="15"/>
+    <row r="230" s="16" customFormat="1" ht="15"/>
+    <row r="231" s="16" customFormat="1" ht="15"/>
+    <row r="232" s="16" customFormat="1" ht="15"/>
+    <row r="233" s="16" customFormat="1" ht="15"/>
+    <row r="234" s="16" customFormat="1" ht="15"/>
+    <row r="235" s="16" customFormat="1" ht="15"/>
+    <row r="236" s="16" customFormat="1" ht="15"/>
+    <row r="237" s="16" customFormat="1" ht="15"/>
+    <row r="238" s="16" customFormat="1" ht="15"/>
+    <row r="239" s="16" customFormat="1" ht="15"/>
+    <row r="240" s="16" customFormat="1" ht="15"/>
+    <row r="241" s="16" customFormat="1" ht="15"/>
+    <row r="242" s="16" customFormat="1" ht="15"/>
+    <row r="243" s="16" customFormat="1" ht="15"/>
+    <row r="244" s="16" customFormat="1" ht="15"/>
+    <row r="245" s="16" customFormat="1" ht="15"/>
+    <row r="246" s="16" customFormat="1" ht="15"/>
+    <row r="247" s="16" customFormat="1" ht="15"/>
+    <row r="248" s="16" customFormat="1" ht="15"/>
+    <row r="249" s="16" customFormat="1" ht="15"/>
+    <row r="250" s="16" customFormat="1" ht="15"/>
+    <row r="251" s="16" customFormat="1" ht="15"/>
+    <row r="252" s="16" customFormat="1" ht="15"/>
+    <row r="253" s="16" customFormat="1" ht="15"/>
+    <row r="254" s="16" customFormat="1" ht="15"/>
+    <row r="255" s="16" customFormat="1" ht="15"/>
+    <row r="256" s="16" customFormat="1" ht="15"/>
+    <row r="257" s="16" customFormat="1" ht="15"/>
+    <row r="258" s="16" customFormat="1" ht="15"/>
+    <row r="259" s="16" customFormat="1" ht="15"/>
+    <row r="260" s="16" customFormat="1" ht="15"/>
+    <row r="261" s="16" customFormat="1" ht="15"/>
+    <row r="262" s="16" customFormat="1" ht="15"/>
+    <row r="263" s="16" customFormat="1" ht="15"/>
+    <row r="264" s="16" customFormat="1" ht="15"/>
+    <row r="265" s="16" customFormat="1" ht="15"/>
+    <row r="266" s="16" customFormat="1" ht="15"/>
+    <row r="267" s="16" customFormat="1" ht="15"/>
+    <row r="268" s="16" customFormat="1" ht="15"/>
+    <row r="269" s="16" customFormat="1" ht="15"/>
+    <row r="270" s="16" customFormat="1" ht="15"/>
+    <row r="271" s="16" customFormat="1" ht="15"/>
+    <row r="272" s="16" customFormat="1" ht="15"/>
+    <row r="273" s="16" customFormat="1" ht="15"/>
+    <row r="274" s="16" customFormat="1" ht="15"/>
+    <row r="275" s="16" customFormat="1" ht="15"/>
+    <row r="276" s="16" customFormat="1" ht="15"/>
+    <row r="277" s="16" customFormat="1" ht="15"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14493,29 +14516,29 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="17.265625" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1328125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="65" customWidth="1"/>
-    <col min="6" max="11" width="11.265625" style="65" customWidth="1"/>
-    <col min="12" max="12" width="11.265625" style="175" customWidth="1"/>
-    <col min="13" max="15" width="11.265625" style="65" customWidth="1"/>
-    <col min="16" max="16" width="11.265625" style="135" customWidth="1"/>
-    <col min="17" max="21" width="11.265625" style="65" customWidth="1"/>
-    <col min="22" max="22" width="7.265625" style="65" bestFit="1" customWidth="1"/>
-    <col min="23" max="253" width="11.3984375" style="65" customWidth="1"/>
-    <col min="254" max="16384" width="9.1328125" style="65"/>
+    <col min="1" max="1" width="4.42578125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="65" customWidth="1"/>
+    <col min="6" max="11" width="11.28515625" style="65" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="175" customWidth="1"/>
+    <col min="13" max="15" width="11.28515625" style="65" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="135" customWidth="1"/>
+    <col min="17" max="21" width="11.28515625" style="65" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="23" max="253" width="11.42578125" style="65" customWidth="1"/>
+    <col min="254" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="25.5">
+    <row r="1" spans="2:21" ht="26.25">
       <c r="B1" s="83" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="18">
+    <row r="3" spans="2:21" ht="18.75">
       <c r="B3" s="66" t="s">
         <v>249</v>
       </c>
@@ -14528,7 +14551,7 @@
       <c r="I3" s="16"/>
       <c r="P3" s="65"/>
     </row>
-    <row r="4" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="4" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B4" s="68" t="s">
         <v>80</v>
       </c>
@@ -14546,7 +14569,7 @@
       <c r="P4" s="75"/>
       <c r="Q4" s="75"/>
     </row>
-    <row r="5" spans="2:21" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="5" spans="2:21" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B5" s="185" t="s">
         <v>17</v>
       </c>
@@ -14568,7 +14591,7 @@
       <c r="P5" s="75"/>
       <c r="Q5" s="75"/>
     </row>
-    <row r="6" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="6" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B6" s="187" t="s">
         <v>148</v>
       </c>
@@ -14591,7 +14614,7 @@
       <c r="P6" s="75"/>
       <c r="Q6" s="75"/>
     </row>
-    <row r="7" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="7" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B7" s="54" t="str">
         <f>COM_Commodities!C35</f>
         <v>CLIG</v>
@@ -14617,7 +14640,7 @@
       <c r="P7" s="136"/>
       <c r="Q7" s="75"/>
     </row>
-    <row r="8" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="8" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B8" s="54" t="str">
         <f>COM_Commodities!C36</f>
         <v>CCOK</v>
@@ -14643,7 +14666,7 @@
       <c r="P8" s="136"/>
       <c r="Q8" s="75"/>
     </row>
-    <row r="9" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="9" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B9" s="54" t="str">
         <f>COM_Commodities!C37</f>
         <v>CREF</v>
@@ -14669,7 +14692,7 @@
       <c r="P9" s="136"/>
       <c r="Q9" s="75"/>
     </row>
-    <row r="10" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="10" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B10" s="54" t="str">
         <f>COM_Commodities!C38</f>
         <v>CPLI</v>
@@ -14695,7 +14718,7 @@
       <c r="P10" s="136"/>
       <c r="Q10" s="75"/>
     </row>
-    <row r="11" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="11" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B11" s="54" t="str">
         <f>COM_Commodities!C39</f>
         <v>COEL</v>
@@ -14721,7 +14744,7 @@
       <c r="P11" s="136"/>
       <c r="Q11" s="75"/>
     </row>
-    <row r="12" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="12" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B12" s="69"/>
       <c r="C12" s="212"/>
       <c r="D12" s="69"/>
@@ -14738,7 +14761,7 @@
       <c r="P12" s="136"/>
       <c r="Q12" s="75"/>
     </row>
-    <row r="13" spans="2:21" s="16" customFormat="1" ht="18">
+    <row r="13" spans="2:21" s="16" customFormat="1" ht="18.75">
       <c r="B13" s="66" t="s">
         <v>585</v>
       </c>
@@ -14762,12 +14785,12 @@
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
-    <row r="14" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="14" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="C14" s="68" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="15" spans="2:21" s="16" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="15" spans="2:21" s="16" customFormat="1" ht="16.5" thickBot="1">
       <c r="B15" s="96" t="s">
         <v>17</v>
       </c>
@@ -14829,7 +14852,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="16" spans="2:21" s="16" customFormat="1" ht="14.25">
+    <row r="16" spans="2:21" s="16" customFormat="1" ht="15">
       <c r="B16" s="54" t="str">
         <f>B7</f>
         <v>CLIG</v>
@@ -14892,7 +14915,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="17" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="B17" s="54" t="str">
         <f>B8</f>
         <v>CCOK</v>
@@ -14955,7 +14978,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="18" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="B18" s="54" t="str">
         <f>B9</f>
         <v>CREF</v>
@@ -15018,7 +15041,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="19" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="B19" s="54" t="str">
         <f>B10</f>
         <v>CPLI</v>
@@ -15081,7 +15104,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="20" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="B20" s="54" t="str">
         <f>B11</f>
         <v>COEL</v>
@@ -15144,8 +15167,8 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:24" customFormat="1" ht="12.75"/>
-    <row r="22" spans="2:24" s="16" customFormat="1" ht="18">
+    <row r="21" spans="2:24" customFormat="1"/>
+    <row r="22" spans="2:24" s="16" customFormat="1" ht="18.75">
       <c r="B22" s="66" t="s">
         <v>90</v>
       </c>
@@ -15180,7 +15203,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="2:24" s="16" customFormat="1" ht="29.25" thickBot="1">
+    <row r="23" spans="2:24" s="16" customFormat="1" ht="60.75" thickBot="1">
       <c r="B23" s="190" t="s">
         <v>22</v>
       </c>
@@ -15228,7 +15251,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:24" s="16" customFormat="1" ht="47.65" thickBot="1">
+    <row r="24" spans="2:24" s="16" customFormat="1" ht="48" thickBot="1">
       <c r="B24" s="191" t="s">
         <v>235</v>
       </c>
@@ -15281,7 +15304,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="25" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="B25" s="54" t="str">
         <f>$B$7</f>
         <v>CLIG</v>
@@ -15352,7 +15375,7 @@
       </c>
       <c r="X25" s="477"/>
     </row>
-    <row r="26" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="26" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="B26" s="54" t="str">
         <f>$B$7</f>
         <v>CLIG</v>
@@ -15420,7 +15443,7 @@
       </c>
       <c r="X26" s="478"/>
     </row>
-    <row r="27" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="27" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="B27" s="54" t="str">
         <f>$B$7</f>
         <v>CLIG</v>
@@ -15489,7 +15512,7 @@
       </c>
       <c r="X27" s="478"/>
     </row>
-    <row r="28" spans="2:24" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="28" spans="2:24" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B28" s="54" t="str">
         <f>$B$7</f>
         <v>CLIG</v>
@@ -15560,7 +15583,7 @@
         <v>0.6308100829423976</v>
       </c>
     </row>
-    <row r="29" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="29" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
@@ -15582,7 +15605,7 @@
       <c r="U29" s="75"/>
       <c r="V29" s="75"/>
     </row>
-    <row r="30" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="30" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="B30" s="108" t="s">
         <v>84</v>
       </c>
@@ -15614,7 +15637,7 @@
         <v>21554.62542431807</v>
       </c>
     </row>
-    <row r="31" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="31" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="H31" s="94"/>
       <c r="I31" s="471">
         <f>I28/SUM(I25:I28)</f>
@@ -15623,12 +15646,12 @@
       <c r="L31" s="69"/>
       <c r="P31" s="94"/>
     </row>
-    <row r="32" spans="2:24" s="16" customFormat="1" ht="14.25">
+    <row r="32" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="H32" s="94"/>
       <c r="L32" s="69"/>
       <c r="P32" s="94"/>
     </row>
-    <row r="33" spans="2:17" s="16" customFormat="1" ht="18">
+    <row r="33" spans="2:17" s="16" customFormat="1" ht="18.75">
       <c r="B33" s="66" t="s">
         <v>87</v>
       </c>
@@ -15652,7 +15675,7 @@
       <c r="P33" s="134"/>
       <c r="Q33" s="85"/>
     </row>
-    <row r="34" spans="2:17" s="16" customFormat="1" ht="29.25" thickBot="1">
+    <row r="34" spans="2:17" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="B34" s="190" t="s">
         <v>22</v>
       </c>
@@ -15738,7 +15761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="36" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B36" s="54" t="str">
         <f>$B$8</f>
         <v>CCOK</v>
@@ -15793,7 +15816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="37" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B37" s="54" t="str">
         <f t="shared" ref="B37:B43" si="3">$B$8</f>
         <v>CCOK</v>
@@ -15845,7 +15868,7 @@
         <v>0.82616413164356894</v>
       </c>
     </row>
-    <row r="38" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="38" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B38" s="54" t="str">
         <f t="shared" si="3"/>
         <v>CCOK</v>
@@ -15897,7 +15920,7 @@
         <v>22.639249361603362</v>
       </c>
     </row>
-    <row r="39" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="39" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B39" s="54" t="str">
         <f t="shared" si="3"/>
         <v>CCOK</v>
@@ -15949,7 +15972,7 @@
         <v>46.664867121523152</v>
       </c>
     </row>
-    <row r="40" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="40" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B40" s="54" t="str">
         <f t="shared" si="3"/>
         <v>CCOK</v>
@@ -16001,7 +16024,7 @@
         <v>1.5852515673774994</v>
       </c>
     </row>
-    <row r="41" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="41" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B41" s="54" t="str">
         <f t="shared" si="3"/>
         <v>CCOK</v>
@@ -16053,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="42" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B42" s="54" t="str">
         <f t="shared" si="3"/>
         <v>CCOK</v>
@@ -16105,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="43" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B43" s="54" t="str">
         <f t="shared" si="3"/>
         <v>CCOK</v>
@@ -16157,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="44" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
@@ -16175,7 +16198,7 @@
       <c r="P44" s="73"/>
       <c r="Q44" s="54"/>
     </row>
-    <row r="45" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="45" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B45" s="108" t="s">
         <v>84</v>
       </c>
@@ -16207,17 +16230,17 @@
         <v>71.715532182147584</v>
       </c>
     </row>
-    <row r="46" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="46" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="H46" s="94"/>
       <c r="L46" s="69"/>
       <c r="P46" s="94"/>
     </row>
-    <row r="47" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="47" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="H47" s="94"/>
       <c r="L47" s="69"/>
       <c r="P47" s="94"/>
     </row>
-    <row r="48" spans="2:17" s="16" customFormat="1" ht="18">
+    <row r="48" spans="2:17" s="16" customFormat="1" ht="18.75">
       <c r="B48" s="66" t="s">
         <v>88</v>
       </c>
@@ -16241,7 +16264,7 @@
       <c r="P48" s="134"/>
       <c r="Q48" s="85"/>
     </row>
-    <row r="49" spans="2:17" s="16" customFormat="1" ht="29.25" thickBot="1">
+    <row r="49" spans="2:17" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="B49" s="190" t="s">
         <v>22</v>
       </c>
@@ -16289,7 +16312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="2:17" s="16" customFormat="1" ht="47.65" thickBot="1">
+    <row r="50" spans="2:17" s="16" customFormat="1" ht="48" thickBot="1">
       <c r="B50" s="191" t="s">
         <v>25</v>
       </c>
@@ -16327,7 +16350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="51" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B51" s="54" t="str">
         <f>$B$9</f>
         <v>CREF</v>
@@ -16384,7 +16407,7 @@
         <v>20.933182366680917</v>
       </c>
     </row>
-    <row r="52" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="52" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B52" s="54" t="str">
         <f>$B$9</f>
         <v>CREF</v>
@@ -16438,7 +16461,7 @@
         <v>19.770227790754198</v>
       </c>
     </row>
-    <row r="53" spans="2:17" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="53" spans="2:17" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B53" s="54" t="str">
         <f>$B$9</f>
         <v>CREF</v>
@@ -16493,7 +16516,7 @@
         <v>31.012122024712465</v>
       </c>
     </row>
-    <row r="54" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="54" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
       <c r="D54" s="54"/>
@@ -16511,7 +16534,7 @@
       <c r="P54" s="73"/>
       <c r="Q54" s="54"/>
     </row>
-    <row r="55" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="55" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B55" s="209" t="s">
         <v>84</v>
       </c>
@@ -16543,17 +16566,17 @@
         <v>71.715532182147584</v>
       </c>
     </row>
-    <row r="56" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="56" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="H56" s="94"/>
       <c r="L56" s="69"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="57" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="H57" s="94"/>
       <c r="L57" s="69"/>
       <c r="P57" s="94"/>
     </row>
-    <row r="58" spans="2:17" s="16" customFormat="1" ht="18">
+    <row r="58" spans="2:17" s="16" customFormat="1" ht="18.75">
       <c r="B58" s="66" t="s">
         <v>91</v>
       </c>
@@ -16577,7 +16600,7 @@
       <c r="P58" s="134"/>
       <c r="Q58" s="85"/>
     </row>
-    <row r="59" spans="2:17" s="16" customFormat="1" ht="29.25" thickBot="1">
+    <row r="59" spans="2:17" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="B59" s="190" t="s">
         <v>22</v>
       </c>
@@ -16663,7 +16686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="61" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B61" s="54" t="str">
         <f>B10</f>
         <v>CPLI</v>
@@ -16718,7 +16741,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="62" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="62" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B62" s="54"/>
       <c r="C62" s="54"/>
       <c r="D62" s="54"/>
@@ -16736,7 +16759,7 @@
       <c r="P62" s="73"/>
       <c r="Q62" s="54"/>
     </row>
-    <row r="63" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="63" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B63" s="108" t="s">
         <v>84</v>
       </c>
@@ -16767,17 +16790,17 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="64" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="64" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="H64" s="94"/>
       <c r="L64" s="69"/>
       <c r="P64" s="94"/>
     </row>
-    <row r="65" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="65" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="H65" s="94"/>
       <c r="L65" s="69"/>
       <c r="P65" s="94"/>
     </row>
-    <row r="66" spans="2:17" s="16" customFormat="1" ht="18">
+    <row r="66" spans="2:17" s="16" customFormat="1" ht="18.75">
       <c r="B66" s="66" t="s">
         <v>89</v>
       </c>
@@ -16801,7 +16824,7 @@
       <c r="P66" s="134"/>
       <c r="Q66" s="85"/>
     </row>
-    <row r="67" spans="2:17" s="16" customFormat="1" ht="29.25" thickBot="1">
+    <row r="67" spans="2:17" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="B67" s="190" t="s">
         <v>22</v>
       </c>
@@ -16887,7 +16910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="69" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B69" s="54" t="str">
         <f>B11</f>
         <v>COEL</v>
@@ -16942,7 +16965,7 @@
         <v>71.715532182147584</v>
       </c>
     </row>
-    <row r="70" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="70" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B70" s="54"/>
       <c r="C70" s="54"/>
       <c r="D70" s="54"/>
@@ -16960,7 +16983,7 @@
       <c r="P70" s="73"/>
       <c r="Q70" s="54"/>
     </row>
-    <row r="71" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="71" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B71" s="108" t="s">
         <v>84</v>
       </c>
@@ -16992,16 +17015,16 @@
         <v>71.715532182147584</v>
       </c>
     </row>
-    <row r="72" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="72" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="I72" s="94"/>
       <c r="L72" s="69"/>
       <c r="Q72" s="94"/>
     </row>
-    <row r="73" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="73" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="L73" s="69"/>
       <c r="Q73" s="94"/>
     </row>
-    <row r="74" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="74" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
       <c r="D74" s="75"/>
@@ -17014,7 +17037,7 @@
       <c r="L74" s="69"/>
       <c r="Q74" s="94"/>
     </row>
-    <row r="75" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="75" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
       <c r="D75" s="75"/>
@@ -17027,7 +17050,7 @@
       <c r="L75" s="69"/>
       <c r="P75" s="94"/>
     </row>
-    <row r="76" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="76" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B76" s="195"/>
       <c r="C76" s="196"/>
       <c r="D76" s="196"/>
@@ -17040,7 +17063,7 @@
       <c r="L76" s="69"/>
       <c r="P76" s="94"/>
     </row>
-    <row r="77" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="77" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B77" s="148"/>
       <c r="C77" s="148"/>
       <c r="D77" s="148"/>
@@ -17053,7 +17076,7 @@
       <c r="L77" s="69"/>
       <c r="P77" s="94"/>
     </row>
-    <row r="78" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="78" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B78" s="37"/>
       <c r="C78" s="148"/>
       <c r="D78" s="148"/>
@@ -17066,7 +17089,7 @@
       <c r="L78" s="69"/>
       <c r="P78" s="94"/>
     </row>
-    <row r="79" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="79" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
       <c r="D79" s="197"/>
@@ -17079,7 +17102,7 @@
       <c r="L79" s="69"/>
       <c r="P79" s="94"/>
     </row>
-    <row r="80" spans="2:17" s="16" customFormat="1" ht="14.25">
+    <row r="80" spans="2:17" s="16" customFormat="1" ht="15">
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
       <c r="D80" s="75"/>
@@ -17092,7 +17115,7 @@
       <c r="L80" s="69"/>
       <c r="P80" s="94"/>
     </row>
-    <row r="81" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="81" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
       <c r="D81" s="75"/>
@@ -17105,7 +17128,7 @@
       <c r="L81" s="69"/>
       <c r="P81" s="94"/>
     </row>
-    <row r="82" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="82" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
       <c r="D82" s="75"/>
@@ -17118,7 +17141,7 @@
       <c r="L82" s="69"/>
       <c r="P82" s="94"/>
     </row>
-    <row r="83" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="83" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
       <c r="D83" s="75"/>
@@ -17131,7 +17154,7 @@
       <c r="L83" s="69"/>
       <c r="P83" s="94"/>
     </row>
-    <row r="84" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="84" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
       <c r="D84" s="75"/>
@@ -17144,7 +17167,7 @@
       <c r="L84" s="69"/>
       <c r="P84" s="94"/>
     </row>
-    <row r="85" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="85" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
       <c r="D85" s="75"/>
@@ -17157,7 +17180,7 @@
       <c r="L85" s="69"/>
       <c r="P85" s="94"/>
     </row>
-    <row r="86" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="86" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
       <c r="D86" s="75"/>
@@ -17170,7 +17193,7 @@
       <c r="L86" s="69"/>
       <c r="P86" s="94"/>
     </row>
-    <row r="87" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="87" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
       <c r="D87" s="75"/>
@@ -17183,7 +17206,7 @@
       <c r="L87" s="69"/>
       <c r="P87" s="94"/>
     </row>
-    <row r="88" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="88" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B88" s="153"/>
       <c r="C88" s="75"/>
       <c r="D88" s="75"/>
@@ -17196,7 +17219,7 @@
       <c r="L88" s="69"/>
       <c r="P88" s="94"/>
     </row>
-    <row r="89" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="89" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B89" s="145"/>
       <c r="C89" s="75"/>
       <c r="D89" s="75"/>
@@ -17209,7 +17232,7 @@
       <c r="L89" s="69"/>
       <c r="P89" s="94"/>
     </row>
-    <row r="90" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="90" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
       <c r="D90" s="75"/>
@@ -17222,7 +17245,7 @@
       <c r="L90" s="69"/>
       <c r="P90" s="94"/>
     </row>
-    <row r="91" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="91" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
       <c r="D91" s="75"/>
@@ -17235,7 +17258,7 @@
       <c r="L91" s="69"/>
       <c r="P91" s="94"/>
     </row>
-    <row r="92" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="92" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
       <c r="D92" s="75"/>
@@ -17248,7 +17271,7 @@
       <c r="L92" s="69"/>
       <c r="P92" s="94"/>
     </row>
-    <row r="93" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="93" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
       <c r="D93" s="75"/>
@@ -17261,31 +17284,31 @@
       <c r="L93" s="69"/>
       <c r="P93" s="94"/>
     </row>
-    <row r="94" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="94" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="L94" s="69"/>
       <c r="P94" s="94"/>
     </row>
-    <row r="95" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="95" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="L95" s="69"/>
       <c r="P95" s="94"/>
     </row>
-    <row r="96" spans="2:16" s="16" customFormat="1" ht="14.25">
+    <row r="96" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="L96" s="69"/>
       <c r="P96" s="94"/>
     </row>
-    <row r="97" spans="12:16" s="16" customFormat="1" ht="14.25">
+    <row r="97" spans="12:16" s="16" customFormat="1" ht="15">
       <c r="L97" s="69"/>
       <c r="P97" s="94"/>
     </row>
-    <row r="98" spans="12:16" s="16" customFormat="1" ht="14.25">
+    <row r="98" spans="12:16" s="16" customFormat="1" ht="15">
       <c r="L98" s="69"/>
       <c r="P98" s="94"/>
     </row>
-    <row r="99" spans="12:16" s="16" customFormat="1" ht="14.25">
+    <row r="99" spans="12:16" s="16" customFormat="1" ht="15">
       <c r="L99" s="69"/>
       <c r="P99" s="94"/>
     </row>
-    <row r="100" spans="12:16" s="16" customFormat="1" ht="14.25">
+    <row r="100" spans="12:16" s="16" customFormat="1" ht="15">
       <c r="L100" s="69"/>
       <c r="P100" s="94"/>
     </row>
@@ -17303,44 +17326,44 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:N42"/>
+  <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
-    <col min="3" max="3" width="30.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="256" width="11.3984375" customWidth="1"/>
+    <col min="12" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="25.5">
+    <row r="2" spans="2:15" ht="26.25">
       <c r="B2" s="82" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="25.5">
+    <row r="3" spans="2:15" ht="26.25">
       <c r="B3" s="83" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="13.15">
+    <row r="5" spans="2:15">
       <c r="G5" s="7"/>
       <c r="I5" s="7"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="2:14" ht="17.25">
+    <row r="6" spans="2:15" ht="18">
       <c r="B6" s="4" t="s">
         <v>147</v>
       </c>
@@ -17358,7 +17381,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="7" spans="2:15" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B7" s="185" t="s">
         <v>15</v>
       </c>
@@ -17374,28 +17397,31 @@
       <c r="F7" s="186" t="s">
         <v>247</v>
       </c>
-      <c r="G7" s="186" t="s">
+      <c r="G7" s="797" t="s">
+        <v>613</v>
+      </c>
+      <c r="H7" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="186" t="s">
+      <c r="I7" s="186" t="s">
         <v>211</v>
       </c>
-      <c r="I7" s="186" t="s">
+      <c r="J7" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="186" t="s">
+      <c r="K7" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="186" t="s">
+      <c r="L7" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="69"/>
-      <c r="M7" s="786" t="s">
+      <c r="M7" s="69"/>
+      <c r="N7" s="786" t="s">
         <v>238</v>
       </c>
-      <c r="N7" s="786"/>
-    </row>
-    <row r="8" spans="2:14" s="16" customFormat="1" ht="14.25">
+      <c r="O7" s="786"/>
+    </row>
+    <row r="8" spans="2:15" s="16" customFormat="1" ht="15">
       <c r="B8" s="187" t="s">
         <v>148</v>
       </c>
@@ -17405,24 +17431,25 @@
       <c r="F8" s="187"/>
       <c r="G8" s="187"/>
       <c r="H8" s="187"/>
-      <c r="I8" s="187" t="s">
+      <c r="I8" s="187"/>
+      <c r="J8" s="187" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="187" t="s">
+      <c r="K8" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="187" t="s">
+      <c r="L8" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="69"/>
-      <c r="M8" s="187" t="s">
+      <c r="M8" s="69"/>
+      <c r="N8" s="187" t="s">
         <v>257</v>
       </c>
-      <c r="N8" s="187" t="s">
+      <c r="O8" s="187" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="16" customFormat="1" ht="14.25">
+    <row r="9" spans="2:15" s="16" customFormat="1" ht="15">
       <c r="B9" s="140" t="s">
         <v>543</v>
       </c>
@@ -17436,33 +17463,34 @@
         <v>72</v>
       </c>
       <c r="F9" s="54"/>
-      <c r="G9" s="73">
+      <c r="G9" s="54"/>
+      <c r="H9" s="73">
         <v>1</v>
       </c>
-      <c r="H9" s="54">
+      <c r="I9" s="54">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="121">
-        <f>N9/(K9*H9)</f>
+      <c r="J9" s="121">
+        <f>O9/(L9*I9)</f>
         <v>1.6967369414688071E-3</v>
       </c>
-      <c r="J9" s="54">
+      <c r="K9" s="54">
         <v>15</v>
       </c>
-      <c r="K9" s="54">
+      <c r="L9" s="54">
         <v>0.13</v>
       </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="413">
-        <f>H9*I9*K9</f>
+      <c r="M9" s="69"/>
+      <c r="N9" s="413">
+        <f>I9*J9*L9</f>
         <v>6.95607850420084E-3</v>
       </c>
-      <c r="N9" s="413">
+      <c r="O9" s="413">
         <f>0.16614308073471*COM_Balance!$S$5</f>
         <v>6.9560785042008392E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="16" customFormat="1" ht="14.25">
+    <row r="10" spans="2:15" s="16" customFormat="1" ht="15">
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -17472,54 +17500,57 @@
       <c r="F10" s="73">
         <v>0.3</v>
       </c>
-      <c r="G10" s="54"/>
+      <c r="G10" s="800">
+        <v>5</v>
+      </c>
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
       <c r="J10" s="54"/>
       <c r="K10" s="54"/>
-      <c r="L10" s="69"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="69"/>
       <c r="N10" s="69"/>
-    </row>
-    <row r="11" spans="2:14" s="16" customFormat="1" ht="14.25">
+      <c r="O10" s="69"/>
+    </row>
+    <row r="11" spans="2:15" s="16" customFormat="1" ht="15">
       <c r="M11" s="412"/>
     </row>
-    <row r="12" spans="2:14" s="16" customFormat="1" ht="14.25"/>
-    <row r="13" spans="2:14" s="16" customFormat="1" ht="14.25"/>
-    <row r="14" spans="2:14" s="16" customFormat="1" ht="14.25"/>
-    <row r="15" spans="2:14" s="16" customFormat="1" ht="14.25"/>
-    <row r="16" spans="2:14" s="16" customFormat="1" ht="14.25"/>
-    <row r="17" spans="2:2" s="16" customFormat="1" ht="14.25">
+    <row r="12" spans="2:15" s="16" customFormat="1" ht="15"/>
+    <row r="13" spans="2:15" s="16" customFormat="1" ht="15"/>
+    <row r="14" spans="2:15" s="16" customFormat="1" ht="15"/>
+    <row r="15" spans="2:15" s="16" customFormat="1" ht="15"/>
+    <row r="16" spans="2:15" s="16" customFormat="1" ht="15"/>
+    <row r="17" spans="2:2" s="16" customFormat="1" ht="15">
       <c r="B17" s="414"/>
     </row>
-    <row r="18" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="19" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="20" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="21" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="22" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="23" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="24" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="25" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="26" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="27" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="28" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="29" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="30" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="31" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="32" spans="2:2" s="16" customFormat="1" ht="14.25"/>
-    <row r="33" s="16" customFormat="1" ht="14.25"/>
-    <row r="34" s="16" customFormat="1" ht="14.25"/>
-    <row r="35" s="16" customFormat="1" ht="14.25"/>
-    <row r="36" s="16" customFormat="1" ht="14.25"/>
-    <row r="37" s="16" customFormat="1" ht="14.25"/>
-    <row r="38" s="16" customFormat="1" ht="14.25"/>
-    <row r="39" s="16" customFormat="1" ht="14.25"/>
-    <row r="40" s="16" customFormat="1" ht="14.25"/>
-    <row r="41" s="16" customFormat="1" ht="14.25"/>
-    <row r="42" s="16" customFormat="1" ht="14.25"/>
+    <row r="18" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="19" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="20" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="21" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="22" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="23" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="24" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="25" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="26" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="27" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="28" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="29" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="30" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="31" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="32" spans="2:2" s="16" customFormat="1" ht="15"/>
+    <row r="33" s="16" customFormat="1" ht="15"/>
+    <row r="34" s="16" customFormat="1" ht="15"/>
+    <row r="35" s="16" customFormat="1" ht="15"/>
+    <row r="36" s="16" customFormat="1" ht="15"/>
+    <row r="37" s="16" customFormat="1" ht="15"/>
+    <row r="38" s="16" customFormat="1" ht="15"/>
+    <row r="39" s="16" customFormat="1" ht="15"/>
+    <row r="40" s="16" customFormat="1" ht="15"/>
+    <row r="41" s="16" customFormat="1" ht="15"/>
+    <row r="42" s="16" customFormat="1" ht="15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17536,17 +17567,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="429"/>
-    <col min="2" max="2" width="27.73046875" style="427" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="428" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" style="428" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" style="428" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.265625" style="428" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="429"/>
-    <col min="9" max="9" width="10.86328125" style="429" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="429"/>
+    <col min="1" max="1" width="9.140625" style="429"/>
+    <col min="2" max="2" width="27.7109375" style="427" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="428" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="428" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="428" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" style="428" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="429"/>
+    <col min="9" max="9" width="10.85546875" style="429" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="429"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9">
@@ -17592,7 +17623,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" ht="30">
       <c r="B7" s="432" t="s">
         <v>421</v>
       </c>
@@ -17643,7 +17674,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" ht="30">
       <c r="B9" s="432" t="s">
         <v>512</v>
       </c>
@@ -17688,7 +17719,7 @@
         <v>924369.74789915967</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="28.5">
+    <row r="11" spans="2:9" ht="30">
       <c r="B11" s="432" t="s">
         <v>425</v>
       </c>
@@ -17717,7 +17748,7 @@
       <c r="F12" s="436"/>
       <c r="G12" s="436"/>
     </row>
-    <row r="13" spans="2:9" ht="28.5">
+    <row r="13" spans="2:9" ht="30">
       <c r="B13" s="430" t="s">
         <v>426</v>
       </c>
@@ -17796,7 +17827,7 @@
       <c r="F17" s="439"/>
       <c r="G17" s="439"/>
     </row>
-    <row r="18" spans="2:9" ht="42.75">
+    <row r="18" spans="2:9" ht="45">
       <c r="B18" s="430" t="s">
         <v>429</v>
       </c>
@@ -17886,7 +17917,7 @@
       <c r="F22" s="439"/>
       <c r="G22" s="439"/>
     </row>
-    <row r="23" spans="2:9" ht="42.75">
+    <row r="23" spans="2:9" ht="45">
       <c r="B23" s="430" t="s">
         <v>431</v>
       </c>
@@ -18054,7 +18085,7 @@
       <c r="F32" s="439"/>
       <c r="G32" s="439"/>
     </row>
-    <row r="33" spans="2:7" ht="28.5">
+    <row r="33" spans="2:7" ht="30">
       <c r="B33" s="430" t="s">
         <v>436</v>
       </c>
@@ -18122,7 +18153,7 @@
       <c r="F37" s="439"/>
       <c r="G37" s="439"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" ht="30">
       <c r="B38" s="432" t="s">
         <v>440</v>
       </c>
@@ -18142,7 +18173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="28.5">
+    <row r="39" spans="2:7" ht="30">
       <c r="B39" s="432" t="s">
         <v>441</v>
       </c>
@@ -18162,7 +18193,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="28.5">
+    <row r="40" spans="2:7" ht="30">
       <c r="B40" s="432" t="s">
         <v>442</v>
       </c>
@@ -18190,7 +18221,7 @@
       <c r="F41" s="439"/>
       <c r="G41" s="439"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" ht="30">
       <c r="B42" s="430" t="s">
         <v>443</v>
       </c>
@@ -18260,7 +18291,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="13.15" thickBot="1">
+    <row r="49" spans="2:7" ht="13.5" thickBot="1">
       <c r="B49" s="446"/>
       <c r="C49" s="446"/>
       <c r="D49" s="446"/>
@@ -18310,7 +18341,7 @@
       <c r="F54" s="452"/>
       <c r="G54" s="446"/>
     </row>
-    <row r="55" spans="2:7" ht="18">
+    <row r="55" spans="2:7" ht="18.75">
       <c r="B55" s="446"/>
       <c r="C55" s="453"/>
       <c r="D55" s="451"/>
@@ -18328,7 +18359,7 @@
       <c r="F56" s="792"/>
       <c r="G56" s="446"/>
     </row>
-    <row r="57" spans="2:7" ht="14.65" thickBot="1">
+    <row r="57" spans="2:7" ht="15.75" thickBot="1">
       <c r="B57" s="454"/>
       <c r="C57" s="455"/>
       <c r="D57" s="456"/>
@@ -18377,21 +18408,21 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="481"/>
-    <col min="3" max="3" width="38.86328125" style="481" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" style="481" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.86328125" style="481" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="481" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="482"/>
-    <col min="8" max="8" width="32.33203125" style="481" customWidth="1"/>
-    <col min="9" max="9" width="10.265625" style="481" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="481" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="481"/>
+    <col min="1" max="2" width="9.140625" style="481"/>
+    <col min="3" max="3" width="38.85546875" style="481" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="481" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="481" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="481" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="482"/>
+    <col min="8" max="8" width="32.28515625" style="481" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="481" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="481" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="481"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="14.25">
+    <row r="2" spans="2:10" ht="15">
       <c r="B2" s="481" t="s">
         <v>513</v>
       </c>
@@ -18399,7 +18430,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="14.25">
+    <row r="5" spans="2:10" ht="15">
       <c r="C5" s="483" t="s">
         <v>600</v>
       </c>
@@ -18407,7 +18438,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="14.25">
+    <row r="6" spans="2:10" ht="15">
       <c r="C6" s="484"/>
       <c r="D6" s="484" t="s">
         <v>514</v>
@@ -18480,7 +18511,7 @@
         <v>0.69119025304592319</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="14.25">
+    <row r="9" spans="2:10" ht="15">
       <c r="C9" s="764" t="s">
         <v>605</v>
       </c>
@@ -18610,7 +18641,7 @@
         <v>3.0459231490159326E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="14.25">
+    <row r="14" spans="2:10" ht="15">
       <c r="C14" s="764" t="s">
         <v>606</v>
       </c>
@@ -18722,7 +18753,7 @@
         <v>875.40842648323292</v>
       </c>
     </row>
-    <row r="23" spans="3:10" ht="14.25">
+    <row r="23" spans="3:10" ht="15">
       <c r="C23" s="489" t="s">
         <v>602</v>
       </c>
@@ -18742,7 +18773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="14.25">
+    <row r="24" spans="3:10" ht="15">
       <c r="C24" s="485" t="s">
         <v>527</v>
       </c>
@@ -18764,7 +18795,7 @@
         <v>0.30677290836653387</v>
       </c>
     </row>
-    <row r="25" spans="3:10" ht="14.25">
+    <row r="25" spans="3:10" ht="15">
       <c r="C25" s="485" t="s">
         <v>528</v>
       </c>
@@ -18786,7 +18817,7 @@
         <v>0.26237905520774046</v>
       </c>
     </row>
-    <row r="26" spans="3:10" ht="14.25">
+    <row r="26" spans="3:10" ht="15">
       <c r="C26" s="485" t="s">
         <v>529</v>
       </c>
@@ -18808,7 +18839,7 @@
         <v>0.17586795674445077</v>
       </c>
     </row>
-    <row r="27" spans="3:10" ht="14.25">
+    <row r="27" spans="3:10" ht="15">
       <c r="C27" s="485" t="s">
         <v>530</v>
       </c>
@@ -18830,7 +18861,7 @@
         <v>0.12293682413204325</v>
       </c>
     </row>
-    <row r="28" spans="3:10" ht="14.25">
+    <row r="28" spans="3:10" ht="15">
       <c r="C28" s="485" t="s">
         <v>531</v>
       </c>
@@ -18852,7 +18883,7 @@
         <v>7.2851451337507117E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="14.25">
+    <row r="29" spans="3:10" ht="15">
       <c r="C29" s="485" t="s">
         <v>42</v>
       </c>
@@ -18874,7 +18905,7 @@
         <v>2.8457598178713718E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="14.25">
+    <row r="30" spans="3:10" ht="15">
       <c r="C30" s="767" t="s">
         <v>603</v>
       </c>
@@ -18896,7 +18927,7 @@
         <v>2.3335230506545249E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:10" ht="14.25">
+    <row r="31" spans="3:10" ht="15">
       <c r="C31" s="485" t="s">
         <v>139</v>
       </c>
@@ -18918,7 +18949,7 @@
         <v>5.6915196357427431E-3</v>
       </c>
     </row>
-    <row r="32" spans="3:10" ht="14.25">
+    <row r="32" spans="3:10" ht="15">
       <c r="C32" s="485" t="s">
         <v>435</v>
       </c>
@@ -18971,7 +19002,7 @@
       </c>
       <c r="J34" s="484"/>
     </row>
-    <row r="36" spans="3:10" ht="14.25">
+    <row r="36" spans="3:10" ht="15">
       <c r="C36" s="481" t="s">
         <v>534</v>
       </c>
@@ -18984,7 +19015,7 @@
         <v>0.55026343519494203</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="14.25">
+    <row r="37" spans="3:10" ht="15">
       <c r="C37" s="481" t="s">
         <v>435</v>
       </c>
@@ -18997,7 +19028,7 @@
         <v>0.36501580611169654</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="14.25">
+    <row r="38" spans="3:10" ht="15">
       <c r="C38" s="766" t="s">
         <v>42</v>
       </c>
@@ -19040,198 +19071,198 @@
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="465" customWidth="1"/>
-    <col min="2" max="15" width="13.73046875" style="458" customWidth="1"/>
-    <col min="16" max="241" width="9.1328125" style="458"/>
+    <col min="2" max="15" width="13.7109375" style="458" customWidth="1"/>
+    <col min="16" max="241" width="9.140625" style="458"/>
     <col min="242" max="242" width="18" style="458" customWidth="1"/>
-    <col min="243" max="256" width="13.73046875" style="458" customWidth="1"/>
-    <col min="257" max="497" width="9.1328125" style="458"/>
+    <col min="243" max="256" width="13.7109375" style="458" customWidth="1"/>
+    <col min="257" max="497" width="9.140625" style="458"/>
     <col min="498" max="498" width="18" style="458" customWidth="1"/>
-    <col min="499" max="512" width="13.73046875" style="458" customWidth="1"/>
-    <col min="513" max="753" width="9.1328125" style="458"/>
+    <col min="499" max="512" width="13.7109375" style="458" customWidth="1"/>
+    <col min="513" max="753" width="9.140625" style="458"/>
     <col min="754" max="754" width="18" style="458" customWidth="1"/>
-    <col min="755" max="768" width="13.73046875" style="458" customWidth="1"/>
-    <col min="769" max="1009" width="9.1328125" style="458"/>
+    <col min="755" max="768" width="13.7109375" style="458" customWidth="1"/>
+    <col min="769" max="1009" width="9.140625" style="458"/>
     <col min="1010" max="1010" width="18" style="458" customWidth="1"/>
-    <col min="1011" max="1024" width="13.73046875" style="458" customWidth="1"/>
-    <col min="1025" max="1265" width="9.1328125" style="458"/>
+    <col min="1011" max="1024" width="13.7109375" style="458" customWidth="1"/>
+    <col min="1025" max="1265" width="9.140625" style="458"/>
     <col min="1266" max="1266" width="18" style="458" customWidth="1"/>
-    <col min="1267" max="1280" width="13.73046875" style="458" customWidth="1"/>
-    <col min="1281" max="1521" width="9.1328125" style="458"/>
+    <col min="1267" max="1280" width="13.7109375" style="458" customWidth="1"/>
+    <col min="1281" max="1521" width="9.140625" style="458"/>
     <col min="1522" max="1522" width="18" style="458" customWidth="1"/>
-    <col min="1523" max="1536" width="13.73046875" style="458" customWidth="1"/>
-    <col min="1537" max="1777" width="9.1328125" style="458"/>
+    <col min="1523" max="1536" width="13.7109375" style="458" customWidth="1"/>
+    <col min="1537" max="1777" width="9.140625" style="458"/>
     <col min="1778" max="1778" width="18" style="458" customWidth="1"/>
-    <col min="1779" max="1792" width="13.73046875" style="458" customWidth="1"/>
-    <col min="1793" max="2033" width="9.1328125" style="458"/>
+    <col min="1779" max="1792" width="13.7109375" style="458" customWidth="1"/>
+    <col min="1793" max="2033" width="9.140625" style="458"/>
     <col min="2034" max="2034" width="18" style="458" customWidth="1"/>
-    <col min="2035" max="2048" width="13.73046875" style="458" customWidth="1"/>
-    <col min="2049" max="2289" width="9.1328125" style="458"/>
+    <col min="2035" max="2048" width="13.7109375" style="458" customWidth="1"/>
+    <col min="2049" max="2289" width="9.140625" style="458"/>
     <col min="2290" max="2290" width="18" style="458" customWidth="1"/>
-    <col min="2291" max="2304" width="13.73046875" style="458" customWidth="1"/>
-    <col min="2305" max="2545" width="9.1328125" style="458"/>
+    <col min="2291" max="2304" width="13.7109375" style="458" customWidth="1"/>
+    <col min="2305" max="2545" width="9.140625" style="458"/>
     <col min="2546" max="2546" width="18" style="458" customWidth="1"/>
-    <col min="2547" max="2560" width="13.73046875" style="458" customWidth="1"/>
-    <col min="2561" max="2801" width="9.1328125" style="458"/>
+    <col min="2547" max="2560" width="13.7109375" style="458" customWidth="1"/>
+    <col min="2561" max="2801" width="9.140625" style="458"/>
     <col min="2802" max="2802" width="18" style="458" customWidth="1"/>
-    <col min="2803" max="2816" width="13.73046875" style="458" customWidth="1"/>
-    <col min="2817" max="3057" width="9.1328125" style="458"/>
+    <col min="2803" max="2816" width="13.7109375" style="458" customWidth="1"/>
+    <col min="2817" max="3057" width="9.140625" style="458"/>
     <col min="3058" max="3058" width="18" style="458" customWidth="1"/>
-    <col min="3059" max="3072" width="13.73046875" style="458" customWidth="1"/>
-    <col min="3073" max="3313" width="9.1328125" style="458"/>
+    <col min="3059" max="3072" width="13.7109375" style="458" customWidth="1"/>
+    <col min="3073" max="3313" width="9.140625" style="458"/>
     <col min="3314" max="3314" width="18" style="458" customWidth="1"/>
-    <col min="3315" max="3328" width="13.73046875" style="458" customWidth="1"/>
-    <col min="3329" max="3569" width="9.1328125" style="458"/>
+    <col min="3315" max="3328" width="13.7109375" style="458" customWidth="1"/>
+    <col min="3329" max="3569" width="9.140625" style="458"/>
     <col min="3570" max="3570" width="18" style="458" customWidth="1"/>
-    <col min="3571" max="3584" width="13.73046875" style="458" customWidth="1"/>
-    <col min="3585" max="3825" width="9.1328125" style="458"/>
+    <col min="3571" max="3584" width="13.7109375" style="458" customWidth="1"/>
+    <col min="3585" max="3825" width="9.140625" style="458"/>
     <col min="3826" max="3826" width="18" style="458" customWidth="1"/>
-    <col min="3827" max="3840" width="13.73046875" style="458" customWidth="1"/>
-    <col min="3841" max="4081" width="9.1328125" style="458"/>
+    <col min="3827" max="3840" width="13.7109375" style="458" customWidth="1"/>
+    <col min="3841" max="4081" width="9.140625" style="458"/>
     <col min="4082" max="4082" width="18" style="458" customWidth="1"/>
-    <col min="4083" max="4096" width="13.73046875" style="458" customWidth="1"/>
-    <col min="4097" max="4337" width="9.1328125" style="458"/>
+    <col min="4083" max="4096" width="13.7109375" style="458" customWidth="1"/>
+    <col min="4097" max="4337" width="9.140625" style="458"/>
     <col min="4338" max="4338" width="18" style="458" customWidth="1"/>
-    <col min="4339" max="4352" width="13.73046875" style="458" customWidth="1"/>
-    <col min="4353" max="4593" width="9.1328125" style="458"/>
+    <col min="4339" max="4352" width="13.7109375" style="458" customWidth="1"/>
+    <col min="4353" max="4593" width="9.140625" style="458"/>
     <col min="4594" max="4594" width="18" style="458" customWidth="1"/>
-    <col min="4595" max="4608" width="13.73046875" style="458" customWidth="1"/>
-    <col min="4609" max="4849" width="9.1328125" style="458"/>
+    <col min="4595" max="4608" width="13.7109375" style="458" customWidth="1"/>
+    <col min="4609" max="4849" width="9.140625" style="458"/>
     <col min="4850" max="4850" width="18" style="458" customWidth="1"/>
-    <col min="4851" max="4864" width="13.73046875" style="458" customWidth="1"/>
-    <col min="4865" max="5105" width="9.1328125" style="458"/>
+    <col min="4851" max="4864" width="13.7109375" style="458" customWidth="1"/>
+    <col min="4865" max="5105" width="9.140625" style="458"/>
     <col min="5106" max="5106" width="18" style="458" customWidth="1"/>
-    <col min="5107" max="5120" width="13.73046875" style="458" customWidth="1"/>
-    <col min="5121" max="5361" width="9.1328125" style="458"/>
+    <col min="5107" max="5120" width="13.7109375" style="458" customWidth="1"/>
+    <col min="5121" max="5361" width="9.140625" style="458"/>
     <col min="5362" max="5362" width="18" style="458" customWidth="1"/>
-    <col min="5363" max="5376" width="13.73046875" style="458" customWidth="1"/>
-    <col min="5377" max="5617" width="9.1328125" style="458"/>
+    <col min="5363" max="5376" width="13.7109375" style="458" customWidth="1"/>
+    <col min="5377" max="5617" width="9.140625" style="458"/>
     <col min="5618" max="5618" width="18" style="458" customWidth="1"/>
-    <col min="5619" max="5632" width="13.73046875" style="458" customWidth="1"/>
-    <col min="5633" max="5873" width="9.1328125" style="458"/>
+    <col min="5619" max="5632" width="13.7109375" style="458" customWidth="1"/>
+    <col min="5633" max="5873" width="9.140625" style="458"/>
     <col min="5874" max="5874" width="18" style="458" customWidth="1"/>
-    <col min="5875" max="5888" width="13.73046875" style="458" customWidth="1"/>
-    <col min="5889" max="6129" width="9.1328125" style="458"/>
+    <col min="5875" max="5888" width="13.7109375" style="458" customWidth="1"/>
+    <col min="5889" max="6129" width="9.140625" style="458"/>
     <col min="6130" max="6130" width="18" style="458" customWidth="1"/>
-    <col min="6131" max="6144" width="13.73046875" style="458" customWidth="1"/>
-    <col min="6145" max="6385" width="9.1328125" style="458"/>
+    <col min="6131" max="6144" width="13.7109375" style="458" customWidth="1"/>
+    <col min="6145" max="6385" width="9.140625" style="458"/>
     <col min="6386" max="6386" width="18" style="458" customWidth="1"/>
-    <col min="6387" max="6400" width="13.73046875" style="458" customWidth="1"/>
-    <col min="6401" max="6641" width="9.1328125" style="458"/>
+    <col min="6387" max="6400" width="13.7109375" style="458" customWidth="1"/>
+    <col min="6401" max="6641" width="9.140625" style="458"/>
     <col min="6642" max="6642" width="18" style="458" customWidth="1"/>
-    <col min="6643" max="6656" width="13.73046875" style="458" customWidth="1"/>
-    <col min="6657" max="6897" width="9.1328125" style="458"/>
+    <col min="6643" max="6656" width="13.7109375" style="458" customWidth="1"/>
+    <col min="6657" max="6897" width="9.140625" style="458"/>
     <col min="6898" max="6898" width="18" style="458" customWidth="1"/>
-    <col min="6899" max="6912" width="13.73046875" style="458" customWidth="1"/>
-    <col min="6913" max="7153" width="9.1328125" style="458"/>
+    <col min="6899" max="6912" width="13.7109375" style="458" customWidth="1"/>
+    <col min="6913" max="7153" width="9.140625" style="458"/>
     <col min="7154" max="7154" width="18" style="458" customWidth="1"/>
-    <col min="7155" max="7168" width="13.73046875" style="458" customWidth="1"/>
-    <col min="7169" max="7409" width="9.1328125" style="458"/>
+    <col min="7155" max="7168" width="13.7109375" style="458" customWidth="1"/>
+    <col min="7169" max="7409" width="9.140625" style="458"/>
     <col min="7410" max="7410" width="18" style="458" customWidth="1"/>
-    <col min="7411" max="7424" width="13.73046875" style="458" customWidth="1"/>
-    <col min="7425" max="7665" width="9.1328125" style="458"/>
+    <col min="7411" max="7424" width="13.7109375" style="458" customWidth="1"/>
+    <col min="7425" max="7665" width="9.140625" style="458"/>
     <col min="7666" max="7666" width="18" style="458" customWidth="1"/>
-    <col min="7667" max="7680" width="13.73046875" style="458" customWidth="1"/>
-    <col min="7681" max="7921" width="9.1328125" style="458"/>
+    <col min="7667" max="7680" width="13.7109375" style="458" customWidth="1"/>
+    <col min="7681" max="7921" width="9.140625" style="458"/>
     <col min="7922" max="7922" width="18" style="458" customWidth="1"/>
-    <col min="7923" max="7936" width="13.73046875" style="458" customWidth="1"/>
-    <col min="7937" max="8177" width="9.1328125" style="458"/>
+    <col min="7923" max="7936" width="13.7109375" style="458" customWidth="1"/>
+    <col min="7937" max="8177" width="9.140625" style="458"/>
     <col min="8178" max="8178" width="18" style="458" customWidth="1"/>
-    <col min="8179" max="8192" width="13.73046875" style="458" customWidth="1"/>
-    <col min="8193" max="8433" width="9.1328125" style="458"/>
+    <col min="8179" max="8192" width="13.7109375" style="458" customWidth="1"/>
+    <col min="8193" max="8433" width="9.140625" style="458"/>
     <col min="8434" max="8434" width="18" style="458" customWidth="1"/>
-    <col min="8435" max="8448" width="13.73046875" style="458" customWidth="1"/>
-    <col min="8449" max="8689" width="9.1328125" style="458"/>
+    <col min="8435" max="8448" width="13.7109375" style="458" customWidth="1"/>
+    <col min="8449" max="8689" width="9.140625" style="458"/>
     <col min="8690" max="8690" width="18" style="458" customWidth="1"/>
-    <col min="8691" max="8704" width="13.73046875" style="458" customWidth="1"/>
-    <col min="8705" max="8945" width="9.1328125" style="458"/>
+    <col min="8691" max="8704" width="13.7109375" style="458" customWidth="1"/>
+    <col min="8705" max="8945" width="9.140625" style="458"/>
     <col min="8946" max="8946" width="18" style="458" customWidth="1"/>
-    <col min="8947" max="8960" width="13.73046875" style="458" customWidth="1"/>
-    <col min="8961" max="9201" width="9.1328125" style="458"/>
+    <col min="8947" max="8960" width="13.7109375" style="458" customWidth="1"/>
+    <col min="8961" max="9201" width="9.140625" style="458"/>
     <col min="9202" max="9202" width="18" style="458" customWidth="1"/>
-    <col min="9203" max="9216" width="13.73046875" style="458" customWidth="1"/>
-    <col min="9217" max="9457" width="9.1328125" style="458"/>
+    <col min="9203" max="9216" width="13.7109375" style="458" customWidth="1"/>
+    <col min="9217" max="9457" width="9.140625" style="458"/>
     <col min="9458" max="9458" width="18" style="458" customWidth="1"/>
-    <col min="9459" max="9472" width="13.73046875" style="458" customWidth="1"/>
-    <col min="9473" max="9713" width="9.1328125" style="458"/>
+    <col min="9459" max="9472" width="13.7109375" style="458" customWidth="1"/>
+    <col min="9473" max="9713" width="9.140625" style="458"/>
     <col min="9714" max="9714" width="18" style="458" customWidth="1"/>
-    <col min="9715" max="9728" width="13.73046875" style="458" customWidth="1"/>
-    <col min="9729" max="9969" width="9.1328125" style="458"/>
+    <col min="9715" max="9728" width="13.7109375" style="458" customWidth="1"/>
+    <col min="9729" max="9969" width="9.140625" style="458"/>
     <col min="9970" max="9970" width="18" style="458" customWidth="1"/>
-    <col min="9971" max="9984" width="13.73046875" style="458" customWidth="1"/>
-    <col min="9985" max="10225" width="9.1328125" style="458"/>
+    <col min="9971" max="9984" width="13.7109375" style="458" customWidth="1"/>
+    <col min="9985" max="10225" width="9.140625" style="458"/>
     <col min="10226" max="10226" width="18" style="458" customWidth="1"/>
-    <col min="10227" max="10240" width="13.73046875" style="458" customWidth="1"/>
-    <col min="10241" max="10481" width="9.1328125" style="458"/>
+    <col min="10227" max="10240" width="13.7109375" style="458" customWidth="1"/>
+    <col min="10241" max="10481" width="9.140625" style="458"/>
     <col min="10482" max="10482" width="18" style="458" customWidth="1"/>
-    <col min="10483" max="10496" width="13.73046875" style="458" customWidth="1"/>
-    <col min="10497" max="10737" width="9.1328125" style="458"/>
+    <col min="10483" max="10496" width="13.7109375" style="458" customWidth="1"/>
+    <col min="10497" max="10737" width="9.140625" style="458"/>
     <col min="10738" max="10738" width="18" style="458" customWidth="1"/>
-    <col min="10739" max="10752" width="13.73046875" style="458" customWidth="1"/>
-    <col min="10753" max="10993" width="9.1328125" style="458"/>
+    <col min="10739" max="10752" width="13.7109375" style="458" customWidth="1"/>
+    <col min="10753" max="10993" width="9.140625" style="458"/>
     <col min="10994" max="10994" width="18" style="458" customWidth="1"/>
-    <col min="10995" max="11008" width="13.73046875" style="458" customWidth="1"/>
-    <col min="11009" max="11249" width="9.1328125" style="458"/>
+    <col min="10995" max="11008" width="13.7109375" style="458" customWidth="1"/>
+    <col min="11009" max="11249" width="9.140625" style="458"/>
     <col min="11250" max="11250" width="18" style="458" customWidth="1"/>
-    <col min="11251" max="11264" width="13.73046875" style="458" customWidth="1"/>
-    <col min="11265" max="11505" width="9.1328125" style="458"/>
+    <col min="11251" max="11264" width="13.7109375" style="458" customWidth="1"/>
+    <col min="11265" max="11505" width="9.140625" style="458"/>
     <col min="11506" max="11506" width="18" style="458" customWidth="1"/>
-    <col min="11507" max="11520" width="13.73046875" style="458" customWidth="1"/>
-    <col min="11521" max="11761" width="9.1328125" style="458"/>
+    <col min="11507" max="11520" width="13.7109375" style="458" customWidth="1"/>
+    <col min="11521" max="11761" width="9.140625" style="458"/>
     <col min="11762" max="11762" width="18" style="458" customWidth="1"/>
-    <col min="11763" max="11776" width="13.73046875" style="458" customWidth="1"/>
-    <col min="11777" max="12017" width="9.1328125" style="458"/>
+    <col min="11763" max="11776" width="13.7109375" style="458" customWidth="1"/>
+    <col min="11777" max="12017" width="9.140625" style="458"/>
     <col min="12018" max="12018" width="18" style="458" customWidth="1"/>
-    <col min="12019" max="12032" width="13.73046875" style="458" customWidth="1"/>
-    <col min="12033" max="12273" width="9.1328125" style="458"/>
+    <col min="12019" max="12032" width="13.7109375" style="458" customWidth="1"/>
+    <col min="12033" max="12273" width="9.140625" style="458"/>
     <col min="12274" max="12274" width="18" style="458" customWidth="1"/>
-    <col min="12275" max="12288" width="13.73046875" style="458" customWidth="1"/>
-    <col min="12289" max="12529" width="9.1328125" style="458"/>
+    <col min="12275" max="12288" width="13.7109375" style="458" customWidth="1"/>
+    <col min="12289" max="12529" width="9.140625" style="458"/>
     <col min="12530" max="12530" width="18" style="458" customWidth="1"/>
-    <col min="12531" max="12544" width="13.73046875" style="458" customWidth="1"/>
-    <col min="12545" max="12785" width="9.1328125" style="458"/>
+    <col min="12531" max="12544" width="13.7109375" style="458" customWidth="1"/>
+    <col min="12545" max="12785" width="9.140625" style="458"/>
     <col min="12786" max="12786" width="18" style="458" customWidth="1"/>
-    <col min="12787" max="12800" width="13.73046875" style="458" customWidth="1"/>
-    <col min="12801" max="13041" width="9.1328125" style="458"/>
+    <col min="12787" max="12800" width="13.7109375" style="458" customWidth="1"/>
+    <col min="12801" max="13041" width="9.140625" style="458"/>
     <col min="13042" max="13042" width="18" style="458" customWidth="1"/>
-    <col min="13043" max="13056" width="13.73046875" style="458" customWidth="1"/>
-    <col min="13057" max="13297" width="9.1328125" style="458"/>
+    <col min="13043" max="13056" width="13.7109375" style="458" customWidth="1"/>
+    <col min="13057" max="13297" width="9.140625" style="458"/>
     <col min="13298" max="13298" width="18" style="458" customWidth="1"/>
-    <col min="13299" max="13312" width="13.73046875" style="458" customWidth="1"/>
-    <col min="13313" max="13553" width="9.1328125" style="458"/>
+    <col min="13299" max="13312" width="13.7109375" style="458" customWidth="1"/>
+    <col min="13313" max="13553" width="9.140625" style="458"/>
     <col min="13554" max="13554" width="18" style="458" customWidth="1"/>
-    <col min="13555" max="13568" width="13.73046875" style="458" customWidth="1"/>
-    <col min="13569" max="13809" width="9.1328125" style="458"/>
+    <col min="13555" max="13568" width="13.7109375" style="458" customWidth="1"/>
+    <col min="13569" max="13809" width="9.140625" style="458"/>
     <col min="13810" max="13810" width="18" style="458" customWidth="1"/>
-    <col min="13811" max="13824" width="13.73046875" style="458" customWidth="1"/>
-    <col min="13825" max="14065" width="9.1328125" style="458"/>
+    <col min="13811" max="13824" width="13.7109375" style="458" customWidth="1"/>
+    <col min="13825" max="14065" width="9.140625" style="458"/>
     <col min="14066" max="14066" width="18" style="458" customWidth="1"/>
-    <col min="14067" max="14080" width="13.73046875" style="458" customWidth="1"/>
-    <col min="14081" max="14321" width="9.1328125" style="458"/>
+    <col min="14067" max="14080" width="13.7109375" style="458" customWidth="1"/>
+    <col min="14081" max="14321" width="9.140625" style="458"/>
     <col min="14322" max="14322" width="18" style="458" customWidth="1"/>
-    <col min="14323" max="14336" width="13.73046875" style="458" customWidth="1"/>
-    <col min="14337" max="14577" width="9.1328125" style="458"/>
+    <col min="14323" max="14336" width="13.7109375" style="458" customWidth="1"/>
+    <col min="14337" max="14577" width="9.140625" style="458"/>
     <col min="14578" max="14578" width="18" style="458" customWidth="1"/>
-    <col min="14579" max="14592" width="13.73046875" style="458" customWidth="1"/>
-    <col min="14593" max="14833" width="9.1328125" style="458"/>
+    <col min="14579" max="14592" width="13.7109375" style="458" customWidth="1"/>
+    <col min="14593" max="14833" width="9.140625" style="458"/>
     <col min="14834" max="14834" width="18" style="458" customWidth="1"/>
-    <col min="14835" max="14848" width="13.73046875" style="458" customWidth="1"/>
-    <col min="14849" max="15089" width="9.1328125" style="458"/>
+    <col min="14835" max="14848" width="13.7109375" style="458" customWidth="1"/>
+    <col min="14849" max="15089" width="9.140625" style="458"/>
     <col min="15090" max="15090" width="18" style="458" customWidth="1"/>
-    <col min="15091" max="15104" width="13.73046875" style="458" customWidth="1"/>
-    <col min="15105" max="15345" width="9.1328125" style="458"/>
+    <col min="15091" max="15104" width="13.7109375" style="458" customWidth="1"/>
+    <col min="15105" max="15345" width="9.140625" style="458"/>
     <col min="15346" max="15346" width="18" style="458" customWidth="1"/>
-    <col min="15347" max="15360" width="13.73046875" style="458" customWidth="1"/>
-    <col min="15361" max="15601" width="9.1328125" style="458"/>
+    <col min="15347" max="15360" width="13.7109375" style="458" customWidth="1"/>
+    <col min="15361" max="15601" width="9.140625" style="458"/>
     <col min="15602" max="15602" width="18" style="458" customWidth="1"/>
-    <col min="15603" max="15616" width="13.73046875" style="458" customWidth="1"/>
-    <col min="15617" max="15857" width="9.1328125" style="458"/>
+    <col min="15603" max="15616" width="13.7109375" style="458" customWidth="1"/>
+    <col min="15617" max="15857" width="9.140625" style="458"/>
     <col min="15858" max="15858" width="18" style="458" customWidth="1"/>
-    <col min="15859" max="15872" width="13.73046875" style="458" customWidth="1"/>
-    <col min="15873" max="16113" width="9.1328125" style="458"/>
+    <col min="15859" max="15872" width="13.7109375" style="458" customWidth="1"/>
+    <col min="15873" max="16113" width="9.140625" style="458"/>
     <col min="16114" max="16114" width="18" style="458" customWidth="1"/>
-    <col min="16115" max="16128" width="13.73046875" style="458" customWidth="1"/>
-    <col min="16129" max="16369" width="9.1328125" style="458"/>
-    <col min="16370" max="16384" width="9.1328125" style="458" customWidth="1"/>
+    <col min="16115" max="16128" width="13.7109375" style="458" customWidth="1"/>
+    <col min="16129" max="16369" width="9.140625" style="458"/>
+    <col min="16370" max="16384" width="9.140625" style="458" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
@@ -20903,12 +20934,12 @@
       <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1328125" style="481"/>
+    <col min="1" max="16384" width="9.140625" style="481"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="14.25">
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="769" t="s">
         <v>533</v>
       </c>
@@ -20930,15 +20961,15 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="557" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="557" customWidth="1"/>
-    <col min="3" max="3" width="68.3984375" style="557" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="557"/>
+    <col min="1" max="1" width="3.7109375" style="557" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="557" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" style="557" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="557"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18">
+    <row r="2" spans="2:3" ht="18.75">
       <c r="B2" s="553" t="s">
         <v>149</v>
       </c>
@@ -21043,7 +21074,7 @@
     <row r="15" spans="2:3">
       <c r="B15" s="81"/>
     </row>
-    <row r="16" spans="2:3" ht="18">
+    <row r="16" spans="2:3" ht="18.75">
       <c r="B16" s="562" t="s">
         <v>505</v>
       </c>
@@ -21065,7 +21096,7 @@
       <c r="B19" s="473"/>
       <c r="C19" s="561"/>
     </row>
-    <row r="20" spans="2:3" ht="18">
+    <row r="20" spans="2:3" ht="18.75">
       <c r="B20" s="566" t="s">
         <v>509</v>
       </c>
@@ -21083,7 +21114,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="18">
+    <row r="24" spans="2:3" ht="18.75">
       <c r="B24" s="566" t="s">
         <v>506</v>
       </c>
@@ -21142,44 +21173,44 @@
       <selection pane="bottomRight" activeCell="AK61" sqref="AK61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" style="337" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="337" customWidth="1"/>
     <col min="2" max="2" width="13" style="295" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.59765625" style="338" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" style="338"/>
-    <col min="6" max="6" width="6.1328125" style="339" customWidth="1"/>
-    <col min="7" max="7" width="5.86328125" style="339" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.3984375" style="338" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1328125" style="339" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="338" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="338"/>
+    <col min="6" max="6" width="6.140625" style="339" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="339" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="338" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="339" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="339" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.86328125" style="339" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" style="332" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1328125" style="331" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.265625" style="331" customWidth="1"/>
-    <col min="15" max="15" width="7.3984375" style="331" customWidth="1"/>
-    <col min="16" max="16" width="7.3984375" style="331" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1328125" style="331" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.265625" style="331" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.3984375" style="331" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.3984375" style="331" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.86328125" style="331" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="5.3984375" style="331" customWidth="1"/>
-    <col min="25" max="25" width="5.3984375" style="339" customWidth="1"/>
-    <col min="26" max="26" width="8.1328125" style="334" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.73046875" style="332" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.59765625" style="331" customWidth="1"/>
-    <col min="30" max="30" width="8.73046875" style="331" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.59765625" style="331" customWidth="1"/>
-    <col min="32" max="32" width="5.86328125" style="331" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="339" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="332" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="331" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="331" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="331" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="331" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="331" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="331" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="331" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="331" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="331" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="5.42578125" style="331" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" style="339" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="334" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" style="332" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5703125" style="331" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="331" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" style="331" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" style="331" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7" style="331" customWidth="1"/>
-    <col min="34" max="36" width="5.59765625" style="331" customWidth="1"/>
-    <col min="37" max="37" width="8.73046875" style="334" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.3984375" style="340" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.265625" style="331" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.1328125" style="295"/>
-    <col min="41" max="41" width="9.1328125" style="296"/>
-    <col min="42" max="16384" width="9.1328125" style="295"/>
+    <col min="34" max="36" width="5.5703125" style="331" customWidth="1"/>
+    <col min="37" max="37" width="8.7109375" style="334" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.42578125" style="340" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.28515625" style="331" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="295"/>
+    <col min="41" max="41" width="9.140625" style="296"/>
+    <col min="42" max="16384" width="9.140625" style="295"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="240" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
@@ -26977,36 +27008,36 @@
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.86328125" style="350" customWidth="1"/>
-    <col min="2" max="2" width="43.73046875" style="350" customWidth="1"/>
-    <col min="3" max="3" width="22.265625" style="350" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" style="350" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" style="350" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="350" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="350" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="350" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="350" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="350" customWidth="1"/>
     <col min="6" max="6" width="12" style="350" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" style="350" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" style="350" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="350" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="350" customWidth="1"/>
     <col min="9" max="9" width="12" style="350" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" style="350" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="350" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="350" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" style="350" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.265625" style="350" customWidth="1"/>
-    <col min="14" max="14" width="13.265625" style="350" customWidth="1"/>
-    <col min="15" max="15" width="12.73046875" style="350" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.265625" style="350" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.86328125" style="350" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.265625" style="350" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.265625" style="350" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.86328125" style="350" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1328125" style="350" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.73046875" style="350" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.86328125" style="350" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.265625" style="350" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.1328125" style="350" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.3984375" style="350" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.73046875" style="350" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.86328125" style="350"/>
+    <col min="12" max="12" width="14.42578125" style="350" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="350" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="350" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="350" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="350" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="350" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="350" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="350" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="350" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="350" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="350" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="350" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" style="350" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" style="350" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" style="350" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="350" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.85546875" style="350"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:65" ht="28.5">
@@ -27181,7 +27212,7 @@
       <c r="BL3" s="373"/>
       <c r="BM3" s="373"/>
     </row>
-    <row r="4" spans="2:65" ht="14.25">
+    <row r="4" spans="2:65" ht="15">
       <c r="N4" s="392"/>
       <c r="P4" s="373"/>
       <c r="Q4" s="373"/>
@@ -27197,7 +27228,7 @@
       <c r="Y4" s="373"/>
       <c r="Z4" s="373"/>
     </row>
-    <row r="5" spans="2:65" ht="14.25">
+    <row r="5" spans="2:65" ht="15">
       <c r="D5" s="373"/>
       <c r="E5" s="373"/>
       <c r="O5" s="392"/>
@@ -27249,7 +27280,7 @@
       <c r="H7" s="416"/>
       <c r="I7" s="416"/>
     </row>
-    <row r="8" spans="2:65" ht="18">
+    <row r="8" spans="2:65" ht="18.75">
       <c r="B8" s="361" t="s">
         <v>79</v>
       </c>
@@ -27521,7 +27552,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="2:65" ht="18">
+    <row r="16" spans="2:65" ht="18.75">
       <c r="B16" s="386" t="s">
         <v>608</v>
       </c>
@@ -27855,7 +27886,7 @@
     <row r="30" spans="2:16" s="367" customFormat="1" ht="12.75" customHeight="1">
       <c r="C30" s="345"/>
     </row>
-    <row r="31" spans="2:16" s="367" customFormat="1" ht="18">
+    <row r="31" spans="2:16" s="367" customFormat="1" ht="18.75">
       <c r="B31" s="386" t="s">
         <v>142</v>
       </c>
@@ -28738,7 +28769,7 @@
       <c r="H51" s="351"/>
       <c r="N51" s="377"/>
     </row>
-    <row r="52" spans="2:21" ht="18">
+    <row r="52" spans="2:21" ht="18.75">
       <c r="B52" s="363" t="s">
         <v>535</v>
       </c>
@@ -28850,7 +28881,7 @@
       <c r="H59" s="351"/>
       <c r="N59" s="377"/>
     </row>
-    <row r="60" spans="2:21" ht="18">
+    <row r="60" spans="2:21" ht="18.75">
       <c r="B60" s="363" t="s">
         <v>97</v>
       </c>
@@ -28874,7 +28905,7 @@
       <c r="J61" s="466"/>
       <c r="K61" s="466"/>
     </row>
-    <row r="62" spans="2:21" ht="14.25">
+    <row r="62" spans="2:21" ht="15">
       <c r="B62" s="353" t="s">
         <v>388</v>
       </c>
@@ -28895,7 +28926,7 @@
       <c r="L62" s="474"/>
       <c r="M62" s="475"/>
     </row>
-    <row r="63" spans="2:21" ht="14.25">
+    <row r="63" spans="2:21" ht="15">
       <c r="B63" s="353" t="s">
         <v>364</v>
       </c>
@@ -28944,7 +28975,7 @@
       <c r="C67" s="495"/>
       <c r="D67" s="496"/>
     </row>
-    <row r="68" spans="2:9" ht="18">
+    <row r="68" spans="2:9" ht="18.75">
       <c r="B68" s="363" t="s">
         <v>610</v>
       </c>
@@ -29022,29 +29053,29 @@
   </sheetPr>
   <dimension ref="B2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36.86328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.73046875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.3984375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="6.3984375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="48.59765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="254" width="11.3984375" style="16" customWidth="1"/>
-    <col min="255" max="16384" width="9.1328125" style="16"/>
+    <col min="1" max="1" width="4.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="48.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="254" width="11.42578125" style="16" customWidth="1"/>
+    <col min="255" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18.75">
       <c r="B2" s="17" t="s">
         <v>178</v>
       </c>
@@ -29068,7 +29099,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="2:10" ht="14.65" thickBot="1">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
       <c r="B4" s="21" t="s">
         <v>76</v>
       </c>
@@ -29733,21 +29764,21 @@
       <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="16" customWidth="1"/>
-    <col min="2" max="3" width="18.73046875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="57.73046875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.86328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.265625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.59765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="256" width="11.3984375" style="16" customWidth="1"/>
-    <col min="257" max="16384" width="9.1328125" style="16"/>
+    <col min="1" max="1" width="9.140625" style="16" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="256" width="11.42578125" style="16" customWidth="1"/>
+    <col min="257" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="2:9" ht="18.75">
       <c r="B2" s="17" t="s">
         <v>170</v>
       </c>
@@ -29771,7 +29802,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1">
       <c r="B4" s="21" t="s">
         <v>121</v>
       </c>
@@ -31740,7 +31771,7 @@
       <c r="I99" s="54"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -31754,38 +31785,38 @@
   </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" style="530" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" style="506" customWidth="1"/>
-    <col min="3" max="3" width="43.73046875" style="506" customWidth="1"/>
-    <col min="4" max="4" width="27.73046875" style="506" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="506" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.59765625" style="506" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.265625" style="506" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.86328125" style="506" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" style="506" customWidth="1"/>
-    <col min="10" max="10" width="28.3984375" style="506" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="530" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="506" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="506" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="506" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="506" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="506" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="506" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="506" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="506" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="506" customWidth="1"/>
     <col min="11" max="11" width="27" style="506" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.73046875" style="506" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.59765625" style="506" customWidth="1"/>
-    <col min="14" max="256" width="11.3984375" style="506" customWidth="1"/>
-    <col min="257" max="16384" width="9.1328125" style="506"/>
+    <col min="12" max="12" width="11.7109375" style="506" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="506" customWidth="1"/>
+    <col min="14" max="256" width="11.42578125" style="506" customWidth="1"/>
+    <col min="257" max="16384" width="9.140625" style="506"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:14">
       <c r="E1" s="507"/>
       <c r="F1" s="507"/>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:14">
       <c r="E2" s="508"/>
       <c r="F2" s="507"/>
     </row>
-    <row r="3" spans="2:13" ht="18">
+    <row r="3" spans="2:14" ht="18.75">
       <c r="B3" s="509" t="s">
         <v>210</v>
       </c>
@@ -31796,7 +31827,7 @@
       </c>
       <c r="F3" s="511"/>
     </row>
-    <row r="4" spans="2:13" ht="26.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="B4" s="512" t="s">
         <v>15</v>
       </c>
@@ -31815,20 +31846,23 @@
       <c r="G4" s="513" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="757" t="s">
+      <c r="H4" s="797" t="s">
+        <v>611</v>
+      </c>
+      <c r="I4" s="757" t="s">
         <v>597</v>
       </c>
-      <c r="I4" s="514" t="s">
+      <c r="J4" s="514" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="515" t="s">
+      <c r="K4" s="515" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="513" t="s">
+      <c r="L4" s="513" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="28.9" thickBot="1">
+    <row r="5" spans="2:14" ht="15.75" thickBot="1">
       <c r="B5" s="516" t="s">
         <v>148</v>
       </c>
@@ -31837,20 +31871,23 @@
       <c r="E5" s="516"/>
       <c r="F5" s="516"/>
       <c r="G5" s="516"/>
-      <c r="H5" s="516" t="s">
+      <c r="H5" s="799" t="s">
+        <v>612</v>
+      </c>
+      <c r="I5" s="516" t="s">
         <v>392</v>
       </c>
-      <c r="I5" s="517" t="s">
+      <c r="J5" s="517" t="s">
         <v>214</v>
       </c>
-      <c r="J5" s="517" t="s">
+      <c r="K5" s="517" t="s">
         <v>510</v>
       </c>
-      <c r="K5" s="516" t="s">
+      <c r="L5" s="516" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:14">
       <c r="B6" s="518" t="str">
         <f>CONCATENATE(E6,"_INF")</f>
         <v>COMCOA_INF</v>
@@ -31872,19 +31909,20 @@
         <f>IF(COM_Balance!$D$12=0,"",'EB2018'!E57/COM_Balance!$D$12)</f>
         <v/>
       </c>
-      <c r="H6" s="521">
+      <c r="H6" s="521"/>
+      <c r="I6" s="521">
         <f>COM_Balance!D12</f>
         <v>0</v>
       </c>
-      <c r="I6" s="519">
+      <c r="J6" s="519">
         <v>2</v>
       </c>
-      <c r="J6" s="519"/>
-      <c r="K6" s="520">
+      <c r="K6" s="519"/>
+      <c r="L6" s="520">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:14">
       <c r="B7" s="518"/>
       <c r="C7" s="518"/>
       <c r="D7" s="519" t="s">
@@ -31894,11 +31932,12 @@
       <c r="F7" s="519"/>
       <c r="G7" s="521"/>
       <c r="H7" s="521"/>
-      <c r="I7" s="519"/>
+      <c r="I7" s="521"/>
       <c r="J7" s="519"/>
-      <c r="K7" s="525"/>
-    </row>
-    <row r="8" spans="2:13" ht="14.45" customHeight="1">
+      <c r="K7" s="519"/>
+      <c r="L7" s="525"/>
+    </row>
+    <row r="8" spans="2:14" ht="14.45" customHeight="1">
       <c r="B8" s="522" t="str">
         <f>CONCATENATE(E8,"_INF")</f>
         <v>COMLPG_INF</v>
@@ -31917,17 +31956,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="524"/>
-      <c r="H8" s="524">
+      <c r="H8" s="796"/>
+      <c r="I8" s="524">
         <f>COM_Balance!E12</f>
         <v>0.39442476258101866</v>
       </c>
-      <c r="I8" s="523"/>
       <c r="J8" s="523"/>
-      <c r="K8" s="525">
+      <c r="K8" s="523"/>
+      <c r="L8" s="525">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:14">
       <c r="B9" s="526" t="str">
         <f>CONCATENATE(E9,"_INF")</f>
         <v>COMOIL_INF</v>
@@ -31949,19 +31989,22 @@
         <f>'EB2018'!T57/SUM('EB2018'!T57:Y57,'EB2018'!M57:R57)</f>
         <v>0.9951680055188743</v>
       </c>
-      <c r="H9" s="529">
+      <c r="H9" s="798">
+        <v>5</v>
+      </c>
+      <c r="I9" s="529">
         <f>COM_Balance!F12</f>
         <v>10.808361453187995</v>
       </c>
-      <c r="I9" s="527"/>
       <c r="J9" s="527"/>
-      <c r="K9" s="520">
+      <c r="K9" s="527"/>
+      <c r="L9" s="520">
         <v>100</v>
       </c>
-      <c r="L9" s="530"/>
       <c r="M9" s="530"/>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="N9" s="530"/>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="525"/>
       <c r="C10" s="525"/>
       <c r="D10" s="525" t="s">
@@ -31970,14 +32013,15 @@
       <c r="E10" s="525"/>
       <c r="F10" s="525"/>
       <c r="G10" s="531"/>
-      <c r="H10" s="532"/>
-      <c r="I10" s="525"/>
+      <c r="H10" s="531"/>
+      <c r="I10" s="532"/>
       <c r="J10" s="525"/>
       <c r="K10" s="525"/>
-      <c r="L10" s="530"/>
+      <c r="L10" s="525"/>
       <c r="M10" s="530"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="N10" s="530"/>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="533" t="str">
         <f>CONCATENATE(E11,"_INF")</f>
         <v>COMGAS_INF</v>
@@ -31996,19 +32040,20 @@
         <v>1</v>
       </c>
       <c r="G11" s="524"/>
-      <c r="H11" s="524">
+      <c r="H11" s="796"/>
+      <c r="I11" s="524">
         <f>COM_Balance!G12</f>
         <v>22.278598683127456</v>
       </c>
-      <c r="I11" s="523"/>
       <c r="J11" s="523"/>
-      <c r="K11" s="525">
+      <c r="K11" s="523"/>
+      <c r="L11" s="525">
         <v>100</v>
       </c>
-      <c r="L11" s="530"/>
       <c r="M11" s="530"/>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="N11" s="530"/>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="533" t="str">
         <f>CONCATENATE(E12,"_INF")</f>
         <v>COMBIO_INF</v>
@@ -32027,19 +32072,20 @@
         <v>1</v>
       </c>
       <c r="G12" s="524"/>
-      <c r="H12" s="524">
+      <c r="H12" s="796"/>
+      <c r="I12" s="524">
         <f>COM_Balance!H12</f>
         <v>0.75682597336943469</v>
       </c>
-      <c r="I12" s="523"/>
       <c r="J12" s="523"/>
-      <c r="K12" s="525">
+      <c r="K12" s="523"/>
+      <c r="L12" s="525">
         <v>100</v>
       </c>
-      <c r="L12" s="534"/>
-      <c r="M12" s="530"/>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="M12" s="534"/>
+      <c r="N12" s="530"/>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="533" t="str">
         <f>CONCATENATE(E13,"_INF")</f>
         <v>COMBGS_INF</v>
@@ -32058,19 +32104,20 @@
         <v>1</v>
       </c>
       <c r="G13" s="531"/>
-      <c r="H13" s="531">
+      <c r="H13" s="531"/>
+      <c r="I13" s="531">
         <f>COM_Balance!I12</f>
         <v>0.31574984017572605</v>
       </c>
-      <c r="I13" s="525"/>
       <c r="J13" s="525"/>
-      <c r="K13" s="525">
+      <c r="K13" s="525"/>
+      <c r="L13" s="525">
         <v>100</v>
       </c>
-      <c r="L13" s="535"/>
-      <c r="M13" s="530"/>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="M13" s="535"/>
+      <c r="N13" s="530"/>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="533" t="str">
         <f>CONCATENATE(E14,"_INF")</f>
         <v>COMSOL_INF</v>
@@ -32089,19 +32136,20 @@
         <v>1</v>
       </c>
       <c r="G14" s="524"/>
-      <c r="H14" s="524">
-        <f>COM_Balance!J12+COM_PV!M9</f>
+      <c r="H14" s="796"/>
+      <c r="I14" s="524">
+        <f>COM_Balance!J12+COM_PV!N9</f>
         <v>1.3926876998464729E-2</v>
       </c>
-      <c r="I14" s="523"/>
       <c r="J14" s="523"/>
-      <c r="K14" s="525">
+      <c r="K14" s="523"/>
+      <c r="L14" s="525">
         <v>100</v>
       </c>
-      <c r="L14" s="530"/>
       <c r="M14" s="530"/>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="N14" s="530"/>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" s="533" t="str">
         <f>CONCATENATE(E15,"_INF")</f>
         <v>COMGEO_INF</v>
@@ -32120,17 +32168,18 @@
         <v>1</v>
       </c>
       <c r="G15" s="524"/>
-      <c r="H15" s="524">
+      <c r="H15" s="796"/>
+      <c r="I15" s="524">
         <f>COM_Balance!K12</f>
         <v>0.71649471279083121</v>
       </c>
-      <c r="I15" s="523"/>
       <c r="J15" s="523"/>
-      <c r="K15" s="523">
+      <c r="K15" s="523"/>
+      <c r="L15" s="523">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:14">
       <c r="B16" s="530"/>
       <c r="C16" s="536"/>
       <c r="D16" s="530"/>
@@ -32143,7 +32192,7 @@
       <c r="F17" s="507"/>
       <c r="G17" s="530"/>
     </row>
-    <row r="18" spans="2:11" ht="18">
+    <row r="18" spans="2:11" ht="18.75">
       <c r="B18" s="509" t="s">
         <v>210</v>
       </c>
@@ -32252,7 +32301,7 @@
       <c r="F24" s="507"/>
       <c r="G24" s="540"/>
     </row>
-    <row r="25" spans="2:11" ht="18">
+    <row r="25" spans="2:11" ht="18.75">
       <c r="B25" s="509" t="s">
         <v>210</v>
       </c>
@@ -32366,7 +32415,7 @@
       <c r="C32" s="545"/>
       <c r="E32" s="507"/>
     </row>
-    <row r="33" spans="2:18" ht="18">
+    <row r="33" spans="2:18" ht="18.75">
       <c r="B33" s="509" t="s">
         <v>210</v>
       </c>
@@ -32376,7 +32425,7 @@
       <c r="F33" s="545"/>
       <c r="H33" s="545"/>
     </row>
-    <row r="34" spans="2:18" ht="14.65" thickBot="1">
+    <row r="34" spans="2:18" ht="15.75" thickBot="1">
       <c r="B34" s="512" t="s">
         <v>15</v>
       </c>
@@ -32424,7 +32473,7 @@
       </c>
       <c r="R34" s="546"/>
     </row>
-    <row r="35" spans="2:18" ht="14.65" thickBot="1">
+    <row r="35" spans="2:18" ht="15.75" thickBot="1">
       <c r="B35" s="516" t="s">
         <v>148</v>
       </c>
@@ -32548,7 +32597,7 @@
       <c r="O38" s="547"/>
       <c r="P38" s="547"/>
     </row>
-    <row r="41" spans="2:18" ht="18">
+    <row r="41" spans="2:18" ht="18.75">
       <c r="B41" s="509" t="s">
         <v>210</v>
       </c>
@@ -32559,7 +32608,7 @@
       </c>
       <c r="F41" s="511"/>
     </row>
-    <row r="42" spans="2:18" ht="14.65" thickBot="1">
+    <row r="42" spans="2:18" ht="15.75" thickBot="1">
       <c r="B42" s="512" t="s">
         <v>15</v>
       </c>
@@ -32591,7 +32640,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="2:18" ht="14.65" thickBot="1">
+    <row r="43" spans="2:18" ht="15.75" thickBot="1">
       <c r="B43" s="516" t="s">
         <v>148</v>
       </c>
@@ -32709,25 +32758,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" customWidth="1"/>
-    <col min="2" max="2" width="35.1328125" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" customWidth="1"/>
-    <col min="8" max="8" width="10.265625" customWidth="1"/>
-    <col min="9" max="13" width="7.73046875" customWidth="1"/>
-    <col min="14" max="14" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1328125" customWidth="1"/>
-    <col min="18" max="18" width="8.59765625" customWidth="1"/>
-    <col min="19" max="19" width="8.1328125" customWidth="1"/>
-    <col min="20" max="20" width="9.1328125" customWidth="1"/>
-    <col min="21" max="21" width="15.265625" customWidth="1"/>
-    <col min="22" max="22" width="11.1328125" customWidth="1"/>
-    <col min="23" max="256" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="28.5">
@@ -32735,13 +32784,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="14.25">
+    <row r="4" spans="2:19" ht="15">
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
     </row>
-    <row r="5" spans="2:19" ht="14.65" thickBot="1">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1">
       <c r="B5" s="37"/>
       <c r="C5" s="38" t="s">
         <v>180</v>
@@ -32795,7 +32844,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="14.25">
+    <row r="6" spans="2:19" ht="15">
       <c r="B6" s="48" t="s">
         <v>187</v>
       </c>
@@ -32913,7 +32962,7 @@
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
     </row>
-    <row r="13" spans="2:19" ht="14.25">
+    <row r="13" spans="2:19" ht="15">
       <c r="B13" s="43" t="s">
         <v>86</v>
       </c>
@@ -32926,7 +32975,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="2:19" ht="14.65" thickBot="1">
+    <row r="14" spans="2:19" ht="15.75" thickBot="1">
       <c r="B14" s="38" t="s">
         <v>17</v>
       </c>
@@ -32974,7 +33023,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="14.25">
+    <row r="16" spans="2:19" ht="15">
       <c r="B16" s="52" t="str">
         <f>COM_Commodities!C23</f>
         <v>COMCO2N</v>
@@ -33001,7 +33050,7 @@
       <c r="J16" s="40"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="14.25">
+    <row r="17" spans="2:10" ht="15">
       <c r="B17" s="52" t="str">
         <f>COM_Commodities!C24</f>
         <v>COMCH4N</v>
@@ -33015,7 +33064,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="2:10" ht="14.25">
+    <row r="18" spans="2:10" ht="15">
       <c r="B18" s="52" t="str">
         <f>COM_Commodities!C25</f>
         <v>COMSO2N</v>
@@ -33029,7 +33078,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="2:10" ht="14.25">
+    <row r="19" spans="2:10" ht="15">
       <c r="B19" s="52" t="str">
         <f>COM_Commodities!C26</f>
         <v>COMNOXN</v>
@@ -33043,7 +33092,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" ht="14.25">
+    <row r="20" spans="2:10" ht="15">
       <c r="B20" s="52" t="str">
         <f>COM_Commodities!C27</f>
         <v>COMPM10</v>
@@ -33057,7 +33106,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="2:10" ht="14.25">
+    <row r="21" spans="2:10" ht="15">
       <c r="B21" s="52" t="str">
         <f>COM_Commodities!C28</f>
         <v>COMPM25</v>
@@ -33089,29 +33138,29 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="82.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="23" width="9.59765625" customWidth="1"/>
-    <col min="24" max="24" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="256" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="23" width="9.5703125" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="65" customFormat="1" ht="25.5">
+    <row r="1" spans="2:22" s="65" customFormat="1" ht="26.25">
       <c r="B1" s="83" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="2" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="J2" s="67"/>
       <c r="K2" s="67"/>
       <c r="L2" s="67"/>
       <c r="N2" s="67"/>
     </row>
-    <row r="3" spans="2:22" s="16" customFormat="1" ht="18">
+    <row r="3" spans="2:22" s="16" customFormat="1" ht="18.75">
       <c r="B3" s="66" t="s">
         <v>253</v>
       </c>
@@ -33122,7 +33171,7 @@
       </c>
       <c r="I3" s="86"/>
     </row>
-    <row r="4" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="4" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B4" s="68" t="s">
         <v>80</v>
       </c>
@@ -33133,7 +33182,7 @@
       <c r="H4" s="114"/>
       <c r="I4" s="114"/>
     </row>
-    <row r="5" spans="2:22" s="16" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="2:22" s="16" customFormat="1" ht="16.5" thickBot="1">
       <c r="B5" s="96" t="s">
         <v>17</v>
       </c>
@@ -33161,7 +33210,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="7" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B7" s="54" t="str">
         <f>COM_Balance!C33</f>
         <v>CHCS</v>
@@ -33175,7 +33224,7 @@
         <v>Commercial space heat  demand - Commercial Services</v>
       </c>
     </row>
-    <row r="8" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="8" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B8" s="54" t="str">
         <f>COM_Balance!C34</f>
         <v>CHPS</v>
@@ -33189,7 +33238,7 @@
         <v>Commercial space heat demand - Public Services</v>
       </c>
     </row>
-    <row r="9" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="9" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="G9" s="34"/>
       <c r="H9" s="77"/>
       <c r="I9" s="77"/>
@@ -33204,7 +33253,7 @@
       <c r="R9" s="75"/>
       <c r="S9" s="75"/>
     </row>
-    <row r="10" spans="2:22" s="16" customFormat="1" ht="18">
+    <row r="10" spans="2:22" s="16" customFormat="1" ht="18.75">
       <c r="B10" s="66" t="s">
         <v>580</v>
       </c>
@@ -33228,12 +33277,12 @@
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
     </row>
-    <row r="11" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="11" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="C11" s="68" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="12" spans="2:22" s="16" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="2:22" s="16" customFormat="1" ht="16.5" thickBot="1">
       <c r="B12" s="96" t="s">
         <v>17</v>
       </c>
@@ -33295,7 +33344,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="13" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="13" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B13" s="54" t="str">
         <f>B7</f>
         <v>CHCS</v>
@@ -33358,7 +33407,7 @@
         <v>0.102121198286706</v>
       </c>
     </row>
-    <row r="14" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="14" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B14" s="54" t="str">
         <f>B8</f>
         <v>CHPS</v>
@@ -33421,7 +33470,7 @@
         <v>0.102121198286706</v>
       </c>
     </row>
-    <row r="16" spans="2:22" s="16" customFormat="1" ht="18">
+    <row r="16" spans="2:22" s="16" customFormat="1" ht="18.75">
       <c r="B16" s="66" t="str">
         <f>"Base-year technologies for commercial space heating ("&amp;COM_Balance!$S$11&amp;")"</f>
         <v>Base-year technologies for commercial space heating (Commercial Services)</v>
@@ -33451,7 +33500,7 @@
       <c r="U16" s="85"/>
       <c r="V16" s="85"/>
     </row>
-    <row r="17" spans="2:23" s="16" customFormat="1" ht="43.15" thickBot="1">
+    <row r="17" spans="2:23" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="B17" s="127" t="s">
         <v>22</v>
       </c>
@@ -33514,7 +33563,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="2:23" s="16" customFormat="1" ht="47.25">
+    <row r="18" spans="2:23" s="16" customFormat="1" ht="63">
       <c r="B18" s="131" t="s">
         <v>235</v>
       </c>
@@ -33563,7 +33612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="19" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B19" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -33628,7 +33677,7 @@
       </c>
       <c r="W19" s="91"/>
     </row>
-    <row r="20" spans="2:23" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="20" spans="2:23" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B20" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -33692,7 +33741,7 @@
       </c>
       <c r="W20" s="91"/>
     </row>
-    <row r="21" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="21" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B21" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -33758,7 +33807,7 @@
       </c>
       <c r="W21" s="91"/>
     </row>
-    <row r="22" spans="2:23" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="22" spans="2:23" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B22" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -33829,7 +33878,7 @@
       </c>
       <c r="W22" s="91"/>
     </row>
-    <row r="23" spans="2:23" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="23" spans="2:23" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -33858,7 +33907,7 @@
       <c r="V23" s="76"/>
       <c r="W23" s="91"/>
     </row>
-    <row r="24" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="24" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B24" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -33924,7 +33973,7 @@
       </c>
       <c r="W24" s="91"/>
     </row>
-    <row r="25" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="25" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B25" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -33994,7 +34043,7 @@
       </c>
       <c r="W25" s="91"/>
     </row>
-    <row r="26" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="26" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -34025,7 +34074,7 @@
       <c r="V26" s="76"/>
       <c r="W26" s="91"/>
     </row>
-    <row r="27" spans="2:23" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="27" spans="2:23" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B27" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34096,7 +34145,7 @@
       </c>
       <c r="W27" s="91"/>
     </row>
-    <row r="28" spans="2:23" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="28" spans="2:23" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
@@ -34125,7 +34174,7 @@
       <c r="V28" s="76"/>
       <c r="W28" s="91"/>
     </row>
-    <row r="29" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="29" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B29" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34191,7 +34240,7 @@
       </c>
       <c r="W29" s="91"/>
     </row>
-    <row r="30" spans="2:23" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="30" spans="2:23" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B30" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34262,7 +34311,7 @@
       </c>
       <c r="W30" s="91"/>
     </row>
-    <row r="31" spans="2:23" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="31" spans="2:23" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
@@ -34291,7 +34340,7 @@
       <c r="V31" s="76"/>
       <c r="W31" s="91"/>
     </row>
-    <row r="32" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="32" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B32" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34354,7 +34403,7 @@
       </c>
       <c r="W32" s="91"/>
     </row>
-    <row r="33" spans="2:23" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="33" spans="2:23" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B33" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34425,7 +34474,7 @@
       </c>
       <c r="W33" s="91"/>
     </row>
-    <row r="34" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="34" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
       <c r="D34" s="54"/>
@@ -34451,7 +34500,7 @@
       <c r="V34" s="76"/>
       <c r="W34" s="91"/>
     </row>
-    <row r="35" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="35" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B35" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34515,7 +34564,7 @@
       </c>
       <c r="W35" s="91"/>
     </row>
-    <row r="36" spans="2:23" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="36" spans="2:23" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B36" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34579,7 +34628,7 @@
       </c>
       <c r="W36" s="91"/>
     </row>
-    <row r="37" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="37" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B37" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34645,7 +34694,7 @@
       </c>
       <c r="W37" s="91"/>
     </row>
-    <row r="38" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="38" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B38" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34715,7 +34764,7 @@
       </c>
       <c r="W38" s="91"/>
     </row>
-    <row r="39" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="39" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -34746,7 +34795,7 @@
       <c r="V39" s="76"/>
       <c r="W39" s="91"/>
     </row>
-    <row r="40" spans="2:23" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="40" spans="2:23" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B40" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34817,7 +34866,7 @@
       </c>
       <c r="W40" s="91"/>
     </row>
-    <row r="41" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="41" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -34846,7 +34895,7 @@
       <c r="V41" s="76"/>
       <c r="W41" s="91"/>
     </row>
-    <row r="42" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="42" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B42" s="54" t="str">
         <f>COM_Balance!$C$33</f>
         <v>CHCS</v>
@@ -34916,7 +34965,7 @@
       </c>
       <c r="W42" s="91"/>
     </row>
-    <row r="43" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="43" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B43" s="107"/>
       <c r="C43" s="54"/>
       <c r="D43" s="57"/>
@@ -34946,7 +34995,7 @@
       <c r="U43" s="73"/>
       <c r="V43" s="76"/>
     </row>
-    <row r="44" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="44" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B44" s="107" t="s">
         <v>23</v>
       </c>
@@ -34973,7 +35022,7 @@
       <c r="U44" s="73"/>
       <c r="V44" s="54"/>
     </row>
-    <row r="45" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="45" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="B45" s="108" t="s">
         <v>84</v>
       </c>
@@ -35009,19 +35058,19 @@
         <v>68243.948999999993</v>
       </c>
     </row>
-    <row r="46" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="46" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="L46" s="94"/>
       <c r="M46" s="95"/>
       <c r="U46" s="94"/>
     </row>
-    <row r="47" spans="2:23" s="16" customFormat="1" ht="14.25">
+    <row r="47" spans="2:23" s="16" customFormat="1" ht="15">
       <c r="H47" s="95"/>
       <c r="I47" s="95"/>
       <c r="L47" s="94"/>
       <c r="M47" s="95"/>
       <c r="U47" s="94"/>
     </row>
-    <row r="48" spans="2:23" s="16" customFormat="1" ht="18">
+    <row r="48" spans="2:23" s="16" customFormat="1" ht="18.75">
       <c r="B48" s="66" t="str">
         <f>"Base-year technologies for commercial space heating ("&amp;COM_Balance!$S$12&amp;")"</f>
         <v>Base-year technologies for commercial space heating (Public Services)</v>
@@ -35051,7 +35100,7 @@
       <c r="U48" s="85"/>
       <c r="V48" s="85"/>
     </row>
-    <row r="49" spans="2:22" s="16" customFormat="1" ht="43.15" thickBot="1">
+    <row r="49" spans="2:22" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="B49" s="127" t="s">
         <v>22</v>
       </c>
@@ -35113,7 +35162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="2:22" s="16" customFormat="1" ht="47.25">
+    <row r="50" spans="2:22" s="16" customFormat="1" ht="63">
       <c r="B50" s="131" t="s">
         <v>235</v>
       </c>
@@ -35161,7 +35210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="51" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B51" s="54" t="str">
         <f>$B$8</f>
         <v>CHPS</v>
@@ -35225,7 +35274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:22" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="52" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B52" s="54" t="str">
         <f t="shared" ref="B52:B74" si="2">$B$8</f>
         <v>CHPS</v>
@@ -35288,7 +35337,7 @@
         <v>268.23564062990994</v>
       </c>
     </row>
-    <row r="53" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="53" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B53" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -35353,7 +35402,7 @@
         <v>10343.443546539504</v>
       </c>
     </row>
-    <row r="54" spans="2:22" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="54" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B54" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -35423,7 +35472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:22" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="55" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
       <c r="D55" s="54"/>
@@ -35451,7 +35500,7 @@
       <c r="U55" s="73"/>
       <c r="V55" s="76"/>
     </row>
-    <row r="56" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="56" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B56" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -35516,7 +35565,7 @@
         <v>33298.732802813458</v>
       </c>
     </row>
-    <row r="57" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="57" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B57" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -35585,7 +35634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="58" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B58" s="54"/>
       <c r="C58" s="54"/>
       <c r="D58" s="54"/>
@@ -35615,7 +35664,7 @@
       <c r="U58" s="73"/>
       <c r="V58" s="76"/>
     </row>
-    <row r="59" spans="2:22" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="59" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B59" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -35685,7 +35734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:22" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="60" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B60" s="54"/>
       <c r="C60" s="54"/>
       <c r="D60" s="54"/>
@@ -35713,7 +35762,7 @@
       <c r="U60" s="73"/>
       <c r="V60" s="76"/>
     </row>
-    <row r="61" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="61" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B61" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -35778,7 +35827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:22" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="62" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B62" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -35848,7 +35897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:22" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="63" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B63" s="54"/>
       <c r="C63" s="54"/>
       <c r="D63" s="54"/>
@@ -35876,7 +35925,7 @@
       <c r="U63" s="73"/>
       <c r="V63" s="76"/>
     </row>
-    <row r="64" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="64" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B64" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -35938,7 +35987,7 @@
         <v>1040.9231521047705</v>
       </c>
     </row>
-    <row r="65" spans="2:22" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="65" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B65" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -36008,7 +36057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="66" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B66" s="54"/>
       <c r="C66" s="54"/>
       <c r="D66" s="54"/>
@@ -36033,7 +36082,7 @@
       <c r="U66" s="73"/>
       <c r="V66" s="76"/>
     </row>
-    <row r="67" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="67" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B67" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -36096,7 +36145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:22" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="68" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B68" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -36159,7 +36208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="69" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B69" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -36224,7 +36273,7 @@
         <v>2080.9282207354727</v>
       </c>
     </row>
-    <row r="70" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="70" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B70" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -36293,7 +36342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="71" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B71" s="54"/>
       <c r="C71" s="54"/>
       <c r="D71" s="54"/>
@@ -36323,7 +36372,7 @@
       <c r="U71" s="73"/>
       <c r="V71" s="76"/>
     </row>
-    <row r="72" spans="2:22" s="16" customFormat="1" ht="14.65" thickBot="1">
+    <row r="72" spans="2:22" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B72" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -36393,7 +36442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="73" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B73" s="54"/>
       <c r="C73" s="54"/>
       <c r="D73" s="54"/>
@@ -36421,7 +36470,7 @@
       <c r="U73" s="73"/>
       <c r="V73" s="76"/>
     </row>
-    <row r="74" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="74" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B74" s="54" t="str">
         <f t="shared" si="2"/>
         <v>CHPS</v>
@@ -36490,7 +36539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="75" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B75" s="107"/>
       <c r="C75" s="54"/>
       <c r="D75" s="57"/>
@@ -36520,7 +36569,7 @@
       <c r="U75" s="73"/>
       <c r="V75" s="76"/>
     </row>
-    <row r="76" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="76" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B76" s="107" t="s">
         <v>23</v>
       </c>
@@ -36547,7 +36596,7 @@
       <c r="U76" s="73"/>
       <c r="V76" s="54"/>
     </row>
-    <row r="77" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="77" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="B77" s="108" t="s">
         <v>84</v>
       </c>
@@ -36586,286 +36635,286 @@
         <v>46857.006405097192</v>
       </c>
     </row>
-    <row r="78" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="78" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="T78" s="94"/>
     </row>
-    <row r="79" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="79" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="T79" s="94"/>
     </row>
-    <row r="80" spans="2:22" s="16" customFormat="1" ht="14.25">
+    <row r="80" spans="2:22" s="16" customFormat="1" ht="15">
       <c r="T80" s="94"/>
     </row>
-    <row r="81" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="81" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T81" s="94"/>
     </row>
-    <row r="82" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="82" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T82" s="94"/>
     </row>
-    <row r="83" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="83" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T83" s="94"/>
     </row>
-    <row r="84" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="84" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T84" s="94"/>
     </row>
-    <row r="85" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="85" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T85" s="94"/>
     </row>
-    <row r="86" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="86" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T86" s="94"/>
     </row>
-    <row r="87" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="87" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T87" s="94"/>
     </row>
-    <row r="88" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="88" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T88" s="94"/>
     </row>
-    <row r="89" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="89" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T89" s="94"/>
     </row>
-    <row r="90" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="90" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T90" s="94"/>
     </row>
-    <row r="91" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="91" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T91" s="94"/>
     </row>
-    <row r="92" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="92" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T92" s="94"/>
     </row>
-    <row r="93" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="93" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T93" s="94"/>
     </row>
-    <row r="94" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="94" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T94" s="94"/>
     </row>
-    <row r="95" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="95" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T95" s="94"/>
     </row>
-    <row r="96" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="96" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T96" s="94"/>
     </row>
-    <row r="97" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="97" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T97" s="94"/>
     </row>
-    <row r="98" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="98" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T98" s="94"/>
     </row>
-    <row r="99" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="99" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T99" s="94"/>
     </row>
-    <row r="100" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="100" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T100" s="94"/>
     </row>
-    <row r="101" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="101" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T101" s="94"/>
     </row>
-    <row r="102" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="102" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T102" s="94"/>
     </row>
-    <row r="103" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="103" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T103" s="94"/>
     </row>
-    <row r="104" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="104" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T104" s="94"/>
     </row>
-    <row r="105" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="105" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T105" s="94"/>
     </row>
-    <row r="106" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="106" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T106" s="94"/>
     </row>
-    <row r="107" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="107" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T107" s="94"/>
     </row>
-    <row r="108" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="108" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T108" s="94"/>
     </row>
-    <row r="109" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="109" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T109" s="94"/>
     </row>
-    <row r="110" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="110" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T110" s="94"/>
     </row>
-    <row r="111" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="111" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T111" s="94"/>
     </row>
-    <row r="112" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="112" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T112" s="94"/>
     </row>
-    <row r="113" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="113" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T113" s="94"/>
     </row>
-    <row r="114" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="114" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T114" s="94"/>
     </row>
-    <row r="115" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="115" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T115" s="94"/>
     </row>
-    <row r="116" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="116" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T116" s="94"/>
     </row>
-    <row r="117" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="117" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T117" s="94"/>
     </row>
-    <row r="118" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="118" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T118" s="94"/>
     </row>
-    <row r="119" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="119" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T119" s="94"/>
     </row>
-    <row r="120" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="120" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T120" s="94"/>
     </row>
-    <row r="121" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="121" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T121" s="94"/>
     </row>
-    <row r="122" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="122" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T122" s="94"/>
     </row>
-    <row r="123" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="123" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T123" s="94"/>
     </row>
-    <row r="124" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="124" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T124" s="94"/>
     </row>
-    <row r="125" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="125" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T125" s="94"/>
     </row>
-    <row r="126" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="126" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T126" s="94"/>
     </row>
-    <row r="127" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="127" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T127" s="94"/>
     </row>
-    <row r="128" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="128" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T128" s="94"/>
     </row>
-    <row r="129" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="129" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T129" s="94"/>
     </row>
-    <row r="130" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="130" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T130" s="94"/>
     </row>
-    <row r="131" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="131" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T131" s="94"/>
     </row>
-    <row r="132" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="132" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T132" s="94"/>
     </row>
-    <row r="133" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="133" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T133" s="94"/>
     </row>
-    <row r="134" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="134" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T134" s="94"/>
     </row>
-    <row r="135" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="135" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T135" s="94"/>
     </row>
-    <row r="136" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="136" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T136" s="94"/>
     </row>
-    <row r="137" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="137" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T137" s="94"/>
     </row>
-    <row r="138" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="138" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T138" s="94"/>
     </row>
-    <row r="139" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="139" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T139" s="94"/>
     </row>
-    <row r="140" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="140" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T140" s="94"/>
     </row>
-    <row r="141" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="141" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T141" s="94"/>
     </row>
-    <row r="142" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="142" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T142" s="94"/>
     </row>
-    <row r="143" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="143" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T143" s="94"/>
     </row>
-    <row r="144" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="144" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T144" s="94"/>
     </row>
-    <row r="145" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="145" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T145" s="94"/>
     </row>
-    <row r="146" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="146" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T146" s="94"/>
     </row>
-    <row r="147" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="147" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T147" s="94"/>
     </row>
-    <row r="148" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="148" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T148" s="94"/>
     </row>
-    <row r="149" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="149" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T149" s="94"/>
     </row>
-    <row r="150" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="150" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T150" s="94"/>
     </row>
-    <row r="151" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="151" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T151" s="94"/>
     </row>
-    <row r="152" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="152" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T152" s="94"/>
     </row>
-    <row r="153" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="153" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T153" s="94"/>
     </row>
-    <row r="154" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="154" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T154" s="94"/>
     </row>
-    <row r="155" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="155" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T155" s="94"/>
     </row>
-    <row r="156" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="156" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T156" s="94"/>
     </row>
-    <row r="157" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="157" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T157" s="94"/>
     </row>
-    <row r="158" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="158" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T158" s="94"/>
     </row>
-    <row r="159" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="159" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T159" s="94"/>
     </row>
-    <row r="160" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="160" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T160" s="94"/>
     </row>
-    <row r="161" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="161" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T161" s="94"/>
     </row>
-    <row r="162" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="162" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T162" s="94"/>
     </row>
-    <row r="163" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="163" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T163" s="94"/>
     </row>
-    <row r="164" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="164" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T164" s="94"/>
     </row>
-    <row r="165" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="165" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T165" s="94"/>
     </row>
-    <row r="166" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="166" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T166" s="94"/>
     </row>
-    <row r="167" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="167" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T167" s="94"/>
     </row>
-    <row r="168" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="168" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T168" s="94"/>
     </row>
-    <row r="169" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="169" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T169" s="94"/>
     </row>
-    <row r="170" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="170" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T170" s="94"/>
     </row>
-    <row r="171" spans="20:20" s="16" customFormat="1" ht="14.25">
+    <row r="171" spans="20:20" s="16" customFormat="1" ht="15">
       <c r="T171" s="94"/>
     </row>
     <row r="172" spans="20:20">
@@ -36896,9 +36945,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37048,19 +37100,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37084,9 +37132,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_IE_COM.xlsx
+++ b/VT_IE_COM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1132EE22-93BF-4101-9871-F92D47FE9193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E11BD-9E75-4A31-9562-7CC68C19A4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="891" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="891" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -1674,7 +1674,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="651">
   <si>
     <t>ELC</t>
   </si>
@@ -2833,9 +2833,6 @@
   </si>
   <si>
     <t>Particulate Matter &lt;2.5 µm (COM)</t>
-  </si>
-  <si>
-    <t>HEAT</t>
   </si>
   <si>
     <t>Commercial services</t>
@@ -9599,7 +9596,7 @@
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1">
       <c r="A17" s="787" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" s="787"/>
       <c r="C17" s="787"/>
@@ -9641,10 +9638,10 @@
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1">
       <c r="A20" s="421" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" s="788" t="s">
         <v>407</v>
-      </c>
-      <c r="B20" s="788" t="s">
-        <v>408</v>
       </c>
       <c r="C20" s="788"/>
       <c r="D20" s="788"/>
@@ -9661,10 +9658,10 @@
     </row>
     <row r="21" spans="1:14" ht="17.25" customHeight="1">
       <c r="A21" s="421" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B21" s="789" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C21" s="789"/>
       <c r="D21" s="789"/>
@@ -9681,10 +9678,10 @@
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1">
       <c r="A22" s="421" t="s">
+        <v>409</v>
+      </c>
+      <c r="B22" s="789" t="s">
         <v>410</v>
-      </c>
-      <c r="B22" s="789" t="s">
-        <v>411</v>
       </c>
       <c r="C22" s="789"/>
       <c r="D22" s="789"/>
@@ -9693,7 +9690,7 @@
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1">
       <c r="A23" s="424" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B23" s="577"/>
       <c r="C23" s="577"/>
@@ -9705,7 +9702,7 @@
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1">
       <c r="A24" s="790" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B24" s="790"/>
       <c r="C24" s="790"/>
@@ -9717,7 +9714,7 @@
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1">
       <c r="A25" s="786" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B25" s="786"/>
       <c r="C25" s="786"/>
@@ -9892,7 +9889,7 @@
   <dimension ref="B1:W177"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9900,7 +9897,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="12.86328125" customWidth="1"/>
     <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="82.3984375" customWidth="1"/>
+    <col min="4" max="4" width="45.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
@@ -9934,7 +9931,7 @@
     </row>
     <row r="4" spans="2:22" s="16" customFormat="1" ht="14.25">
       <c r="B4" s="68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G4" s="122" t="s">
         <v>236</v>
@@ -10033,7 +10030,7 @@
     </row>
     <row r="10" spans="2:22" s="16" customFormat="1" ht="18">
       <c r="B10" s="66" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -10057,7 +10054,7 @@
     </row>
     <row r="11" spans="2:22" s="16" customFormat="1" ht="14.25">
       <c r="C11" s="68" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="16" customFormat="1" ht="16.149999999999999" thickBot="1">
@@ -10065,61 +10062,61 @@
         <v>17</v>
       </c>
       <c r="C12" s="96" t="s">
+        <v>556</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>573</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>574</v>
+      </c>
+      <c r="F12" s="97" t="s">
         <v>557</v>
       </c>
-      <c r="D12" s="96" t="s">
-        <v>574</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>575</v>
-      </c>
-      <c r="F12" s="97" t="s">
+      <c r="G12" s="97" t="s">
         <v>558</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="H12" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="I12" s="97" t="s">
         <v>560</v>
       </c>
-      <c r="I12" s="97" t="s">
+      <c r="J12" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="J12" s="97" t="s">
+      <c r="K12" s="97" t="s">
         <v>562</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="L12" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="L12" s="97" t="s">
+      <c r="M12" s="97" t="s">
         <v>564</v>
       </c>
-      <c r="M12" s="97" t="s">
+      <c r="N12" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="N12" s="97" t="s">
+      <c r="O12" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="O12" s="97" t="s">
+      <c r="P12" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="P12" s="97" t="s">
+      <c r="Q12" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="Q12" s="97" t="s">
+      <c r="R12" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="R12" s="97" t="s">
+      <c r="S12" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="S12" s="97" t="s">
+      <c r="T12" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="T12" s="97" t="s">
+      <c r="U12" s="97" t="s">
         <v>572</v>
-      </c>
-      <c r="U12" s="97" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="16" customFormat="1" ht="14.25">
@@ -10128,13 +10125,13 @@
         <v>CHCS</v>
       </c>
       <c r="C13" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D13" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="E13" s="54" t="s">
         <v>577</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>578</v>
       </c>
       <c r="F13" s="589">
         <v>0.10037907809223</v>
@@ -10191,13 +10188,13 @@
         <v>CHPS</v>
       </c>
       <c r="C14" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D14" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="E14" s="54" t="s">
         <v>577</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>578</v>
       </c>
       <c r="F14" s="589">
         <v>0.10037907809223</v>
@@ -13738,7 +13735,7 @@
     <col min="1" max="1" width="5" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.86328125" style="16" customWidth="1"/>
     <col min="3" max="3" width="20.3984375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="58.86328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.86328125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1328125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="12" width="12.59765625" style="16" customWidth="1"/>
     <col min="13" max="13" width="12.59765625" style="1" customWidth="1"/>
@@ -13785,7 +13782,7 @@
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="122" t="s">
@@ -13944,7 +13941,7 @@
     </row>
     <row r="10" spans="2:23" ht="18">
       <c r="B10" s="66" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -13968,7 +13965,7 @@
     </row>
     <row r="11" spans="2:23">
       <c r="C11" s="68" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M11" s="16"/>
       <c r="T11" s="16"/>
@@ -13979,61 +13976,61 @@
         <v>17</v>
       </c>
       <c r="C12" s="96" t="s">
+        <v>556</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>573</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>574</v>
+      </c>
+      <c r="F12" s="97" t="s">
         <v>557</v>
       </c>
-      <c r="D12" s="96" t="s">
-        <v>574</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>575</v>
-      </c>
-      <c r="F12" s="97" t="s">
+      <c r="G12" s="97" t="s">
         <v>558</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="H12" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="I12" s="97" t="s">
         <v>560</v>
       </c>
-      <c r="I12" s="97" t="s">
+      <c r="J12" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="J12" s="97" t="s">
+      <c r="K12" s="97" t="s">
         <v>562</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="L12" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="L12" s="97" t="s">
+      <c r="M12" s="97" t="s">
         <v>564</v>
       </c>
-      <c r="M12" s="97" t="s">
+      <c r="N12" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="N12" s="97" t="s">
+      <c r="O12" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="O12" s="97" t="s">
+      <c r="P12" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="P12" s="97" t="s">
+      <c r="Q12" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="Q12" s="97" t="s">
+      <c r="R12" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="R12" s="97" t="s">
+      <c r="S12" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="S12" s="97" t="s">
+      <c r="T12" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="T12" s="97" t="s">
+      <c r="U12" s="97" t="s">
         <v>572</v>
-      </c>
-      <c r="U12" s="97" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="13" spans="2:23">
@@ -14042,13 +14039,13 @@
         <v>CWCS</v>
       </c>
       <c r="C13" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D13" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D13" s="54" t="s">
-        <v>577</v>
-      </c>
       <c r="E13" s="54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F13" s="589">
         <v>0.107921172700168</v>
@@ -14105,13 +14102,13 @@
         <v>CWPS</v>
       </c>
       <c r="C14" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D14" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D14" s="54" t="s">
-        <v>577</v>
-      </c>
       <c r="E14" s="54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F14" s="589">
         <v>0.107921172700168</v>
@@ -16616,7 +16613,7 @@
     <col min="1" max="1" width="5.1328125" customWidth="1"/>
     <col min="2" max="2" width="13.86328125" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.265625" customWidth="1"/>
     <col min="6" max="21" width="11.1328125" customWidth="1"/>
     <col min="22" max="255" width="11.3984375" customWidth="1"/>
@@ -16643,7 +16640,7 @@
     </row>
     <row r="4" spans="2:21" s="16" customFormat="1" ht="14.25">
       <c r="B4" s="68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G4" s="122" t="s">
         <v>236</v>
@@ -16781,7 +16778,7 @@
     </row>
     <row r="10" spans="2:21" s="16" customFormat="1" ht="18">
       <c r="B10" s="66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -16805,7 +16802,7 @@
     </row>
     <row r="11" spans="2:21" s="16" customFormat="1" ht="14.25">
       <c r="C11" s="68" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="2:21" s="16" customFormat="1" ht="16.149999999999999" thickBot="1">
@@ -16813,61 +16810,61 @@
         <v>17</v>
       </c>
       <c r="C12" s="96" t="s">
+        <v>556</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>573</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>574</v>
+      </c>
+      <c r="F12" s="97" t="s">
         <v>557</v>
       </c>
-      <c r="D12" s="96" t="s">
-        <v>574</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>575</v>
-      </c>
-      <c r="F12" s="97" t="s">
+      <c r="G12" s="97" t="s">
         <v>558</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="H12" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="I12" s="97" t="s">
         <v>560</v>
       </c>
-      <c r="I12" s="97" t="s">
+      <c r="J12" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="J12" s="97" t="s">
+      <c r="K12" s="97" t="s">
         <v>562</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="L12" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="L12" s="97" t="s">
+      <c r="M12" s="97" t="s">
         <v>564</v>
       </c>
-      <c r="M12" s="97" t="s">
+      <c r="N12" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="N12" s="97" t="s">
+      <c r="O12" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="O12" s="97" t="s">
+      <c r="P12" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="P12" s="97" t="s">
+      <c r="Q12" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="Q12" s="97" t="s">
+      <c r="R12" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="R12" s="97" t="s">
+      <c r="S12" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="S12" s="97" t="s">
+      <c r="T12" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="T12" s="97" t="s">
+      <c r="U12" s="97" t="s">
         <v>572</v>
-      </c>
-      <c r="U12" s="97" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="13" spans="2:21" s="16" customFormat="1" ht="14.25">
@@ -16876,13 +16873,13 @@
         <v>CCCS</v>
       </c>
       <c r="C13" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D13" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D13" s="54" t="s">
-        <v>577</v>
-      </c>
       <c r="E13" s="54" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F13" s="589">
         <v>0.14219999999999999</v>
@@ -16939,13 +16936,13 @@
         <v>CCPS</v>
       </c>
       <c r="C14" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D14" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D14" s="54" t="s">
-        <v>577</v>
-      </c>
       <c r="E14" s="54" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F14" s="589">
         <v>0.14219999999999999</v>
@@ -18701,7 +18698,7 @@
   </sheetPr>
   <dimension ref="B1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -18755,7 +18752,7 @@
     </row>
     <row r="4" spans="2:21" s="16" customFormat="1" ht="14.25">
       <c r="B4" s="68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G4" s="122" t="s">
         <v>236</v>
@@ -18994,7 +18991,7 @@
     </row>
     <row r="13" spans="2:21" s="16" customFormat="1" ht="18">
       <c r="B13" s="66" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
@@ -19018,7 +19015,7 @@
     </row>
     <row r="14" spans="2:21" s="16" customFormat="1" ht="14.25">
       <c r="C14" s="68" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="2:21" s="16" customFormat="1" ht="16.149999999999999" thickBot="1">
@@ -19026,61 +19023,61 @@
         <v>17</v>
       </c>
       <c r="C15" s="96" t="s">
+        <v>556</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>573</v>
+      </c>
+      <c r="E15" s="96" t="s">
+        <v>574</v>
+      </c>
+      <c r="F15" s="97" t="s">
         <v>557</v>
       </c>
-      <c r="D15" s="96" t="s">
-        <v>574</v>
-      </c>
-      <c r="E15" s="96" t="s">
-        <v>575</v>
-      </c>
-      <c r="F15" s="97" t="s">
+      <c r="G15" s="97" t="s">
         <v>558</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="H15" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="H15" s="97" t="s">
+      <c r="I15" s="97" t="s">
         <v>560</v>
       </c>
-      <c r="I15" s="97" t="s">
+      <c r="J15" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="J15" s="97" t="s">
+      <c r="K15" s="97" t="s">
         <v>562</v>
       </c>
-      <c r="K15" s="97" t="s">
+      <c r="L15" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="L15" s="97" t="s">
+      <c r="M15" s="97" t="s">
         <v>564</v>
       </c>
-      <c r="M15" s="97" t="s">
+      <c r="N15" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="N15" s="97" t="s">
+      <c r="O15" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="O15" s="97" t="s">
+      <c r="P15" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="P15" s="97" t="s">
+      <c r="Q15" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="Q15" s="97" t="s">
+      <c r="R15" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="R15" s="97" t="s">
+      <c r="S15" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="S15" s="97" t="s">
+      <c r="T15" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="T15" s="97" t="s">
+      <c r="U15" s="97" t="s">
         <v>572</v>
-      </c>
-      <c r="U15" s="97" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="16" spans="2:21" s="16" customFormat="1" ht="14.25">
@@ -19089,13 +19086,13 @@
         <v>CLIG</v>
       </c>
       <c r="C16" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D16" s="54" t="s">
-        <v>577</v>
-      </c>
       <c r="E16" s="54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F16" s="589">
         <v>0.1125</v>
@@ -19152,13 +19149,13 @@
         <v>CCOK</v>
       </c>
       <c r="C17" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D17" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D17" s="54" t="s">
-        <v>577</v>
-      </c>
       <c r="E17" s="54" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F17" s="589">
         <v>0.15</v>
@@ -19215,13 +19212,13 @@
         <v>CREF</v>
       </c>
       <c r="C18" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D18" s="54" t="s">
-        <v>577</v>
-      </c>
       <c r="E18" s="54" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F18" s="589">
         <v>0.104166666666667</v>
@@ -19278,13 +19275,13 @@
         <v>CPLI</v>
       </c>
       <c r="C19" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="54" t="s">
-        <v>577</v>
-      </c>
       <c r="E19" s="54" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F19" s="589">
         <v>0.1125</v>
@@ -19341,13 +19338,13 @@
         <v>COEL</v>
       </c>
       <c r="C20" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="D20" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="D20" s="54" t="s">
-        <v>577</v>
-      </c>
       <c r="E20" s="54" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F20" s="589">
         <v>0.104166666666667</v>
@@ -19425,13 +19422,13 @@
       <c r="P22" s="134"/>
       <c r="Q22" s="85"/>
       <c r="S22" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="T22" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="T22" s="16" t="s">
+      <c r="U22" s="16" t="s">
         <v>496</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="23" spans="2:24" s="16" customFormat="1" ht="29.25" thickBot="1">
@@ -19532,7 +19529,7 @@
         <v>133</v>
       </c>
       <c r="X24" s="470" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="2:24" s="16" customFormat="1" ht="14.25">
@@ -21629,7 +21626,7 @@
         <v>246</v>
       </c>
       <c r="G7" s="782" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H7" s="186" t="s">
         <v>81</v>
@@ -21682,10 +21679,10 @@
     </row>
     <row r="9" spans="2:15" s="16" customFormat="1" ht="14.25">
       <c r="B9" s="140" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D9" s="54" t="s">
         <v>70</v>
@@ -21813,30 +21810,30 @@
   <sheetData>
     <row r="4" spans="2:9">
       <c r="I4" s="429" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="430"/>
       <c r="C5" s="431" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" s="431" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="431" t="s">
+      <c r="E5" s="431" t="s">
         <v>415</v>
       </c>
-      <c r="E5" s="431" t="s">
+      <c r="F5" s="431" t="s">
         <v>416</v>
       </c>
-      <c r="F5" s="431" t="s">
+      <c r="G5" s="431" t="s">
         <v>417</v>
-      </c>
-      <c r="G5" s="431" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="432" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C6" s="433">
         <v>42283</v>
@@ -21856,7 +21853,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="432" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C7" s="434">
         <v>0.39</v>
@@ -21874,12 +21871,12 @@
         <v>0.03</v>
       </c>
       <c r="I7" s="429" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="432" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C8" s="762">
         <f>'CSO data'!C36</f>
@@ -21902,12 +21899,12 @@
         <v>3365</v>
       </c>
       <c r="I8" s="768" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="432" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C9" s="480">
         <f>(SUM(C19:C21)*1000000000)/(C8*C6)</f>
@@ -21932,7 +21929,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="432" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C10" s="433">
         <v>85140.600241231703</v>
@@ -21952,7 +21949,7 @@
     </row>
     <row r="11" spans="2:9" ht="28.5">
       <c r="B11" s="432" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C11" s="433">
         <v>40205.283447248308</v>
@@ -21981,7 +21978,7 @@
     </row>
     <row r="13" spans="2:9" ht="28.5">
       <c r="B13" s="430" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C13" s="431"/>
       <c r="D13" s="431"/>
@@ -21992,7 +21989,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="437" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C14" s="438">
         <v>0.21555878668166398</v>
@@ -22012,7 +22009,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="437" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C15" s="438">
         <v>2.9381909961317933E-2</v>
@@ -22060,7 +22057,7 @@
     </row>
     <row r="18" spans="2:9" ht="42.75">
       <c r="B18" s="430" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C18" s="439"/>
       <c r="D18" s="439"/>
@@ -22068,12 +22065,12 @@
       <c r="F18" s="439"/>
       <c r="G18" s="439"/>
       <c r="I18" s="429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="437" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C19" s="441">
         <v>3</v>
@@ -22091,12 +22088,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I19" s="429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="437" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C20" s="441">
         <v>0.2</v>
@@ -22114,7 +22111,7 @@
         <v>0.6</v>
       </c>
       <c r="I20" s="429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -22137,7 +22134,7 @@
         <v>0.4</v>
       </c>
       <c r="I21" s="429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -22150,7 +22147,7 @@
     </row>
     <row r="23" spans="2:9" ht="42.75">
       <c r="B23" s="430" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C23" s="439"/>
       <c r="D23" s="439"/>
@@ -22158,12 +22155,12 @@
       <c r="F23" s="439"/>
       <c r="G23" s="439"/>
       <c r="I23" s="429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="437" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C24" s="435">
         <v>1.3</v>
@@ -22181,12 +22178,12 @@
         <v>0.9</v>
       </c>
       <c r="I24" s="429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="437" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C25" s="435">
         <v>0.3</v>
@@ -22204,7 +22201,7 @@
         <v>0.6</v>
       </c>
       <c r="I25" s="429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -22227,7 +22224,7 @@
         <v>0.4</v>
       </c>
       <c r="I26" s="429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -22240,7 +22237,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="442" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C28" s="439"/>
       <c r="D28" s="439"/>
@@ -22250,7 +22247,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="437" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C29" s="434">
         <v>0.45</v>
@@ -22270,7 +22267,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="437" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C30" s="434">
         <v>0.5</v>
@@ -22290,7 +22287,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="437" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C31" s="434">
         <v>0.05</v>
@@ -22318,7 +22315,7 @@
     </row>
     <row r="33" spans="2:7" ht="28.5">
       <c r="B33" s="430" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C33" s="439"/>
       <c r="D33" s="439"/>
@@ -22328,7 +22325,7 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="432" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C34" s="434">
         <v>0.8</v>
@@ -22348,7 +22345,7 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="437" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C35" s="434">
         <v>0.2</v>
@@ -22376,7 +22373,7 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="444" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C37" s="439"/>
       <c r="D37" s="439"/>
@@ -22386,7 +22383,7 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="432" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C38" s="434">
         <v>0.05</v>
@@ -22406,7 +22403,7 @@
     </row>
     <row r="39" spans="2:7" ht="28.5">
       <c r="B39" s="432" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C39" s="434">
         <v>0.7</v>
@@ -22426,7 +22423,7 @@
     </row>
     <row r="40" spans="2:7" ht="28.5">
       <c r="B40" s="432" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C40" s="434">
         <v>0.2</v>
@@ -22454,7 +22451,7 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="430" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C42" s="439"/>
       <c r="D42" s="439"/>
@@ -22464,7 +22461,7 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="432" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C43" s="434">
         <v>0.15</v>
@@ -22484,7 +22481,7 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="445" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C44" s="434">
         <v>0.45</v>
@@ -22504,7 +22501,7 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="445" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C45" s="434">
         <v>0.4</v>
@@ -22557,7 +22554,7 @@
     <row r="53" spans="2:7">
       <c r="B53" s="446"/>
       <c r="C53" s="792" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D53" s="793"/>
       <c r="E53" s="793"/>
@@ -22655,44 +22652,44 @@
   <sheetData>
     <row r="2" spans="2:10" ht="14.25">
       <c r="B2" s="481" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C2" s="768" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="14.25">
       <c r="C5" s="483" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H5" s="483" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="14.25">
       <c r="C6" s="484"/>
       <c r="D6" s="484" t="s">
+        <v>512</v>
+      </c>
+      <c r="E6" s="484" t="s">
         <v>513</v>
       </c>
-      <c r="E6" s="484" t="s">
+      <c r="F6" s="763" t="s">
         <v>514</v>
       </c>
-      <c r="F6" s="763" t="s">
+      <c r="H6" s="484" t="s">
         <v>515</v>
       </c>
-      <c r="H6" s="484" t="s">
+      <c r="I6" s="484" t="s">
         <v>516</v>
       </c>
-      <c r="I6" s="484" t="s">
+      <c r="J6" s="484" t="s">
         <v>517</v>
-      </c>
-      <c r="J6" s="484" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="484" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D7" s="485">
         <v>225</v>
@@ -22718,7 +22715,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="C8" s="484" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D8" s="485">
         <v>870</v>
@@ -22744,7 +22741,7 @@
     </row>
     <row r="9" spans="2:10" ht="14.25">
       <c r="C9" s="764" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D9" s="485">
         <v>496</v>
@@ -22770,7 +22767,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="C10" s="484" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D10" s="485">
         <v>780</v>
@@ -22796,7 +22793,7 @@
     </row>
     <row r="11" spans="2:10">
       <c r="C11" s="484" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D11" s="485">
         <v>199</v>
@@ -22822,7 +22819,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="C12" s="484" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D12" s="488">
         <v>1768</v>
@@ -22848,7 +22845,7 @@
     </row>
     <row r="13" spans="2:10">
       <c r="C13" s="484" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D13" s="485">
         <v>238</v>
@@ -22874,7 +22871,7 @@
     </row>
     <row r="14" spans="2:10" ht="14.25">
       <c r="C14" s="764" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D14" s="485">
         <v>347</v>
@@ -22975,7 +22972,7 @@
         <v>183.49097162510748</v>
       </c>
       <c r="G19" s="482" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -22986,19 +22983,19 @@
     </row>
     <row r="23" spans="3:10" ht="14.25">
       <c r="C23" s="489" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D23" s="484" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E23" s="484" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="489" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I23" s="484" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J23" s="484" t="s">
         <v>63</v>
@@ -23006,7 +23003,7 @@
     </row>
     <row r="24" spans="3:10" ht="14.25">
       <c r="C24" s="485" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D24" s="484">
         <v>609</v>
@@ -23016,7 +23013,7 @@
         <v>0.12370505789152955</v>
       </c>
       <c r="H24" s="485" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I24" s="484">
         <v>539</v>
@@ -23028,7 +23025,7 @@
     </row>
     <row r="25" spans="3:10" ht="14.25">
       <c r="C25" s="485" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D25" s="484">
         <v>775</v>
@@ -23038,7 +23035,7 @@
         <v>0.15742433475523054</v>
       </c>
       <c r="H25" s="485" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I25" s="484">
         <v>461</v>
@@ -23050,7 +23047,7 @@
     </row>
     <row r="26" spans="3:10" ht="14.25">
       <c r="C26" s="485" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D26" s="484">
         <v>773</v>
@@ -23060,7 +23057,7 @@
         <v>0.15701807840747511</v>
       </c>
       <c r="H26" s="485" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I26" s="484">
         <v>309</v>
@@ -23072,7 +23069,7 @@
     </row>
     <row r="27" spans="3:10" ht="14.25">
       <c r="C27" s="485" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D27" s="484">
         <v>454</v>
@@ -23082,7 +23079,7 @@
         <v>9.2220190940483449E-2</v>
       </c>
       <c r="H27" s="485" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I27" s="484">
         <v>216</v>
@@ -23094,7 +23091,7 @@
     </row>
     <row r="28" spans="3:10" ht="14.25">
       <c r="C28" s="485" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D28" s="484">
         <v>883</v>
@@ -23104,7 +23101,7 @@
         <v>0.17936217753402398</v>
       </c>
       <c r="H28" s="484" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I28" s="484">
         <v>128</v>
@@ -23126,7 +23123,7 @@
         <v>8.1657525898842176E-2</v>
       </c>
       <c r="H29" s="767" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I29" s="484">
         <v>50</v>
@@ -23138,7 +23135,7 @@
     </row>
     <row r="30" spans="3:10" ht="14.25">
       <c r="C30" s="767" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D30" s="484">
         <v>356</v>
@@ -23148,7 +23145,7 @@
         <v>7.2313629900467191E-2</v>
       </c>
       <c r="H30" s="484" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I30" s="484">
         <v>41</v>
@@ -23170,7 +23167,7 @@
         <v>3.6156814950233596E-2</v>
       </c>
       <c r="H31" s="485" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I31" s="484">
         <v>10</v>
@@ -23182,7 +23179,7 @@
     </row>
     <row r="32" spans="3:10" ht="14.25">
       <c r="C32" s="485" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D32" s="484">
         <v>147</v>
@@ -23192,7 +23189,7 @@
         <v>2.9859841560024376E-2</v>
       </c>
       <c r="H32" s="767" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I32" s="484">
         <v>3</v>
@@ -23204,7 +23201,7 @@
     </row>
     <row r="33" spans="3:10">
       <c r="C33" s="485" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D33" s="484">
         <v>346</v>
@@ -23235,7 +23232,7 @@
     </row>
     <row r="36" spans="3:10" ht="14.25">
       <c r="C36" s="481" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D36" s="481">
         <f>SUM(D24:D27)</f>
@@ -23248,7 +23245,7 @@
     </row>
     <row r="37" spans="3:10" ht="14.25">
       <c r="C37" s="481" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D37" s="481">
         <f>D28+D30+D329+D33+D32</f>
@@ -23498,7 +23495,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="798" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B1" s="798"/>
       <c r="C1" s="798"/>
@@ -23517,10 +23514,10 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="459" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2" s="472" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C2" s="459"/>
       <c r="D2" s="459"/>
@@ -23535,59 +23532,59 @@
       <c r="M2" s="459"/>
       <c r="N2" s="460"/>
       <c r="O2" s="461" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="33.75" customHeight="1">
       <c r="A3" s="770" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="771" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="771" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" s="771" t="s">
         <v>447</v>
       </c>
-      <c r="B3" s="771" t="s">
-        <v>415</v>
-      </c>
-      <c r="C3" s="771" t="s">
-        <v>414</v>
-      </c>
-      <c r="D3" s="771" t="s">
+      <c r="E3" s="771" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="771" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="771" t="s">
-        <v>418</v>
-      </c>
-      <c r="F3" s="771" t="s">
+      <c r="G3" s="771" t="s">
         <v>449</v>
       </c>
-      <c r="G3" s="771" t="s">
+      <c r="H3" s="771" t="s">
         <v>450</v>
       </c>
-      <c r="H3" s="771" t="s">
+      <c r="I3" s="771" t="s">
         <v>451</v>
       </c>
-      <c r="I3" s="771" t="s">
+      <c r="J3" s="771" t="s">
         <v>452</v>
       </c>
-      <c r="J3" s="771" t="s">
+      <c r="K3" s="771" t="s">
         <v>453</v>
       </c>
-      <c r="K3" s="771" t="s">
+      <c r="L3" s="771" t="s">
         <v>454</v>
       </c>
-      <c r="L3" s="771" t="s">
+      <c r="M3" s="771" t="s">
         <v>455</v>
       </c>
-      <c r="M3" s="771" t="s">
+      <c r="N3" s="771" t="s">
+        <v>433</v>
+      </c>
+      <c r="O3" s="771" t="s">
         <v>456</v>
-      </c>
-      <c r="N3" s="771" t="s">
-        <v>434</v>
-      </c>
-      <c r="O3" s="771" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="774" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B4" s="772">
         <v>435</v>
@@ -23634,7 +23631,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="774" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="772">
         <v>362</v>
@@ -23681,7 +23678,7 @@
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="774" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B6" s="772">
         <v>265</v>
@@ -23728,7 +23725,7 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="774" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B7" s="772">
         <v>224</v>
@@ -23775,7 +23772,7 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="774" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B8" s="772">
         <v>284</v>
@@ -23822,7 +23819,7 @@
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="774" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B9" s="772">
         <v>324</v>
@@ -23869,7 +23866,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="774" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B10" s="772">
         <v>353</v>
@@ -23916,7 +23913,7 @@
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="774" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B11" s="772">
         <v>305</v>
@@ -23963,7 +23960,7 @@
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="774" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B12" s="772">
         <v>235</v>
@@ -24010,7 +24007,7 @@
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="774" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B13" s="772">
         <v>301</v>
@@ -24057,7 +24054,7 @@
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="774" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B14" s="772">
         <v>298</v>
@@ -24104,7 +24101,7 @@
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="774" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B15" s="772">
         <v>294</v>
@@ -24151,7 +24148,7 @@
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="774" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B16" s="772">
         <v>218</v>
@@ -24198,7 +24195,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="774" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B17" s="772">
         <v>221</v>
@@ -24245,7 +24242,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="774" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B18" s="772">
         <v>375</v>
@@ -24275,7 +24272,7 @@
         <v>132</v>
       </c>
       <c r="K18" s="775" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L18" s="772">
         <v>736</v>
@@ -24292,7 +24289,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="774" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B19" s="772">
         <v>289</v>
@@ -24339,7 +24336,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="774" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B20" s="772">
         <v>265</v>
@@ -24386,7 +24383,7 @@
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="774" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B21" s="772">
         <v>253</v>
@@ -24433,7 +24430,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="774" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B22" s="772">
         <v>287</v>
@@ -24480,7 +24477,7 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="774" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B23" s="772">
         <v>293</v>
@@ -24527,7 +24524,7 @@
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="774" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B24" s="772">
         <v>268</v>
@@ -24574,7 +24571,7 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="774" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B25" s="772">
         <v>618</v>
@@ -24621,7 +24618,7 @@
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="774" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B26" s="772">
         <v>285</v>
@@ -24668,7 +24665,7 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="774" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B27" s="772">
         <v>287</v>
@@ -24715,7 +24712,7 @@
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="774" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B28" s="772">
         <v>233</v>
@@ -24739,7 +24736,7 @@
         <v>878</v>
       </c>
       <c r="I28" s="775" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J28" s="772">
         <v>396</v>
@@ -24751,7 +24748,7 @@
         <v>1298</v>
       </c>
       <c r="M28" s="775" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N28" s="772">
         <v>55</v>
@@ -24762,7 +24759,7 @@
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="774" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B29" s="772">
         <v>261</v>
@@ -24809,7 +24806,7 @@
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="774" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B30" s="772">
         <v>278</v>
@@ -24856,7 +24853,7 @@
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="774" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B31" s="772">
         <v>317</v>
@@ -24903,7 +24900,7 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="774" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B32" s="772">
         <v>227</v>
@@ -24950,7 +24947,7 @@
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="774" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B33" s="772">
         <v>249</v>
@@ -24997,7 +24994,7 @@
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="774" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B34" s="772">
         <v>308</v>
@@ -25061,7 +25058,7 @@
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1">
       <c r="A36" s="776" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B36" s="777">
         <v>302</v>
@@ -25108,7 +25105,7 @@
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
       <c r="A37" s="800" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B37" s="800"/>
       <c r="C37" s="800"/>
@@ -25172,7 +25169,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="769" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -25208,7 +25205,7 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="555" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C3" s="556" t="s">
         <v>232</v>
@@ -25216,10 +25213,10 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="558" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C4" s="558" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -25259,7 +25256,7 @@
         <v>159</v>
       </c>
       <c r="C9" s="559" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -25288,7 +25285,7 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="559" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C13" s="559" t="s">
         <v>230</v>
@@ -25307,7 +25304,7 @@
     </row>
     <row r="16" spans="2:3" ht="18">
       <c r="B16" s="562" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C16" s="563"/>
     </row>
@@ -25329,7 +25326,7 @@
     </row>
     <row r="20" spans="2:3" ht="18">
       <c r="B20" s="566" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C20" s="567"/>
     </row>
@@ -25347,7 +25344,7 @@
     </row>
     <row r="24" spans="2:3" ht="18">
       <c r="B24" s="566" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C24" s="567"/>
     </row>
@@ -25356,7 +25353,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="564" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -25372,12 +25369,12 @@
         <v>154</v>
       </c>
       <c r="C27" s="568" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="572" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" s="569">
         <v>2012</v>
@@ -25550,13 +25547,13 @@
     </row>
     <row r="5" spans="1:30" ht="14.25">
       <c r="A5" s="481" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C5" s="802" t="s">
         <v>262</v>
       </c>
       <c r="D5" s="802" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E5" s="801" t="str">
         <f>A11</f>
@@ -25665,7 +25662,7 @@
     </row>
     <row r="6" spans="1:30" ht="14.25">
       <c r="A6" s="481" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C6" s="801" t="str">
         <f>C5</f>
@@ -25782,7 +25779,7 @@
     </row>
     <row r="7" spans="1:30" ht="14.25">
       <c r="A7" s="481" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C7" s="801" t="str">
         <f>"*"&amp;C5</f>
@@ -25899,223 +25896,223 @@
     </row>
     <row r="10" spans="1:30" ht="14.65" thickBot="1">
       <c r="A10" s="803" t="s">
+        <v>616</v>
+      </c>
+      <c r="B10" s="803" t="s">
         <v>617</v>
-      </c>
-      <c r="B10" s="803" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="804" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B11" s="804" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="805" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B12" s="805" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="805" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B13" s="805" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="805" t="s">
+        <v>621</v>
+      </c>
+      <c r="B14" s="805" t="s">
         <v>622</v>
-      </c>
-      <c r="B14" s="805" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="805" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B15" s="805" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="805" t="s">
+        <v>624</v>
+      </c>
+      <c r="B16" s="805" t="s">
         <v>625</v>
-      </c>
-      <c r="B16" s="805" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="805" t="s">
+        <v>626</v>
+      </c>
+      <c r="B17" s="805" t="s">
         <v>627</v>
-      </c>
-      <c r="B17" s="805" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="805" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B18" s="805" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="805" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B19" s="805" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="805" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B20" s="805" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="805" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B21" s="805" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="805" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B22" s="805" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="805" t="s">
+        <v>633</v>
+      </c>
+      <c r="B23" s="805" t="s">
         <v>634</v>
-      </c>
-      <c r="B23" s="805" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="805" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B24" s="805" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="805" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B25" s="805" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="805" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B26" s="805" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="805" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B27" s="805" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="805" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B28" s="805" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="805" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B29" s="805" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="805" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B30" s="805" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="805" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B31" s="805" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="805" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B32" s="805" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="805" t="s">
+        <v>644</v>
+      </c>
+      <c r="B33" s="805" t="s">
         <v>645</v>
-      </c>
-      <c r="B33" s="805" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="805" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B34" s="805" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="805" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B35" s="805" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="805" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B36" s="805" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25">
       <c r="A37" s="806" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -26162,11 +26159,11 @@
   <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="AK61" sqref="AK61"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -26211,7 +26208,7 @@
   <sheetData>
     <row r="1" spans="1:41" s="240" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
       <c r="A1" s="230" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B1" s="231" t="s">
         <v>263</v>
@@ -31770,7 +31767,7 @@
     </row>
     <row r="65" spans="1:39" ht="12.75" customHeight="1">
       <c r="A65" s="752" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B65" s="322"/>
       <c r="C65" s="323"/>
@@ -31813,7 +31810,7 @@
     </row>
     <row r="66" spans="1:39" ht="12.75" customHeight="1">
       <c r="A66" s="753" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B66" s="327"/>
       <c r="C66" s="323"/>
@@ -31856,7 +31853,7 @@
     </row>
     <row r="67" spans="1:39" ht="12.75" customHeight="1">
       <c r="A67" s="754" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B67" s="328"/>
       <c r="C67" s="323"/>
@@ -31899,7 +31896,7 @@
     </row>
     <row r="68" spans="1:39" ht="12.75" customHeight="1">
       <c r="A68" s="755" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B68" s="328"/>
       <c r="C68" s="323"/>
@@ -32000,8 +31997,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:BM72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.15"/>
@@ -32303,7 +32300,7 @@
         <v>52</v>
       </c>
       <c r="I9" s="391" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J9" s="391" t="s">
         <v>6</v>
@@ -32550,7 +32547,7 @@
     </row>
     <row r="16" spans="2:65" ht="18">
       <c r="B16" s="386" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C16" s="393"/>
       <c r="D16" s="393"/>
@@ -33750,7 +33747,7 @@
         <v>143</v>
       </c>
       <c r="Q50" s="350" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="T50" s="65"/>
       <c r="U50" s="378"/>
@@ -33767,7 +33764,7 @@
     </row>
     <row r="52" spans="2:21" ht="18">
       <c r="B52" s="363" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C52" s="386"/>
       <c r="D52" s="386"/>
@@ -33795,7 +33792,7 @@
     </row>
     <row r="54" spans="2:21">
       <c r="B54" s="353" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C54" s="352">
         <f>SUM('Commercial SEAI'!C6:G6)/1000</f>
@@ -33903,7 +33900,7 @@
     </row>
     <row r="62" spans="2:21" ht="14.25">
       <c r="B62" s="353" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C62" s="467">
         <f>C54*SUMPRODUCT('Commercial SEAI'!C6:G6,'Commercial SEAI'!C8:G8)/SUM('Commercial SEAI'!C6:G6)</f>
@@ -33973,7 +33970,7 @@
     </row>
     <row r="68" spans="2:9" ht="18">
       <c r="B68" s="363" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C68" s="364"/>
       <c r="D68" s="364"/>
@@ -33988,13 +33985,13 @@
         <v>95</v>
       </c>
       <c r="D69" s="353" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E69" s="466"/>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="353" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C70" s="352">
         <f>C62*D70</f>
@@ -34049,8 +34046,8 @@
   </sheetPr>
   <dimension ref="B2:J40"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -34210,7 +34207,7 @@
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
@@ -34289,19 +34286,17 @@
         <v>211</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="29" t="s">
-        <v>386</v>
-      </c>
+      <c r="I14" s="29"/>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="2:10">
@@ -34317,7 +34312,7 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="5"/>
@@ -34341,7 +34336,7 @@
     <row r="17" spans="2:9">
       <c r="B17" s="26"/>
       <c r="C17" s="27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>105</v>
@@ -34373,17 +34368,17 @@
     <row r="19" spans="2:9">
       <c r="B19" s="26"/>
       <c r="C19" s="583" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D19" s="584" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E19" s="585" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="585"/>
       <c r="G19" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
@@ -34391,17 +34386,17 @@
     <row r="20" spans="2:9">
       <c r="B20" s="30"/>
       <c r="C20" s="588" t="s">
+        <v>545</v>
+      </c>
+      <c r="D20" s="588" t="s">
         <v>546</v>
-      </c>
-      <c r="D20" s="588" t="s">
-        <v>547</v>
       </c>
       <c r="E20" s="587" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="587"/>
       <c r="G20" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -34411,10 +34406,10 @@
         <v>134</v>
       </c>
       <c r="C21" s="582" t="s">
+        <v>551</v>
+      </c>
+      <c r="D21" s="582" t="s">
         <v>552</v>
-      </c>
-      <c r="D21" s="582" t="s">
-        <v>553</v>
       </c>
       <c r="E21" s="228" t="s">
         <v>10</v>
@@ -34427,10 +34422,10 @@
     <row r="22" spans="2:9">
       <c r="B22" s="26"/>
       <c r="C22" s="582" t="s">
+        <v>553</v>
+      </c>
+      <c r="D22" s="582" t="s">
         <v>554</v>
-      </c>
-      <c r="D22" s="582" t="s">
-        <v>555</v>
       </c>
       <c r="E22" s="228" t="s">
         <v>10</v>
@@ -34547,7 +34542,7 @@
         <v>CHCS</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>10</v>
@@ -34564,7 +34559,7 @@
         <v>CHPS</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>10</v>
@@ -34581,7 +34576,7 @@
         <v>CCCS</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>10</v>
@@ -34598,7 +34593,7 @@
         <v>CCPS</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>10</v>
@@ -34615,7 +34610,7 @@
         <v>CWCS</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>10</v>
@@ -34632,7 +34627,7 @@
         <v>CWPS</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>10</v>
@@ -34648,7 +34643,7 @@
         <v>57</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>10</v>
@@ -34664,7 +34659,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>10</v>
@@ -34680,7 +34675,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>10</v>
@@ -34696,7 +34691,7 @@
         <v>60</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>10</v>
@@ -34712,7 +34707,7 @@
         <v>61</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>10</v>
@@ -34728,7 +34723,7 @@
         <v>62</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>10</v>
@@ -36158,7 +36153,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -36178,7 +36173,7 @@
         <v>10</v>
       </c>
       <c r="F71" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G71" s="54"/>
       <c r="H71" s="54"/>
@@ -36198,7 +36193,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G72" s="54"/>
       <c r="H72" s="54"/>
@@ -36218,7 +36213,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G73" s="55"/>
       <c r="H73" s="55"/>
@@ -36240,7 +36235,7 @@
         <v>10</v>
       </c>
       <c r="F74" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G74" s="54"/>
       <c r="H74" s="54"/>
@@ -36260,7 +36255,7 @@
         <v>10</v>
       </c>
       <c r="F75" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
@@ -36280,7 +36275,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G76" s="54"/>
       <c r="H76" s="54"/>
@@ -36300,7 +36295,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G77" s="54"/>
       <c r="H77" s="54"/>
@@ -36320,7 +36315,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G78" s="54"/>
       <c r="H78" s="54"/>
@@ -36340,7 +36335,7 @@
         <v>10</v>
       </c>
       <c r="F79" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G79" s="54"/>
       <c r="H79" s="54"/>
@@ -36360,7 +36355,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G80" s="54"/>
       <c r="H80" s="54"/>
@@ -36380,7 +36375,7 @@
         <v>10</v>
       </c>
       <c r="F81" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G81" s="55"/>
       <c r="H81" s="55"/>
@@ -36402,7 +36397,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G82" s="54"/>
       <c r="H82" s="54"/>
@@ -36422,7 +36417,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
@@ -36442,7 +36437,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G84" s="55"/>
       <c r="H84" s="55"/>
@@ -36464,7 +36459,7 @@
         <v>10</v>
       </c>
       <c r="F85" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G85" s="59"/>
       <c r="H85" s="59"/>
@@ -36486,7 +36481,7 @@
         <v>10</v>
       </c>
       <c r="F86" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G86" s="55"/>
       <c r="H86" s="55"/>
@@ -36557,7 +36552,7 @@
         <v>113</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H89" s="53"/>
       <c r="I89" s="53"/>
@@ -36576,7 +36571,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G90" s="54"/>
       <c r="H90" s="54"/>
@@ -36596,7 +36591,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G91" s="54"/>
       <c r="H91" s="54"/>
@@ -36616,7 +36611,7 @@
         <v>10</v>
       </c>
       <c r="F92" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G92" s="54"/>
       <c r="H92" s="54"/>
@@ -36636,10 +36631,10 @@
         <v>10</v>
       </c>
       <c r="F93" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G93" s="54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H93" s="54"/>
       <c r="I93" s="54"/>
@@ -36658,7 +36653,7 @@
         <v>10</v>
       </c>
       <c r="F94" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G94" s="54"/>
       <c r="H94" s="54"/>
@@ -36678,10 +36673,10 @@
         <v>10</v>
       </c>
       <c r="F95" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G95" s="54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H95" s="54"/>
       <c r="I95" s="54"/>
@@ -36700,7 +36695,7 @@
         <v>10</v>
       </c>
       <c r="F96" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G96" s="54"/>
       <c r="H96" s="54"/>
@@ -36720,7 +36715,7 @@
         <v>10</v>
       </c>
       <c r="F97" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G97" s="54"/>
       <c r="H97" s="54"/>
@@ -36740,7 +36735,7 @@
         <v>10</v>
       </c>
       <c r="F98" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G98" s="54"/>
       <c r="H98" s="54"/>
@@ -36760,7 +36755,7 @@
         <v>10</v>
       </c>
       <c r="F99" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G99" s="54"/>
       <c r="H99" s="54"/>
@@ -36843,10 +36838,10 @@
         <v>208</v>
       </c>
       <c r="H4" s="782" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I4" s="757" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J4" s="514" t="s">
         <v>212</v>
@@ -36868,16 +36863,16 @@
       <c r="F5" s="516"/>
       <c r="G5" s="516"/>
       <c r="H5" s="784" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I5" s="516" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J5" s="517" t="s">
         <v>213</v>
       </c>
       <c r="K5" s="517" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L5" s="516" t="s">
         <v>258</v>
@@ -36922,7 +36917,7 @@
       <c r="B7" s="518"/>
       <c r="C7" s="518"/>
       <c r="D7" s="519" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E7" s="520"/>
       <c r="F7" s="519"/>
@@ -37023,7 +37018,7 @@
         <v>COMGAS_INF</v>
       </c>
       <c r="C11" s="533" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" s="523" t="s">
         <v>185</v>
@@ -37087,10 +37082,10 @@
         <v>COMBGS_INF</v>
       </c>
       <c r="C13" s="525" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D13" s="525" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E13" s="527" t="str">
         <f>COM_Balance!$I$13</f>
@@ -37325,7 +37320,7 @@
         <v>81</v>
       </c>
       <c r="G26" s="757" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H26" s="513" t="s">
         <v>210</v>
@@ -37366,7 +37361,7 @@
         <v>COMHET_INF</v>
       </c>
       <c r="C28" s="586" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D28" s="541" t="s">
         <v>375</v>
@@ -37621,7 +37616,7 @@
         <v>81</v>
       </c>
       <c r="G42" s="757" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H42" s="513" t="s">
         <v>210</v>
@@ -37662,10 +37657,10 @@
         <v>COMH2G_INF</v>
       </c>
       <c r="C44" s="586" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E44" s="506" t="str">
         <f>COM_Commodities!C19</f>
@@ -37687,10 +37682,10 @@
         <v>COMH2L_INF</v>
       </c>
       <c r="C45" s="586" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E45" s="506" t="str">
         <f>COM_Commodities!C20</f>

--- a/VT_IE_COM.xlsx
+++ b/VT_IE_COM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F0451-0A87-4834-A50B-27D8419E0630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1F0F19-CB83-4B28-80CE-38AFD753D848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1671,7 +1671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="618">
   <si>
     <t>ELC</t>
   </si>
@@ -3338,16 +3338,7 @@
     <t>Heat (COM)</t>
   </si>
   <si>
-    <t>COMAHT</t>
-  </si>
-  <si>
     <t>Ambient Heat (COM)</t>
-  </si>
-  <si>
-    <t>COMGHT</t>
-  </si>
-  <si>
-    <t>Ground Heat (COM)</t>
   </si>
   <si>
     <t>Fuel Tech - Heat (COM)</t>
@@ -3560,6 +3551,15 @@
   <si>
     <t>PWRHTH</t>
   </si>
+  <si>
+    <t>COMAMB</t>
+  </si>
+  <si>
+    <t>Fuel Tech - Ambient Heat (COM)</t>
+  </si>
+  <si>
+    <t>AMBHET</t>
+  </si>
 </sst>
 </file>
 
@@ -3579,10 +3579,17 @@
     <numFmt numFmtId="174" formatCode="0.000000_)"/>
     <numFmt numFmtId="175" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="99">
+  <fonts count="100">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6710,984 +6717,984 @@
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="157" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="158" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="159" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="90" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="91" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="92" fillId="42" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="93" fillId="43" borderId="161" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="94" fillId="43" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="162" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="44" borderId="163" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="164" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="157" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="158" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="159" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="92" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="93" fillId="42" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="94" fillId="43" borderId="161" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="95" fillId="43" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="162" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="44" borderId="163" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="164" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="811">
+  <cellXfs count="813">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="36" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="170" fontId="37" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="38" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="35" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="35" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="34" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="33" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="34" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="35" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="33" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="29" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="33" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="34" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="34" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="34" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="34" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="34" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="34" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="34" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="34" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="34" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="35" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="34" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="34" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="34" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="34" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="34" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="34" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="34" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="34" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="22" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="34" fillId="22" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="34" fillId="22" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="34" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="34" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="34" fillId="16" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="34" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="34" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="34" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="34" fillId="22" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="34" fillId="22" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="34" fillId="22" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="53" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="11" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="11" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="54" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="52" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="11" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="11" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="11" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="55" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="51" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="51" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="54" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="55" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="61" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="41" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="35" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="35" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="35" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="35" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="35" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="36" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="35" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="35" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="22" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="35" fillId="22" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="35" fillId="22" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="35" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="35" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="35" fillId="16" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="35" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="35" fillId="22" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="35" fillId="22" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="35" fillId="22" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="54" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="11" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="11" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="55" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="53" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="11" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="11" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="11" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="56" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="52" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="52" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="52" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="55" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="56" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="62" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="42" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="41" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="42" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="42" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="42" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="41" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="42" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="41" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="42" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="167" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="42" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="59" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="60" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="59" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="59" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="41" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="41" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="42" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="38" fontId="51" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="52" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="15" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="15" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="15" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="15" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="15" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="15" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="15" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="15" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="15" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="15" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="15" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="15" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="15" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="15" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="34" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="35" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="35" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="34" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="35" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="35" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="34" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="35" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="63" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="64" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="49" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="50" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
@@ -7697,61 +7704,61 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="71" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="41" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="42" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="41" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="42" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="41" fillId="24" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="42" fillId="24" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="24" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="35" fillId="24" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7761,416 +7768,644 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="42" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="41" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="42" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="41" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="42" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="36" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="77" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="77" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="77" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="77" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="80" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="77" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="77" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="77" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="77" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="77" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="77" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="84" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="85" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="76" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="76" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="76" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="76" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="76" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="76" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="37" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="85" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="36" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="85" fillId="36" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="36" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="147" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="35" fillId="24" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="76" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="76" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="76" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="76" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="83" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="84" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="37" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="84" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="36" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="84" fillId="36" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="36" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="147" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="34" fillId="24" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="52" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="38" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="52" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="38" fontId="52" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="38" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="38" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="38" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="38" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="38" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="52" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="38" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="38" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="38" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="38" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="38" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="38" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="52" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="38" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="52" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="52" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="52" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="38" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="38" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="38" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="52" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8182,369 +8417,145 @@
     <xf numFmtId="38" fontId="52" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="52" fillId="38" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="52" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="38" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="38" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="38" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="38" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="38" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="38" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="38" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="38" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="38" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="38" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="52" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="53" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="52" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="53" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="52" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="53" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="71" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="97" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="3" fontId="72" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="98" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="97" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="99" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="76" fillId="16" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="76" fillId="16" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="98" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="77" fillId="16" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="77" fillId="16" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="63" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="63" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="63" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="63" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="35" fillId="16" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="35" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="85" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="72" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="73" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -9469,14 +9480,14 @@
       <c r="F16" s="574"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1">
-      <c r="A17" s="796" t="s">
+      <c r="A17" s="799" t="s">
         <v>404</v>
       </c>
-      <c r="B17" s="796"/>
-      <c r="C17" s="796"/>
-      <c r="D17" s="796"/>
-      <c r="E17" s="796"/>
-      <c r="F17" s="796"/>
+      <c r="B17" s="799"/>
+      <c r="C17" s="799"/>
+      <c r="D17" s="799"/>
+      <c r="E17" s="799"/>
+      <c r="F17" s="799"/>
       <c r="G17" s="415"/>
       <c r="H17" s="415"/>
       <c r="I17" s="416"/>
@@ -9514,13 +9525,13 @@
       <c r="A20" s="419" t="s">
         <v>405</v>
       </c>
-      <c r="B20" s="797" t="s">
+      <c r="B20" s="800" t="s">
         <v>406</v>
       </c>
-      <c r="C20" s="797"/>
-      <c r="D20" s="797"/>
-      <c r="E20" s="797"/>
-      <c r="F20" s="797"/>
+      <c r="C20" s="800"/>
+      <c r="D20" s="800"/>
+      <c r="E20" s="800"/>
+      <c r="F20" s="800"/>
       <c r="G20" s="420"/>
       <c r="H20" s="420"/>
       <c r="I20" s="421"/>
@@ -9534,13 +9545,13 @@
       <c r="A21" s="419" t="s">
         <v>407</v>
       </c>
-      <c r="B21" s="798" t="s">
+      <c r="B21" s="801" t="s">
         <v>539</v>
       </c>
-      <c r="C21" s="798"/>
-      <c r="D21" s="798"/>
-      <c r="E21" s="798"/>
-      <c r="F21" s="798"/>
+      <c r="C21" s="801"/>
+      <c r="D21" s="801"/>
+      <c r="E21" s="801"/>
+      <c r="F21" s="801"/>
       <c r="G21" s="420"/>
       <c r="H21" s="420"/>
       <c r="I21" s="421"/>
@@ -9554,13 +9565,13 @@
       <c r="A22" s="419" t="s">
         <v>408</v>
       </c>
-      <c r="B22" s="798" t="s">
+      <c r="B22" s="801" t="s">
         <v>409</v>
       </c>
-      <c r="C22" s="798"/>
-      <c r="D22" s="798"/>
-      <c r="E22" s="798"/>
-      <c r="F22" s="798"/>
+      <c r="C22" s="801"/>
+      <c r="D22" s="801"/>
+      <c r="E22" s="801"/>
+      <c r="F22" s="801"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1">
       <c r="A23" s="422" t="s">
@@ -9575,26 +9586,26 @@
       <c r="H23" s="424"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A24" s="799" t="s">
+      <c r="A24" s="802" t="s">
         <v>499</v>
       </c>
-      <c r="B24" s="799"/>
-      <c r="C24" s="799"/>
-      <c r="D24" s="799"/>
-      <c r="E24" s="799"/>
-      <c r="F24" s="799"/>
+      <c r="B24" s="802"/>
+      <c r="C24" s="802"/>
+      <c r="D24" s="802"/>
+      <c r="E24" s="802"/>
+      <c r="F24" s="802"/>
       <c r="G24" s="424"/>
       <c r="H24" s="424"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A25" s="795" t="s">
+      <c r="A25" s="798" t="s">
         <v>498</v>
       </c>
-      <c r="B25" s="795"/>
-      <c r="C25" s="795"/>
-      <c r="D25" s="795"/>
-      <c r="E25" s="795"/>
-      <c r="F25" s="795"/>
+      <c r="B25" s="798"/>
+      <c r="C25" s="798"/>
+      <c r="D25" s="798"/>
+      <c r="E25" s="798"/>
+      <c r="F25" s="798"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="574"/>
@@ -9805,7 +9816,7 @@
     </row>
     <row r="4" spans="2:24" s="16" customFormat="1" ht="15">
       <c r="B4" s="68" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G4" s="122" t="s">
         <v>236</v>
@@ -9938,7 +9949,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D11" s="127" t="s">
         <v>15</v>
@@ -11621,7 +11632,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="127" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D43" s="127" t="s">
         <v>15</v>
@@ -13605,7 +13616,7 @@
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="68" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="122" t="s">
@@ -13688,7 +13699,7 @@
     </row>
     <row r="7" spans="2:23">
       <c r="B7" s="54" t="str">
-        <f>COM_Commodities!D33</f>
+        <f>COM_Commodities!D32</f>
         <v>CWCS</v>
       </c>
       <c r="C7" s="179">
@@ -13700,7 +13711,7 @@
         <v>1.5279568491355382</v>
       </c>
       <c r="E7" s="54" t="str">
-        <f>COM_Commodities!E33</f>
+        <f>COM_Commodities!E32</f>
         <v>Commercial water heating demand - Commercial Services</v>
       </c>
       <c r="F7" s="75"/>
@@ -13722,7 +13733,7 @@
     </row>
     <row r="8" spans="2:23">
       <c r="B8" s="54" t="str">
-        <f>COM_Commodities!D34</f>
+        <f>COM_Commodities!D33</f>
         <v>CWPS</v>
       </c>
       <c r="C8" s="179">
@@ -13734,7 +13745,7 @@
         <v>1.329249002329046</v>
       </c>
       <c r="E8" s="54" t="str">
-        <f>COM_Commodities!E34</f>
+        <f>COM_Commodities!E33</f>
         <v>Commercial water heating demand - Public Services</v>
       </c>
       <c r="F8" s="75"/>
@@ -13798,7 +13809,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D11" s="127" t="s">
         <v>15</v>
@@ -15037,7 +15048,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="127" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D37" s="127" t="s">
         <v>15</v>
@@ -16432,7 +16443,7 @@
     </row>
     <row r="4" spans="3:22" s="16" customFormat="1" ht="15">
       <c r="C4" s="68" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H4" s="122" t="s">
         <v>236</v>
@@ -16603,7 +16614,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="127" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E11" s="127" t="s">
         <v>15</v>
@@ -17372,7 +17383,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="127" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E28" s="127" t="s">
         <v>15</v>
@@ -18403,7 +18414,7 @@
     </row>
     <row r="4" spans="2:26" s="16" customFormat="1" ht="15">
       <c r="C4" s="68" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H4" s="122" t="s">
         <v>236</v>
@@ -18475,7 +18486,7 @@
     </row>
     <row r="7" spans="2:26" s="16" customFormat="1" ht="15">
       <c r="C7" s="54" t="str">
-        <f>COM_Commodities!D35</f>
+        <f>COM_Commodities!D34</f>
         <v>CLIG</v>
       </c>
       <c r="D7" s="179">
@@ -18487,7 +18498,7 @@
         <v>22.658222246043156</v>
       </c>
       <c r="F7" s="54" t="str">
-        <f>COM_Commodities!E35</f>
+        <f>COM_Commodities!E34</f>
         <v>Commercial Lighting Demand</v>
       </c>
       <c r="H7" s="75"/>
@@ -18505,7 +18516,7 @@
     </row>
     <row r="8" spans="2:26" s="16" customFormat="1" ht="15">
       <c r="C8" s="54" t="str">
-        <f>COM_Commodities!D36</f>
+        <f>COM_Commodities!D35</f>
         <v>CCOK</v>
       </c>
       <c r="D8" s="179">
@@ -18517,7 +18528,7 @@
         <v>1.0121675156415757</v>
       </c>
       <c r="F8" s="54" t="str">
-        <f>COM_Commodities!E36</f>
+        <f>COM_Commodities!E35</f>
         <v>Commercial Cooking Demand</v>
       </c>
       <c r="H8" s="75"/>
@@ -18535,7 +18546,7 @@
     </row>
     <row r="9" spans="2:26" s="16" customFormat="1" ht="15">
       <c r="C9" s="54" t="str">
-        <f>COM_Commodities!D37</f>
+        <f>COM_Commodities!D36</f>
         <v>CREF</v>
       </c>
       <c r="D9" s="179">
@@ -18547,7 +18558,7 @@
         <v>1.6336225870664629</v>
       </c>
       <c r="F9" s="54" t="str">
-        <f>COM_Commodities!E37</f>
+        <f>COM_Commodities!E36</f>
         <v>Commercial Refrigeration Demand</v>
       </c>
       <c r="H9" s="75"/>
@@ -18565,7 +18576,7 @@
     </row>
     <row r="10" spans="2:26" s="16" customFormat="1" ht="15">
       <c r="C10" s="54" t="str">
-        <f>COM_Commodities!D38</f>
+        <f>COM_Commodities!D37</f>
         <v>CPLI</v>
       </c>
       <c r="D10" s="179">
@@ -18577,7 +18588,7 @@
         <v>0.62101142059626446</v>
       </c>
       <c r="F10" s="54" t="str">
-        <f>COM_Commodities!E38</f>
+        <f>COM_Commodities!E37</f>
         <v>Commercial Public Lighting Demand</v>
       </c>
       <c r="H10" s="75"/>
@@ -18595,7 +18606,7 @@
     </row>
     <row r="11" spans="2:26" s="16" customFormat="1" ht="15">
       <c r="C11" s="54" t="str">
-        <f>COM_Commodities!D39</f>
+        <f>COM_Commodities!D38</f>
         <v>COEL</v>
       </c>
       <c r="D11" s="179">
@@ -18607,7 +18618,7 @@
         <v>10.11467485929367</v>
       </c>
       <c r="F11" s="54" t="str">
-        <f>COM_Commodities!E39</f>
+        <f>COM_Commodities!E38</f>
         <v>Commercial Other Electric Demand</v>
       </c>
       <c r="H11" s="75"/>
@@ -18667,7 +18678,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="189" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E14" s="189" t="s">
         <v>15</v>
@@ -19162,7 +19173,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="189" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E25" s="189" t="s">
         <v>15</v>
@@ -19790,7 +19801,7 @@
         <v>22</v>
       </c>
       <c r="D40" s="189" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E40" s="189" t="s">
         <v>15</v>
@@ -20145,7 +20156,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="189" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E50" s="189" t="s">
         <v>15</v>
@@ -20380,7 +20391,7 @@
         <v>22</v>
       </c>
       <c r="D58" s="189" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E58" s="189" t="s">
         <v>15</v>
@@ -20946,7 +20957,7 @@
     </row>
     <row r="7" spans="2:16" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="B7" s="793" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C7" s="184" t="s">
         <v>15</v>
@@ -20964,7 +20975,7 @@
         <v>246</v>
       </c>
       <c r="H7" s="778" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I7" s="185" t="s">
         <v>81</v>
@@ -20982,10 +20993,10 @@
         <v>110</v>
       </c>
       <c r="N7" s="69"/>
-      <c r="O7" s="800" t="s">
+      <c r="O7" s="803" t="s">
         <v>237</v>
       </c>
-      <c r="P7" s="800"/>
+      <c r="P7" s="803"/>
     </row>
     <row r="8" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B8" s="186" t="s">
@@ -21898,12 +21909,12 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="444"/>
-      <c r="C53" s="801" t="s">
+      <c r="C53" s="804" t="s">
         <v>492</v>
       </c>
-      <c r="D53" s="802"/>
-      <c r="E53" s="802"/>
-      <c r="F53" s="803"/>
+      <c r="D53" s="805"/>
+      <c r="E53" s="805"/>
+      <c r="F53" s="806"/>
       <c r="G53" s="444"/>
     </row>
     <row r="54" spans="2:7" ht="12.75">
@@ -21924,12 +21935,12 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="444"/>
-      <c r="C56" s="804">
+      <c r="C56" s="807">
         <v>42703</v>
       </c>
-      <c r="D56" s="805"/>
-      <c r="E56" s="805"/>
-      <c r="F56" s="806"/>
+      <c r="D56" s="808"/>
+      <c r="E56" s="808"/>
+      <c r="F56" s="809"/>
       <c r="G56" s="444"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" thickBot="1">
@@ -22000,15 +22011,15 @@
         <v>510</v>
       </c>
       <c r="C2" s="764" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15">
       <c r="C5" s="481" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H5" s="481" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15">
@@ -22086,7 +22097,7 @@
     </row>
     <row r="9" spans="2:10" ht="15">
       <c r="C9" s="760" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D9" s="483">
         <v>496</v>
@@ -22216,7 +22227,7 @@
     </row>
     <row r="14" spans="2:10" ht="15">
       <c r="C14" s="760" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D14" s="483">
         <v>347</v>
@@ -22328,7 +22339,7 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="487" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D23" s="482" t="s">
         <v>523</v>
@@ -22337,7 +22348,7 @@
         <v>63</v>
       </c>
       <c r="H23" s="487" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I23" s="482" t="s">
         <v>523</v>
@@ -22468,7 +22479,7 @@
         <v>8.1657525898842176E-2</v>
       </c>
       <c r="H29" s="763" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I29" s="482">
         <v>50</v>
@@ -22480,7 +22491,7 @@
     </row>
     <row r="30" spans="3:10" ht="15">
       <c r="C30" s="763" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D30" s="482">
         <v>356</v>
@@ -22534,7 +22545,7 @@
         <v>2.9859841560024376E-2</v>
       </c>
       <c r="H32" s="763" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I32" s="482">
         <v>3</v>
@@ -22839,30 +22850,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="807" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1" s="807"/>
-      <c r="C1" s="807"/>
-      <c r="D1" s="807"/>
-      <c r="E1" s="807"/>
-      <c r="F1" s="807"/>
-      <c r="G1" s="807"/>
-      <c r="H1" s="807"/>
-      <c r="I1" s="807"/>
-      <c r="J1" s="807"/>
-      <c r="K1" s="807"/>
-      <c r="L1" s="808"/>
-      <c r="M1" s="808"/>
-      <c r="N1" s="808"/>
-      <c r="O1" s="808"/>
+      <c r="A1" s="810" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="810"/>
+      <c r="C1" s="810"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="811"/>
+      <c r="M1" s="811"/>
+      <c r="N1" s="811"/>
+      <c r="O1" s="811"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="457" t="s">
         <v>490</v>
       </c>
       <c r="B2" s="470" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C2" s="457"/>
       <c r="D2" s="457"/>
@@ -24449,23 +24460,23 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="A37" s="809" t="s">
+      <c r="A37" s="812" t="s">
         <v>489</v>
       </c>
-      <c r="B37" s="809"/>
-      <c r="C37" s="809"/>
-      <c r="D37" s="809"/>
-      <c r="E37" s="809"/>
-      <c r="F37" s="809"/>
-      <c r="G37" s="809"/>
-      <c r="H37" s="809"/>
-      <c r="I37" s="809"/>
-      <c r="J37" s="809"/>
-      <c r="K37" s="809"/>
-      <c r="L37" s="809"/>
-      <c r="M37" s="809"/>
-      <c r="N37" s="809"/>
-      <c r="O37" s="809"/>
+      <c r="B37" s="812"/>
+      <c r="C37" s="812"/>
+      <c r="D37" s="812"/>
+      <c r="E37" s="812"/>
+      <c r="F37" s="812"/>
+      <c r="G37" s="812"/>
+      <c r="H37" s="812"/>
+      <c r="I37" s="812"/>
+      <c r="J37" s="812"/>
+      <c r="K37" s="812"/>
+      <c r="L37" s="812"/>
+      <c r="M37" s="812"/>
+      <c r="N37" s="812"/>
+      <c r="O37" s="812"/>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="B40" s="463"/>
@@ -24892,13 +24903,13 @@
     </row>
     <row r="5" spans="1:30" ht="15">
       <c r="A5" s="479" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C5" s="783" t="s">
         <v>262</v>
       </c>
       <c r="D5" s="783" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E5" s="782" t="str">
         <f>A11</f>
@@ -25007,7 +25018,7 @@
     </row>
     <row r="6" spans="1:30" ht="15">
       <c r="A6" s="479" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C6" s="782" t="str">
         <f>C5</f>
@@ -25124,7 +25135,7 @@
     </row>
     <row r="7" spans="1:30" ht="15">
       <c r="A7" s="479" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C7" s="782" t="str">
         <f>"*"&amp;C5</f>
@@ -25241,15 +25252,15 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="784" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B10" s="784" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="785" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B11" s="785" t="s">
         <v>456</v>
@@ -25257,7 +25268,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="786" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B12" s="786" t="s">
         <v>485</v>
@@ -25265,7 +25276,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="786" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B13" s="786" t="s">
         <v>469</v>
@@ -25273,15 +25284,15 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="786" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B14" s="786" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="786" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B15" s="786" t="s">
         <v>486</v>
@@ -25289,23 +25300,23 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="786" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B16" s="786" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="786" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B17" s="786" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="786" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B18" s="786" t="s">
         <v>473</v>
@@ -25313,7 +25324,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="786" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B19" s="786" t="s">
         <v>459</v>
@@ -25321,7 +25332,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="786" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B20" s="786" t="s">
         <v>460</v>
@@ -25329,7 +25340,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="786" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B21" s="786" t="s">
         <v>461</v>
@@ -25337,7 +25348,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="786" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B22" s="786" t="s">
         <v>481</v>
@@ -25345,15 +25356,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="786" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B23" s="786" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="786" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B24" s="786" t="s">
         <v>462</v>
@@ -25361,7 +25372,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="786" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B25" s="786" t="s">
         <v>463</v>
@@ -25369,7 +25380,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="786" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B26" s="786" t="s">
         <v>482</v>
@@ -25377,7 +25388,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="786" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B27" s="786" t="s">
         <v>464</v>
@@ -25385,7 +25396,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="786" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B28" s="786" t="s">
         <v>487</v>
@@ -25393,7 +25404,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="786" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B29" s="786" t="s">
         <v>465</v>
@@ -25401,7 +25412,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="786" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B30" s="786" t="s">
         <v>483</v>
@@ -25409,7 +25420,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="786" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B31" s="786" t="s">
         <v>484</v>
@@ -25417,7 +25428,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="786" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B32" s="786" t="s">
         <v>476</v>
@@ -25425,15 +25436,15 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="786" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B33" s="786" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="786" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B34" s="786" t="s">
         <v>466</v>
@@ -25441,7 +25452,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="786" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B35" s="786" t="s">
         <v>467</v>
@@ -25449,7 +25460,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="786" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B36" s="786" t="s">
         <v>468</v>
@@ -25457,7 +25468,7 @@
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="787" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -25553,7 +25564,7 @@
   <sheetData>
     <row r="1" spans="1:41" s="238" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
       <c r="A1" s="228" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B1" s="229" t="s">
         <v>263</v>
@@ -31112,7 +31123,7 @@
     </row>
     <row r="65" spans="1:39" ht="12.75" customHeight="1">
       <c r="A65" s="748" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B65" s="320"/>
       <c r="C65" s="321"/>
@@ -31155,7 +31166,7 @@
     </row>
     <row r="66" spans="1:39" ht="12.75" customHeight="1">
       <c r="A66" s="749" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B66" s="325"/>
       <c r="C66" s="321"/>
@@ -31198,7 +31209,7 @@
     </row>
     <row r="67" spans="1:39" ht="12.75" customHeight="1">
       <c r="A67" s="750" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B67" s="326"/>
       <c r="C67" s="321"/>
@@ -31241,7 +31252,7 @@
     </row>
     <row r="68" spans="1:39" ht="12.75" customHeight="1">
       <c r="A68" s="751" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B68" s="326"/>
       <c r="C68" s="321"/>
@@ -31892,7 +31903,7 @@
     </row>
     <row r="16" spans="2:65" ht="18.75">
       <c r="B16" s="384" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C16" s="391"/>
       <c r="D16" s="391"/>
@@ -32288,11 +32299,11 @@
     </row>
     <row r="33" spans="2:21" s="365" customFormat="1" ht="12.75" customHeight="1">
       <c r="B33" s="379" t="str">
-        <f>COM_Commodities!E29</f>
+        <f>COM_Commodities!E28</f>
         <v>Commercial space heat  demand - Commercial Services</v>
       </c>
       <c r="C33" s="378" t="str">
-        <f>COM_Commodities!D29</f>
+        <f>COM_Commodities!D28</f>
         <v>CHCS</v>
       </c>
       <c r="D33" s="364">
@@ -32343,11 +32354,11 @@
     </row>
     <row r="34" spans="2:21" s="365" customFormat="1" ht="12.75" customHeight="1">
       <c r="B34" s="379" t="str">
-        <f>COM_Commodities!E30</f>
+        <f>COM_Commodities!E29</f>
         <v>Commercial space heat demand - Public Services</v>
       </c>
       <c r="C34" s="378" t="str">
-        <f>COM_Commodities!D30</f>
+        <f>COM_Commodities!D29</f>
         <v>CHPS</v>
       </c>
       <c r="D34" s="364">
@@ -32456,11 +32467,11 @@
     </row>
     <row r="36" spans="2:21" s="365" customFormat="1" ht="12.75" customHeight="1">
       <c r="B36" s="379" t="str">
-        <f>COM_Commodities!E31</f>
+        <f>COM_Commodities!E30</f>
         <v>Commercial space cooling demand - Commercial Services</v>
       </c>
       <c r="C36" s="378" t="str">
-        <f>COM_Commodities!D31</f>
+        <f>COM_Commodities!D30</f>
         <v>CCCS</v>
       </c>
       <c r="D36" s="364">
@@ -32512,11 +32523,11 @@
     </row>
     <row r="37" spans="2:21" s="365" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37" s="379" t="str">
-        <f>COM_Commodities!E32</f>
+        <f>COM_Commodities!E31</f>
         <v>Commercial space cooling demand - Public Services</v>
       </c>
       <c r="C37" s="378" t="str">
-        <f>COM_Commodities!D32</f>
+        <f>COM_Commodities!D31</f>
         <v>CCPS</v>
       </c>
       <c r="D37" s="364">
@@ -32624,11 +32635,11 @@
     </row>
     <row r="39" spans="2:21">
       <c r="B39" s="379" t="str">
-        <f>COM_Commodities!E33</f>
+        <f>COM_Commodities!E32</f>
         <v>Commercial water heating demand - Commercial Services</v>
       </c>
       <c r="C39" s="378" t="str">
-        <f>COM_Commodities!D33</f>
+        <f>COM_Commodities!D32</f>
         <v>CWCS</v>
       </c>
       <c r="D39" s="364">
@@ -32678,11 +32689,11 @@
     </row>
     <row r="40" spans="2:21">
       <c r="B40" s="379" t="str">
-        <f>COM_Commodities!E34</f>
+        <f>COM_Commodities!E33</f>
         <v>Commercial water heating demand - Public Services</v>
       </c>
       <c r="C40" s="378" t="str">
-        <f>COM_Commodities!D34</f>
+        <f>COM_Commodities!D33</f>
         <v>CWPS</v>
       </c>
       <c r="D40" s="364">
@@ -32786,11 +32797,11 @@
     </row>
     <row r="42" spans="2:21">
       <c r="B42" s="372" t="str">
-        <f>COM_Commodities!E35</f>
+        <f>COM_Commodities!E34</f>
         <v>Commercial Lighting Demand</v>
       </c>
       <c r="C42" s="372" t="str">
-        <f>COM_Commodities!D35</f>
+        <f>COM_Commodities!D34</f>
         <v>CLIG</v>
       </c>
       <c r="D42" s="364">
@@ -32840,11 +32851,11 @@
     </row>
     <row r="43" spans="2:21">
       <c r="B43" s="372" t="str">
-        <f>COM_Commodities!E36</f>
+        <f>COM_Commodities!E35</f>
         <v>Commercial Cooking Demand</v>
       </c>
       <c r="C43" s="372" t="str">
-        <f>COM_Commodities!D36</f>
+        <f>COM_Commodities!D35</f>
         <v>CCOK</v>
       </c>
       <c r="D43" s="364">
@@ -32894,11 +32905,11 @@
     </row>
     <row r="44" spans="2:21">
       <c r="B44" s="372" t="str">
-        <f>COM_Commodities!E37</f>
+        <f>COM_Commodities!E36</f>
         <v>Commercial Refrigeration Demand</v>
       </c>
       <c r="C44" s="372" t="str">
-        <f>COM_Commodities!D37</f>
+        <f>COM_Commodities!D36</f>
         <v>CREF</v>
       </c>
       <c r="D44" s="364"/>
@@ -32920,11 +32931,11 @@
     </row>
     <row r="45" spans="2:21">
       <c r="B45" s="372" t="str">
-        <f>COM_Commodities!E38</f>
+        <f>COM_Commodities!E37</f>
         <v>Commercial Public Lighting Demand</v>
       </c>
       <c r="C45" s="372" t="str">
-        <f>COM_Commodities!D38</f>
+        <f>COM_Commodities!D37</f>
         <v>CPLI</v>
       </c>
       <c r="D45" s="364"/>
@@ -32946,11 +32957,11 @@
     </row>
     <row r="46" spans="2:21">
       <c r="B46" s="372" t="str">
-        <f>COM_Commodities!E39</f>
+        <f>COM_Commodities!E38</f>
         <v>Commercial Other Electric Demand</v>
       </c>
       <c r="C46" s="372" t="str">
-        <f>COM_Commodities!D39</f>
+        <f>COM_Commodities!D38</f>
         <v>COEL</v>
       </c>
       <c r="D46" s="364"/>
@@ -32972,11 +32983,11 @@
     </row>
     <row r="47" spans="2:21">
       <c r="B47" s="372" t="str">
-        <f>COM_Commodities!E40</f>
+        <f>COM_Commodities!E39</f>
         <v>Commercial Other Energy Demand</v>
       </c>
       <c r="C47" s="372" t="str">
-        <f>COM_Commodities!D40</f>
+        <f>COM_Commodities!D39</f>
         <v>COEN</v>
       </c>
       <c r="D47" s="364"/>
@@ -33315,7 +33326,7 @@
     </row>
     <row r="68" spans="2:9" ht="18.75">
       <c r="B68" s="361" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C68" s="362"/>
       <c r="D68" s="362"/>
@@ -33330,7 +33341,7 @@
         <v>95</v>
       </c>
       <c r="D69" s="351" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E69" s="464"/>
     </row>
@@ -33389,10 +33400,10 @@
   <sheetPr codeName="Sheet14">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:K40"/>
+  <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -33445,7 +33456,7 @@
         <v>76</v>
       </c>
       <c r="C4" s="788" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>17</v>
@@ -33474,7 +33485,7 @@
         <v>170</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>171</v>
@@ -33823,11 +33834,11 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D21" s="579" t="s">
+      <c r="D21" s="796" t="s">
+        <v>615</v>
+      </c>
+      <c r="E21" s="579" t="s">
         <v>550</v>
-      </c>
-      <c r="E21" s="579" t="s">
-        <v>551</v>
       </c>
       <c r="F21" s="226" t="s">
         <v>10</v>
@@ -33838,46 +33849,46 @@
       <c r="J21" s="29"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="26"/>
-      <c r="C22" s="29" t="str">
+      <c r="B22" s="404" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="789" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D22" s="579" t="s">
-        <v>552</v>
-      </c>
-      <c r="E22" s="579" t="s">
-        <v>553</v>
-      </c>
-      <c r="F22" s="226" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="226"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="D22" s="405" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="406" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="405" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="405"/>
+      <c r="H22" s="405"/>
+      <c r="I22" s="405"/>
+      <c r="J22" s="405"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="404" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="789" t="str">
+      <c r="B23" s="26"/>
+      <c r="C23" s="29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D23" s="405" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="406" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="405" t="s">
+      <c r="D23" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="405"/>
-      <c r="H23" s="405"/>
-      <c r="I23" s="405"/>
-      <c r="J23" s="405"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="26"/>
@@ -33886,10 +33897,10 @@
         <v>IE,National</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>55</v>
@@ -33906,10 +33917,10 @@
         <v>IE,National</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>55</v>
@@ -33926,10 +33937,10 @@
         <v>IE,National</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>55</v>
@@ -33940,184 +33951,184 @@
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="26"/>
-      <c r="C27" s="29" t="str">
+      <c r="B27" s="30"/>
+      <c r="C27" s="24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="F27" s="29" t="s">
+      <c r="D27" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="30"/>
-      <c r="C28" s="24" t="str">
+      <c r="B28" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="D28" s="32" t="str">
+        <f>"CH"&amp;COM_Balance!$R$11</f>
+        <v>CHCS</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="29" t="str">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D29" s="32" t="str">
-        <f>"CH"&amp;COM_Balance!$R$11</f>
-        <v>CHCS</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="F29" s="29" t="s">
+      <c r="D29" s="31" t="str">
+        <f>"CH"&amp;COM_Balance!$R$12</f>
+        <v>CHPS</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23" t="str">
+      <c r="B30" s="26"/>
+      <c r="C30" s="29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D30" s="31" t="str">
-        <f>"CH"&amp;COM_Balance!$R$12</f>
-        <v>CHPS</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="F30" s="24" t="s">
+      <c r="D30" s="32" t="str">
+        <f>"CC"&amp;COM_Balance!$R$11</f>
+        <v>CCCS</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="26"/>
-      <c r="C31" s="29" t="str">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D31" s="32" t="str">
-        <f>"CC"&amp;COM_Balance!$R$11</f>
-        <v>CCCS</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="F31" s="29" t="s">
+      <c r="D31" s="31" t="str">
+        <f>"CC"&amp;COM_Balance!$R$12</f>
+        <v>CCPS</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="str">
+      <c r="B32" s="26"/>
+      <c r="C32" s="29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D32" s="31" t="str">
-        <f>"CC"&amp;COM_Balance!$R$12</f>
-        <v>CCPS</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="F32" s="24" t="s">
+      <c r="D32" s="32" t="str">
+        <f>"CW"&amp;COM_Balance!$R$11</f>
+        <v>CWCS</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="26"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D33" s="32" t="str">
-        <f>"CW"&amp;COM_Balance!$R$11</f>
-        <v>CWCS</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="F33" s="29" t="s">
+      <c r="D33" s="31" t="str">
+        <f>"CW"&amp;COM_Balance!$R$12</f>
+        <v>CWPS</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="29"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D34" s="31" t="str">
-        <f>"CW"&amp;COM_Balance!$R$12</f>
-        <v>CWPS</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="F34" s="24" t="s">
+      <c r="D34" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="26"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>10</v>
@@ -34134,10 +34145,10 @@
         <v>IE,National</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>10</v>
@@ -34154,10 +34165,10 @@
         <v>IE,National</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>10</v>
@@ -34173,11 +34184,11 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D38" s="32" t="s">
-        <v>60</v>
+      <c r="D38" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>10</v>
@@ -34194,10 +34205,10 @@
         <v>IE,National</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>10</v>
@@ -34206,26 +34217,6 @@
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -34241,12 +34232,12 @@
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:J99"/>
+  <dimension ref="B2:J100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O44" sqref="O44"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -34296,7 +34287,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="788" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>15</v>
@@ -34325,7 +34316,7 @@
         <v>161</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>162</v>
@@ -36600,12 +36591,12 @@
         <v>IE,National</v>
       </c>
       <c r="D98" s="54" t="str">
-        <f>COM_FuelTechs!C44</f>
-        <v>COMH2G_INF</v>
+        <f>COM_FuelTechs!C16</f>
+        <v>COMAMB_INF</v>
       </c>
       <c r="E98" s="54" t="str">
-        <f>COM_FuelTechs!D44</f>
-        <v>Fuel Tech - Hydrogen gaseous (COM)</v>
+        <f>COM_FuelTechs!D16</f>
+        <v>Fuel Tech - Ambient Heat (COM)</v>
       </c>
       <c r="F98" s="57" t="s">
         <v>10</v>
@@ -36624,12 +36615,12 @@
         <v>IE,National</v>
       </c>
       <c r="D99" s="54" t="str">
-        <f>COM_FuelTechs!C45</f>
-        <v>COMH2L_INF</v>
+        <f>COM_FuelTechs!C44</f>
+        <v>COMH2G_INF</v>
       </c>
       <c r="E99" s="54" t="str">
-        <f>COM_FuelTechs!D45</f>
-        <v>Fuel Tech - Hydrogen liquid (COM)</v>
+        <f>COM_FuelTechs!D44</f>
+        <v>Fuel Tech - Hydrogen gaseous (COM)</v>
       </c>
       <c r="F99" s="57" t="s">
         <v>10</v>
@@ -36641,8 +36632,32 @@
       <c r="I99" s="54"/>
       <c r="J99" s="54"/>
     </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="54"/>
+      <c r="C100" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D100" s="54" t="str">
+        <f>COM_FuelTechs!C45</f>
+        <v>COMH2L_INF</v>
+      </c>
+      <c r="E100" s="54" t="str">
+        <f>COM_FuelTechs!D45</f>
+        <v>Fuel Tech - Hydrogen liquid (COM)</v>
+      </c>
+      <c r="F100" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="H100" s="54"/>
+      <c r="I100" s="54"/>
+      <c r="J100" s="54"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -36656,8 +36671,8 @@
   </sheetPr>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -36701,7 +36716,7 @@
     </row>
     <row r="4" spans="2:15" ht="26.25" customHeight="1" thickBot="1">
       <c r="B4" s="510" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C4" s="510" t="s">
         <v>15</v>
@@ -36722,10 +36737,10 @@
         <v>208</v>
       </c>
       <c r="I4" s="778" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J4" s="753" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K4" s="512" t="s">
         <v>212</v>
@@ -36748,7 +36763,7 @@
       <c r="G5" s="514"/>
       <c r="H5" s="514"/>
       <c r="I5" s="780" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J5" s="514" t="s">
         <v>389</v>
@@ -36917,7 +36932,7 @@
         <v>IE,National</v>
       </c>
       <c r="C11" s="531" t="str">
-        <f>CONCATENATE(F11,"_INF")</f>
+        <f t="shared" ref="C11:C16" si="0">CONCATENATE(F11,"_INF")</f>
         <v>COMGAS_INF</v>
       </c>
       <c r="D11" s="531" t="s">
@@ -36953,7 +36968,7 @@
         <v>IE,National</v>
       </c>
       <c r="C12" s="531" t="str">
-        <f>CONCATENATE(F12,"_INF")</f>
+        <f t="shared" si="0"/>
         <v>COMBIO_INF</v>
       </c>
       <c r="D12" s="531" t="s">
@@ -36989,7 +37004,7 @@
         <v>IE,National</v>
       </c>
       <c r="C13" s="531" t="str">
-        <f>CONCATENATE(F13,"_INF")</f>
+        <f t="shared" si="0"/>
         <v>COMBGS_INF</v>
       </c>
       <c r="D13" s="523" t="s">
@@ -37025,7 +37040,7 @@
         <v>IE,National</v>
       </c>
       <c r="C14" s="531" t="str">
-        <f>CONCATENATE(F14,"_INF")</f>
+        <f t="shared" si="0"/>
         <v>COMSOL_INF</v>
       </c>
       <c r="D14" s="531" t="s">
@@ -37061,7 +37076,7 @@
         <v>IE,National</v>
       </c>
       <c r="C15" s="531" t="str">
-        <f>CONCATENATE(F15,"_INF")</f>
+        <f t="shared" si="0"/>
         <v>COMGEO_INF</v>
       </c>
       <c r="D15" s="520" t="s">
@@ -37089,12 +37104,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="C16" s="528"/>
-      <c r="D16" s="534"/>
-      <c r="E16" s="528"/>
-      <c r="F16" s="528"/>
-      <c r="G16" s="528"/>
+    <row r="16" spans="2:15" ht="30">
+      <c r="B16" s="531" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C16" s="531" t="str">
+        <f t="shared" si="0"/>
+        <v>COMAMB_INF</v>
+      </c>
+      <c r="D16" s="797" t="s">
+        <v>616</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>617</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="G16" s="521">
+        <v>1</v>
+      </c>
       <c r="H16" s="535"/>
     </row>
     <row r="17" spans="2:12">
@@ -37117,7 +37147,7 @@
     </row>
     <row r="19" spans="2:12" ht="25.5" customHeight="1" thickBot="1">
       <c r="B19" s="794" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C19" s="510" t="s">
         <v>15</v>
@@ -37237,7 +37267,7 @@
     </row>
     <row r="26" spans="2:12" ht="29.25" customHeight="1" thickBot="1">
       <c r="B26" s="794" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C26" s="510" t="s">
         <v>15</v>
@@ -37255,7 +37285,7 @@
         <v>81</v>
       </c>
       <c r="H26" s="753" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I26" s="511" t="s">
         <v>210</v>
@@ -37301,10 +37331,10 @@
         <v>COMHET_INF</v>
       </c>
       <c r="D28" s="583" t="s">
-        <v>554</v>
-      </c>
-      <c r="E28" s="810" t="s">
-        <v>617</v>
+        <v>551</v>
+      </c>
+      <c r="E28" s="795" t="s">
+        <v>614</v>
       </c>
       <c r="F28" s="518" t="str">
         <f>COM_Commodities!$D$14</f>
@@ -37367,7 +37397,7 @@
     </row>
     <row r="34" spans="2:19" ht="15.75" thickBot="1">
       <c r="B34" s="510" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C34" s="510" t="s">
         <v>15</v>
@@ -37567,7 +37597,7 @@
     </row>
     <row r="42" spans="2:19" ht="15.75" thickBot="1">
       <c r="B42" s="510" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C42" s="510" t="s">
         <v>15</v>
@@ -37585,7 +37615,7 @@
         <v>81</v>
       </c>
       <c r="H42" s="753" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I42" s="511" t="s">
         <v>210</v>
@@ -37947,7 +37977,7 @@
     </row>
     <row r="14" spans="2:20" ht="15.75" thickBot="1">
       <c r="B14" s="38" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>17</v>
@@ -37999,11 +38029,11 @@
     </row>
     <row r="16" spans="2:20" ht="15">
       <c r="B16" s="52" t="str">
-        <f>COM_Commodities!C23</f>
+        <f>COM_Commodities!C22</f>
         <v>IE,National</v>
       </c>
       <c r="C16" s="52" t="str">
-        <f>COM_Commodities!D23</f>
+        <f>COM_Commodities!D22</f>
         <v>COMCO2N</v>
       </c>
       <c r="D16" s="50">
@@ -38030,11 +38060,11 @@
     </row>
     <row r="17" spans="2:11" ht="15">
       <c r="B17" s="52" t="str">
-        <f>COM_Commodities!C24</f>
+        <f>COM_Commodities!C23</f>
         <v>IE,National</v>
       </c>
       <c r="C17" s="52" t="str">
-        <f>COM_Commodities!D24</f>
+        <f>COM_Commodities!D23</f>
         <v>COMCH4N</v>
       </c>
       <c r="D17" s="50"/>
@@ -38048,11 +38078,11 @@
     </row>
     <row r="18" spans="2:11" ht="15">
       <c r="B18" s="52" t="str">
-        <f>COM_Commodities!C25</f>
+        <f>COM_Commodities!C24</f>
         <v>IE,National</v>
       </c>
       <c r="C18" s="52" t="str">
-        <f>COM_Commodities!D25</f>
+        <f>COM_Commodities!D24</f>
         <v>COMSO2N</v>
       </c>
       <c r="D18" s="50"/>
@@ -38066,11 +38096,11 @@
     </row>
     <row r="19" spans="2:11" ht="15">
       <c r="B19" s="52" t="str">
-        <f>COM_Commodities!C26</f>
+        <f>COM_Commodities!C25</f>
         <v>IE,National</v>
       </c>
       <c r="C19" s="52" t="str">
-        <f>COM_Commodities!D26</f>
+        <f>COM_Commodities!D25</f>
         <v>COMNOXN</v>
       </c>
       <c r="D19" s="50"/>
@@ -38084,11 +38114,11 @@
     </row>
     <row r="20" spans="2:11" ht="15">
       <c r="B20" s="52" t="str">
-        <f>COM_Commodities!C27</f>
+        <f>COM_Commodities!C26</f>
         <v>IE,National</v>
       </c>
       <c r="C20" s="52" t="str">
-        <f>COM_Commodities!D27</f>
+        <f>COM_Commodities!D26</f>
         <v>COMPM10</v>
       </c>
       <c r="D20" s="50"/>
@@ -38102,11 +38132,11 @@
     </row>
     <row r="21" spans="2:11" ht="15">
       <c r="B21" s="52" t="str">
-        <f>COM_Commodities!C28</f>
+        <f>COM_Commodities!C27</f>
         <v>IE,National</v>
       </c>
       <c r="C21" s="52" t="str">
-        <f>COM_Commodities!D28</f>
+        <f>COM_Commodities!D27</f>
         <v>COMPM25</v>
       </c>
       <c r="D21" s="50"/>
@@ -38123,21 +38153,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -38283,24 +38298,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B7A5D60-A3DF-417A-ABA8-B7F5CA08C101}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38316,4 +38329,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_IE_COM.xlsx
+++ b/VT_IE_COM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C513E0E7-6F48-45F3-8DB3-8DA1D5173D61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD68287-F7B7-40D6-9444-5768F8D70622}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -25819,7 +25819,7 @@
   </sheetPr>
   <dimension ref="A1:AS81"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="65" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="65" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
@@ -36068,10 +36068,10 @@
   </sheetPr>
   <dimension ref="B2:J100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O44" sqref="O44"/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -38178,7 +38178,7 @@
       </c>
       <c r="D88" s="23" t="str">
         <f>COM_FuelTechs!C21</f>
-        <v>COMELC_INF</v>
+        <v>FT-COMELC</v>
       </c>
       <c r="E88" s="23" t="str">
         <f>COM_FuelTechs!D21</f>
@@ -38204,7 +38204,7 @@
       </c>
       <c r="D89" s="23" t="str">
         <f>COM_FuelTechs!C28</f>
-        <v>COMHET_INF</v>
+        <v>FT-COMHET</v>
       </c>
       <c r="E89" s="23" t="str">
         <f>COM_FuelTechs!D28</f>
@@ -38230,7 +38230,7 @@
       </c>
       <c r="D90" s="54" t="str">
         <f>COM_FuelTechs!C6</f>
-        <v>COMCOA_INF</v>
+        <v>FT-COMCOA</v>
       </c>
       <c r="E90" s="54" t="str">
         <f>COM_FuelTechs!D6</f>
@@ -38254,7 +38254,7 @@
       </c>
       <c r="D91" s="54" t="str">
         <f>COM_FuelTechs!C8</f>
-        <v>COMLPG_INF</v>
+        <v>FT-COMLPG</v>
       </c>
       <c r="E91" s="54" t="str">
         <f>COM_FuelTechs!D8</f>
@@ -38278,7 +38278,7 @@
       </c>
       <c r="D92" s="54" t="str">
         <f>COM_FuelTechs!C9</f>
-        <v>COMOIL_INF</v>
+        <v>FT-COMOIL</v>
       </c>
       <c r="E92" s="54" t="str">
         <f>COM_FuelTechs!D9</f>
@@ -38302,7 +38302,7 @@
       </c>
       <c r="D93" s="54" t="str">
         <f>COM_FuelTechs!C11</f>
-        <v>COMGAS_INF</v>
+        <v>FT-COMGAS</v>
       </c>
       <c r="E93" s="54" t="str">
         <f>COM_FuelTechs!D11</f>
@@ -38328,7 +38328,7 @@
       </c>
       <c r="D94" s="54" t="str">
         <f>COM_FuelTechs!C12</f>
-        <v>COMBIO_INF</v>
+        <v>FT-COMBIO</v>
       </c>
       <c r="E94" s="54" t="str">
         <f>COM_FuelTechs!D12</f>
@@ -38352,7 +38352,7 @@
       </c>
       <c r="D95" s="54" t="str">
         <f>COM_FuelTechs!C13</f>
-        <v>COMBGS_INF</v>
+        <v>FT-COMBGS</v>
       </c>
       <c r="E95" s="54" t="str">
         <f>COM_FuelTechs!D13</f>
@@ -38378,7 +38378,7 @@
       </c>
       <c r="D96" s="54" t="str">
         <f>COM_FuelTechs!C14</f>
-        <v>COMSOL_INF</v>
+        <v>FT-COMSOL</v>
       </c>
       <c r="E96" s="54" t="str">
         <f>COM_FuelTechs!D14</f>
@@ -38402,7 +38402,7 @@
       </c>
       <c r="D97" s="54" t="str">
         <f>COM_FuelTechs!C15</f>
-        <v>COMGEO_INF</v>
+        <v>FT-COMGEO</v>
       </c>
       <c r="E97" s="54" t="str">
         <f>COM_FuelTechs!D15</f>
@@ -38426,7 +38426,7 @@
       </c>
       <c r="D98" s="54" t="str">
         <f>COM_FuelTechs!C16</f>
-        <v>COMAMB_INF</v>
+        <v>FT-COMAMB</v>
       </c>
       <c r="E98" s="54" t="str">
         <f>COM_FuelTechs!D16</f>
@@ -38450,7 +38450,7 @@
       </c>
       <c r="D99" s="54" t="str">
         <f>COM_FuelTechs!C44</f>
-        <v>COMH2G_INF</v>
+        <v>FT-COMH2G</v>
       </c>
       <c r="E99" s="54" t="str">
         <f>COM_FuelTechs!D44</f>
@@ -38474,7 +38474,7 @@
       </c>
       <c r="D100" s="54" t="str">
         <f>COM_FuelTechs!C45</f>
-        <v>COMH2L_INF</v>
+        <v>FT-COMH2L</v>
       </c>
       <c r="E100" s="54" t="str">
         <f>COM_FuelTechs!D45</f>
@@ -38505,8 +38505,8 @@
   </sheetPr>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -38618,8 +38618,8 @@
         <v>IE,National</v>
       </c>
       <c r="C6" s="415" t="str">
-        <f>CONCATENATE(F6,"_INF")</f>
-        <v>COMCOA_INF</v>
+        <f t="shared" ref="C6:C16" si="0">_xlfn.TEXTJOIN("-",TRUE,"FT",F6)</f>
+        <v>FT-COMCOA</v>
       </c>
       <c r="D6" s="415" t="s">
         <v>202</v>
@@ -38673,8 +38673,8 @@
         <v>IE,National</v>
       </c>
       <c r="C8" s="419" t="str">
-        <f>CONCATENATE(F8,"_INF")</f>
-        <v>COMLPG_INF</v>
+        <f t="shared" si="0"/>
+        <v>FT-COMLPG</v>
       </c>
       <c r="D8" s="419" t="s">
         <v>203</v>
@@ -38707,8 +38707,8 @@
         <v>IE,National</v>
       </c>
       <c r="C9" s="423" t="str">
-        <f>CONCATENATE(F9,"_INF")</f>
-        <v>COMOIL_INF</v>
+        <f t="shared" si="0"/>
+        <v>FT-COMOIL</v>
       </c>
       <c r="D9" s="423" t="s">
         <v>204</v>
@@ -38766,8 +38766,8 @@
         <v>IE,National</v>
       </c>
       <c r="C11" s="430" t="str">
-        <f t="shared" ref="C11:C16" si="0">CONCATENATE(F11,"_INF")</f>
-        <v>COMGAS_INF</v>
+        <f t="shared" si="0"/>
+        <v>FT-COMGAS</v>
       </c>
       <c r="D11" s="430" t="s">
         <v>395</v>
@@ -38803,7 +38803,7 @@
       </c>
       <c r="C12" s="430" t="str">
         <f t="shared" si="0"/>
-        <v>COMBIO_INF</v>
+        <v>FT-COMBIO</v>
       </c>
       <c r="D12" s="430" t="s">
         <v>205</v>
@@ -38839,7 +38839,7 @@
       </c>
       <c r="C13" s="430" t="str">
         <f t="shared" si="0"/>
-        <v>COMBGS_INF</v>
+        <v>FT-COMBGS</v>
       </c>
       <c r="D13" s="422" t="s">
         <v>382</v>
@@ -38875,7 +38875,7 @@
       </c>
       <c r="C14" s="430" t="str">
         <f t="shared" si="0"/>
-        <v>COMSOL_INF</v>
+        <v>FT-COMSOL</v>
       </c>
       <c r="D14" s="430" t="s">
         <v>206</v>
@@ -38911,7 +38911,7 @@
       </c>
       <c r="C15" s="430" t="str">
         <f t="shared" si="0"/>
-        <v>COMGEO_INF</v>
+        <v>FT-COMGEO</v>
       </c>
       <c r="D15" s="419" t="s">
         <v>207</v>
@@ -38938,14 +38938,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="30">
+    <row r="16" spans="2:15">
       <c r="B16" s="430" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
       <c r="C16" s="430" t="str">
         <f t="shared" si="0"/>
-        <v>COMAMB_INF</v>
+        <v>FT-COMAMB</v>
       </c>
       <c r="D16" s="531" t="s">
         <v>606</v>
@@ -39034,9 +39034,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="C21" s="416" t="str">
-        <f>CONCATENATE(F21,"_INF")</f>
-        <v>COMELC_INF</v>
+      <c r="C21" s="415" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",F21)</f>
+        <v>FT-COMELC</v>
       </c>
       <c r="D21" s="415" t="s">
         <v>51</v>
@@ -39160,9 +39160,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="C28" s="417" t="str">
-        <f>CONCATENATE(F28,"_INF")</f>
-        <v>COMHET_INF</v>
+      <c r="C28" s="415" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",F28)</f>
+        <v>FT-COMHET</v>
       </c>
       <c r="D28" s="482" t="s">
         <v>543</v>
@@ -39315,8 +39315,8 @@
         <v>IE,National</v>
       </c>
       <c r="C36" s="443" t="str">
-        <f>CONCATENATE(F38,"_INF")</f>
-        <v>COMCOO_INF</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",F38)</f>
+        <v>FT-COMCOO</v>
       </c>
       <c r="D36" s="444" t="s">
         <v>107</v>
@@ -39490,9 +39490,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="C44" s="417" t="str">
-        <f>CONCATENATE(F44,"_INF")</f>
-        <v>COMH2G_INF</v>
+      <c r="C44" s="415" t="str">
+        <f t="shared" ref="C44:C45" si="1">_xlfn.TEXTJOIN("-",TRUE,"FT",F44)</f>
+        <v>FT-COMH2G</v>
       </c>
       <c r="D44" s="482" t="s">
         <v>539</v>
@@ -39520,8 +39520,8 @@
         <v>IE,National</v>
       </c>
       <c r="C45" s="417" t="str">
-        <f>CONCATENATE(F45,"_INF")</f>
-        <v>COMH2L_INF</v>
+        <f t="shared" si="1"/>
+        <v>FT-COMH2L</v>
       </c>
       <c r="D45" s="482" t="s">
         <v>540</v>
@@ -40133,18 +40133,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40166,18 +40166,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_IE_COM.xlsx
+++ b/VT_IE_COM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GDrive\PhD\Veda_2\IrishTimes_GIT\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C513E0E7-6F48-45F3-8DB3-8DA1D5173D61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFAFAE3-1B6E-45D8-AF28-FC5FE3C51735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="891" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="COM_EmiCoeffs" sheetId="21" r:id="rId9"/>
     <sheet name="COM_CH" sheetId="7" r:id="rId10"/>
     <sheet name="COM_CW" sheetId="9" r:id="rId11"/>
-    <sheet name="COM_CC" sheetId="8" r:id="rId12"/>
-    <sheet name="COM_COth" sheetId="10" r:id="rId13"/>
-    <sheet name="COM_PV" sheetId="27" r:id="rId14"/>
-    <sheet name="Commercial SEAI" sheetId="34" r:id="rId15"/>
-    <sheet name="Public SEAI" sheetId="38" r:id="rId16"/>
-    <sheet name="CSO data" sheetId="37" r:id="rId17"/>
-    <sheet name="Public BOC" sheetId="39" r:id="rId18"/>
+    <sheet name="COM_COth" sheetId="10" r:id="rId12"/>
+    <sheet name="COM_CC" sheetId="8" r:id="rId13"/>
+    <sheet name="COM_DC" sheetId="41" r:id="rId14"/>
+    <sheet name="COM_PV" sheetId="27" r:id="rId15"/>
+    <sheet name="Commercial SEAI" sheetId="34" r:id="rId16"/>
+    <sheet name="Public SEAI" sheetId="38" r:id="rId17"/>
+    <sheet name="CSO data" sheetId="37" r:id="rId18"/>
+    <sheet name="Public BOC" sheetId="39" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -50,18 +51,8 @@
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <fileRecoveryPr autoRecover="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1462,40 +1453,6 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Marco Orsini</author>
-  </authors>
-  <commentList>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Marco Orsini:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-hypotheses TIMES BE, à revoir?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>Alessandro Chiodi</author>
     <author>Marco Orsini</author>
   </authors>
@@ -1648,15 +1605,49 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Marco Orsini</author>
+  </authors>
+  <commentList>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marco Orsini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hypotheses TIMES BE, à revoir?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1671,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="646">
   <si>
     <t>ELC</t>
   </si>
@@ -3631,29 +3622,48 @@
   <si>
     <t>Last Updated : 21st October 2020</t>
   </si>
+  <si>
+    <t>CDCE</t>
+  </si>
+  <si>
+    <t>Commercial Data Centres Energy demand</t>
+  </si>
+  <si>
+    <t>Final Energy (EIirGrid-35% of 708MW)</t>
+  </si>
+  <si>
+    <t>IE,National</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0_)"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="174" formatCode="0.000000_)"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0_)"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="0.000000_)"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="102">
+  <fonts count="103">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6983,693 +6993,693 @@
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="157" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="158" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="159" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="91" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="92" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="93" fillId="42" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="94" fillId="43" borderId="161" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="95" fillId="43" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="162" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="44" borderId="163" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="164" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="157" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="158" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="159" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="92" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="93" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="94" fillId="42" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="95" fillId="43" borderId="161" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="96" fillId="43" borderId="160" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="162" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="44" borderId="163" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="164" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="825">
+  <cellXfs count="828">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="37" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="38" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="38" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="39" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="35" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="36" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="36" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="36" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="35" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="36" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="36" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="35" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="35" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="35" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="35" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="36" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="35" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="35" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="35" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="22" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="35" fillId="22" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="35" fillId="22" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="35" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="35" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="35" fillId="16" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="35" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="35" fillId="22" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="35" fillId="22" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="35" fillId="22" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="54" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="55" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="56" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="52" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="55" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="56" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="62" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="42" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="36" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="36" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="36" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="36" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="36" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="36" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="37" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="36" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="36" fillId="16" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="37" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="36" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="36" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="36" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="37" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="22" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="36" fillId="22" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="36" fillId="22" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="36" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="36" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="36" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="36" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="36" fillId="16" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="36" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="36" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="36" fillId="22" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="36" fillId="22" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="36" fillId="22" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="55" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="56" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="57" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="56" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="57" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="63" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="43" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="62" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="42" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="43" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="43" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="63" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="42" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="43" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="42" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="43" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="60" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="61" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="59" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="60" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="59" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="60" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="42" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="43" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="34" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="35" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="36" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="36" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="35" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="36" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="35" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="36" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="34" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="64" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="65" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="50" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="64" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="51" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
@@ -7679,61 +7689,61 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="70" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="72" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="43" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="43" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="42" fillId="24" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="43" fillId="24" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="43" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="24" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="24" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7743,307 +7753,295 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="42" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="43" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="43" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="10" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="82" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="82" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="82" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="82" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="78" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="78" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="78" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="78" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="81" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="81" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="81" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="81" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="78" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="78" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="78" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="78" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="78" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="78" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="78" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="85" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="86" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="77" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="77" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="77" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="77" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="77" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="77" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="37" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="86" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="36" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="86" fillId="36" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="36" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="147" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="24" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="77" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="77" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="78" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="77" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="77" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="77" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="84" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="85" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="37" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="85" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="36" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="85" fillId="36" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="36" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="54" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="147" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="35" fillId="24" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="72" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="98" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="3" fontId="73" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="99" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="98" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="100" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="77" fillId="16" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="77" fillId="16" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="99" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="78" fillId="16" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="78" fillId="16" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="63" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="63" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="63" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="63" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="36" fillId="16" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="16" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="35" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="53" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8052,812 +8050,827 @@
     <xf numFmtId="38" fontId="53" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="38" fontId="53" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="54" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="167" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="171" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="167" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="53" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="53" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="53" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="102" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="174" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="177" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="101" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="53" fillId="0" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="53" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="54" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="53" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="54" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="54" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="167" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="171" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="167" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="101" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="174" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="177" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="53" fillId="0" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="53" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="52" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="53" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="53" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="52" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="53" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="40" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="40" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="86" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="156" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="87" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="73" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="74" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -9149,7 +9162,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9193,7 +9206,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://www.seai.ie/SEAI_Logo_large.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9259,7 +9272,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://boc.ie/clipart/Graphs/i-2015%20ps%20energy%20sankey%202015.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9784,14 +9797,14 @@
       <c r="F16" s="473"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1">
-      <c r="A17" s="811" t="s">
+      <c r="A17" s="814" t="s">
         <v>396</v>
       </c>
-      <c r="B17" s="811"/>
-      <c r="C17" s="811"/>
-      <c r="D17" s="811"/>
-      <c r="E17" s="811"/>
-      <c r="F17" s="811"/>
+      <c r="B17" s="814"/>
+      <c r="C17" s="814"/>
+      <c r="D17" s="814"/>
+      <c r="E17" s="814"/>
+      <c r="F17" s="814"/>
       <c r="G17" s="314"/>
       <c r="H17" s="314"/>
       <c r="I17" s="315"/>
@@ -9829,13 +9842,13 @@
       <c r="A20" s="318" t="s">
         <v>397</v>
       </c>
-      <c r="B20" s="812" t="s">
+      <c r="B20" s="815" t="s">
         <v>398</v>
       </c>
-      <c r="C20" s="812"/>
-      <c r="D20" s="812"/>
-      <c r="E20" s="812"/>
-      <c r="F20" s="812"/>
+      <c r="C20" s="815"/>
+      <c r="D20" s="815"/>
+      <c r="E20" s="815"/>
+      <c r="F20" s="815"/>
       <c r="G20" s="319"/>
       <c r="H20" s="319"/>
       <c r="I20" s="320"/>
@@ -9849,13 +9862,13 @@
       <c r="A21" s="318" t="s">
         <v>399</v>
       </c>
-      <c r="B21" s="813" t="s">
+      <c r="B21" s="816" t="s">
         <v>531</v>
       </c>
-      <c r="C21" s="813"/>
-      <c r="D21" s="813"/>
-      <c r="E21" s="813"/>
-      <c r="F21" s="813"/>
+      <c r="C21" s="816"/>
+      <c r="D21" s="816"/>
+      <c r="E21" s="816"/>
+      <c r="F21" s="816"/>
       <c r="G21" s="319"/>
       <c r="H21" s="319"/>
       <c r="I21" s="320"/>
@@ -9869,13 +9882,13 @@
       <c r="A22" s="318" t="s">
         <v>400</v>
       </c>
-      <c r="B22" s="813" t="s">
+      <c r="B22" s="816" t="s">
         <v>401</v>
       </c>
-      <c r="C22" s="813"/>
-      <c r="D22" s="813"/>
-      <c r="E22" s="813"/>
-      <c r="F22" s="813"/>
+      <c r="C22" s="816"/>
+      <c r="D22" s="816"/>
+      <c r="E22" s="816"/>
+      <c r="F22" s="816"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1">
       <c r="A23" s="321" t="s">
@@ -9890,26 +9903,26 @@
       <c r="H23" s="323"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A24" s="814" t="s">
+      <c r="A24" s="817" t="s">
         <v>491</v>
       </c>
-      <c r="B24" s="814"/>
-      <c r="C24" s="814"/>
-      <c r="D24" s="814"/>
-      <c r="E24" s="814"/>
-      <c r="F24" s="814"/>
+      <c r="B24" s="817"/>
+      <c r="C24" s="817"/>
+      <c r="D24" s="817"/>
+      <c r="E24" s="817"/>
+      <c r="F24" s="817"/>
       <c r="G24" s="323"/>
       <c r="H24" s="323"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A25" s="810" t="s">
+      <c r="A25" s="813" t="s">
         <v>490</v>
       </c>
-      <c r="B25" s="810"/>
-      <c r="C25" s="810"/>
-      <c r="D25" s="810"/>
-      <c r="E25" s="810"/>
-      <c r="F25" s="810"/>
+      <c r="B25" s="813"/>
+      <c r="C25" s="813"/>
+      <c r="D25" s="813"/>
+      <c r="E25" s="813"/>
+      <c r="F25" s="813"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="473"/>
@@ -10077,8 +10090,8 @@
   </sheetPr>
   <dimension ref="B1:X171"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView topLeftCell="D33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13864,8 +13877,8 @@
   </sheetPr>
   <dimension ref="B1:W84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16704,14 +16717,2554 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet9">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B1:Z91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="4.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="11.28515625" style="65" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="174" customWidth="1"/>
+    <col min="14" max="16" width="11.28515625" style="65" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="135" customWidth="1"/>
+    <col min="18" max="22" width="11.28515625" style="65" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="24" max="254" width="11.42578125" style="65" customWidth="1"/>
+    <col min="255" max="16384" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="26.25">
+      <c r="C1" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="65"/>
+      <c r="N1" s="174"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="135"/>
+    </row>
+    <row r="2" spans="2:26">
+      <c r="M2" s="65"/>
+      <c r="N2" s="174"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="135"/>
+    </row>
+    <row r="3" spans="2:26" ht="18.75">
+      <c r="C3" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="H3" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="174"/>
+      <c r="Q3" s="65"/>
+    </row>
+    <row r="4" spans="2:26" s="16" customFormat="1" ht="15">
+      <c r="C4" s="68" t="s">
+        <v>602</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="114"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+    </row>
+    <row r="5" spans="2:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+      <c r="C5" s="184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="185" t="str">
+        <f>Regions!C3</f>
+        <v>IE</v>
+      </c>
+      <c r="E5" s="185" t="str">
+        <f>Regions!D3</f>
+        <v>National</v>
+      </c>
+      <c r="F5" s="187"/>
+      <c r="H5" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+    </row>
+    <row r="6" spans="2:26" s="16" customFormat="1" ht="15">
+      <c r="C6" s="186" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="188" t="str">
+        <f t="shared" ref="E6:E11" si="0">D6</f>
+        <v>PJ</v>
+      </c>
+      <c r="F6" s="188" t="s">
+        <v>232</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+    </row>
+    <row r="7" spans="2:26" s="16" customFormat="1" ht="15">
+      <c r="C7" s="54" t="str">
+        <f>COM_Commodities!D34</f>
+        <v>CLIG</v>
+      </c>
+      <c r="D7" s="179">
+        <f>K21*J16</f>
+        <v>35.99770153276075</v>
+      </c>
+      <c r="E7" s="179">
+        <f t="shared" si="0"/>
+        <v>35.99770153276075</v>
+      </c>
+      <c r="F7" s="54" t="str">
+        <f>COM_Commodities!E34</f>
+        <v>Commercial Lighting Demand</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="75"/>
+    </row>
+    <row r="8" spans="2:26" s="16" customFormat="1" ht="15">
+      <c r="C8" s="54" t="str">
+        <f>COM_Commodities!D35</f>
+        <v>CCOK</v>
+      </c>
+      <c r="D8" s="179">
+        <f>K36*J27</f>
+        <v>0.84071163403600058</v>
+      </c>
+      <c r="E8" s="179">
+        <f t="shared" si="0"/>
+        <v>0.84071163403600058</v>
+      </c>
+      <c r="F8" s="54" t="str">
+        <f>COM_Commodities!E35</f>
+        <v>Commercial Cooking Demand</v>
+      </c>
+      <c r="H8" s="75"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="75"/>
+    </row>
+    <row r="9" spans="2:26" s="16" customFormat="1" ht="15">
+      <c r="C9" s="54" t="str">
+        <f>COM_Commodities!D36</f>
+        <v>CREF</v>
+      </c>
+      <c r="D9" s="179">
+        <f>K46*J42</f>
+        <v>2.595378298783547</v>
+      </c>
+      <c r="E9" s="179">
+        <f t="shared" si="0"/>
+        <v>2.595378298783547</v>
+      </c>
+      <c r="F9" s="54" t="str">
+        <f>COM_Commodities!E36</f>
+        <v>Commercial Refrigeration Demand</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="75"/>
+    </row>
+    <row r="10" spans="2:26" s="16" customFormat="1" ht="15">
+      <c r="C10" s="54" t="str">
+        <f>COM_Commodities!D37</f>
+        <v>CPLI</v>
+      </c>
+      <c r="D10" s="179">
+        <f>K54*J52</f>
+        <v>1.1448908452668221</v>
+      </c>
+      <c r="E10" s="179">
+        <f t="shared" si="0"/>
+        <v>1.1448908452668221</v>
+      </c>
+      <c r="F10" s="54" t="str">
+        <f>COM_Commodities!E37</f>
+        <v>Commercial Public Lighting Demand</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="75"/>
+    </row>
+    <row r="11" spans="2:26" s="16" customFormat="1" ht="15">
+      <c r="C11" s="54" t="str">
+        <f>COM_Commodities!D38</f>
+        <v>COEL</v>
+      </c>
+      <c r="D11" s="179">
+        <f>K62*J60</f>
+        <v>15.911170581631776</v>
+      </c>
+      <c r="E11" s="179">
+        <f t="shared" si="0"/>
+        <v>15.911170581631776</v>
+      </c>
+      <c r="F11" s="54" t="str">
+        <f>COM_Commodities!E38</f>
+        <v>Commercial Other Electric Demand</v>
+      </c>
+      <c r="H11" s="75"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="75"/>
+    </row>
+    <row r="12" spans="2:26" customFormat="1">
+      <c r="B12" s="378"/>
+    </row>
+    <row r="13" spans="2:26" s="16" customFormat="1" ht="18.75">
+      <c r="C13" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="66"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="202" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" s="134"/>
+      <c r="S13" s="85"/>
+      <c r="U13" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" s="16" customFormat="1" ht="60.75" thickBot="1">
+      <c r="C14" s="189" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="189" t="s">
+        <v>603</v>
+      </c>
+      <c r="E14" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="189" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="185" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="128" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="L14" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="M14" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" s="69"/>
+      <c r="O14" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" s="166" t="s">
+        <v>145</v>
+      </c>
+      <c r="R14" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="S14" s="125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" s="16" customFormat="1" ht="48" thickBot="1">
+      <c r="C15" s="190" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="201" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="201" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="69"/>
+      <c r="O15" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="223" t="s">
+        <v>130</v>
+      </c>
+      <c r="V15" s="224" t="s">
+        <v>131</v>
+      </c>
+      <c r="W15" s="224" t="s">
+        <v>132</v>
+      </c>
+      <c r="X15" s="225" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z15" s="367" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" s="16" customFormat="1" ht="15">
+      <c r="C16" s="54" t="str">
+        <f>$C$7</f>
+        <v>CLIG</v>
+      </c>
+      <c r="D16" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E16" s="54" t="str">
+        <f>LEFT(C16,5)&amp;RIGHT(H16,3)&amp;"_00_IStd"</f>
+        <v>CLIGELC_00_IStd</v>
+      </c>
+      <c r="F16" s="106" t="str">
+        <f>"Existing commercial - Lighting "&amp;RIGHT(H16,3)&amp;" Incandescent STD"</f>
+        <v>Existing commercial - Lighting ELC Incandescent STD</v>
+      </c>
+      <c r="G16" s="198">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="54" t="str">
+        <f>COM_Balance!$L$13</f>
+        <v>COMELC</v>
+      </c>
+      <c r="I16" s="200">
+        <v>1</v>
+      </c>
+      <c r="J16" s="207">
+        <f>R16</f>
+        <v>1.0512000000000002E-3</v>
+      </c>
+      <c r="K16" s="206">
+        <f>W16</f>
+        <v>2820.7898537829165</v>
+      </c>
+      <c r="L16" s="72">
+        <v>1</v>
+      </c>
+      <c r="M16" s="204"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="139">
+        <f>IF(I16=0,0,K16*J16/I16)</f>
+        <v>2.9652142942966022</v>
+      </c>
+      <c r="P16" s="139">
+        <f>COM_Balance!L42*G16</f>
+        <v>2.9652142942966018</v>
+      </c>
+      <c r="Q16" s="124">
+        <f>I16</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="112">
+        <f>IF(S21=0,0,SUMPRODUCT(Q16:Q19,P16:P19)/S21)</f>
+        <v>1.0512000000000002E-3</v>
+      </c>
+      <c r="S16" s="76">
+        <f>W16</f>
+        <v>2820.7898537829165</v>
+      </c>
+      <c r="U16" s="215">
+        <v>100</v>
+      </c>
+      <c r="V16" s="216">
+        <v>8</v>
+      </c>
+      <c r="W16" s="217">
+        <f>P16/(U16*3600*V16*365)*I16*10^12</f>
+        <v>2820.7898537829165</v>
+      </c>
+      <c r="X16" s="218">
+        <v>1000</v>
+      </c>
+      <c r="Z16" s="374"/>
+    </row>
+    <row r="17" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="C17" s="54" t="str">
+        <f>$C$7</f>
+        <v>CLIG</v>
+      </c>
+      <c r="D17" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E17" s="54" t="str">
+        <f>LEFT(C17,5)&amp;RIGHT(H17,3)&amp;"_00_IImp"</f>
+        <v>CLIGELC_00_IImp</v>
+      </c>
+      <c r="F17" s="106" t="str">
+        <f>"Existing commercial - Lighting "&amp;RIGHT(H17,3)&amp;" Incandescent IMP"</f>
+        <v>Existing commercial - Lighting ELC Incandescent IMP</v>
+      </c>
+      <c r="G17" s="199">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="54" t="str">
+        <f>COM_Balance!$L$13</f>
+        <v>COMELC</v>
+      </c>
+      <c r="I17" s="200">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J17" s="116">
+        <f>J16</f>
+        <v>1.0512000000000002E-3</v>
+      </c>
+      <c r="K17" s="206">
+        <f>W17</f>
+        <v>4654.303258741812</v>
+      </c>
+      <c r="L17" s="72">
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="204"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="139">
+        <f>IF(I17=0,0,K17*J17/I17)</f>
+        <v>4.4478214414449022</v>
+      </c>
+      <c r="P17" s="139">
+        <f>COM_Balance!L42*G17</f>
+        <v>4.4478214414449022</v>
+      </c>
+      <c r="Q17" s="124">
+        <f>I17</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R17" s="73"/>
+      <c r="S17" s="76">
+        <f>W17</f>
+        <v>4654.303258741812</v>
+      </c>
+      <c r="U17" s="211">
+        <v>100</v>
+      </c>
+      <c r="V17" s="212">
+        <v>8</v>
+      </c>
+      <c r="W17" s="213">
+        <f>P17/(U17*3600*V17*365)*I17*10^12</f>
+        <v>4654.303258741812</v>
+      </c>
+      <c r="X17" s="214">
+        <v>1500</v>
+      </c>
+      <c r="Z17" s="375"/>
+    </row>
+    <row r="18" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="C18" s="54" t="str">
+        <f>$C$7</f>
+        <v>CLIG</v>
+      </c>
+      <c r="D18" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E18" s="54" t="str">
+        <f>LEFT(C18,5)&amp;RIGHT(H18,3)&amp;"_00_Hal"</f>
+        <v>CLIGELC_00_Hal</v>
+      </c>
+      <c r="F18" s="106" t="str">
+        <f>"Existing commercial - Lighting "&amp;RIGHT(H18,3)&amp;" Halogen"</f>
+        <v>Existing commercial - Lighting ELC Halogen</v>
+      </c>
+      <c r="G18" s="199">
+        <f>1-SUM(G16:G17,G19)</f>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="H18" s="54" t="str">
+        <f>COM_Balance!$L$13</f>
+        <v>COMELC</v>
+      </c>
+      <c r="I18" s="200">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J18" s="116">
+        <f>J17</f>
+        <v>1.0512000000000002E-3</v>
+      </c>
+      <c r="K18" s="206">
+        <f>W18</f>
+        <v>5190.2533309605633</v>
+      </c>
+      <c r="L18" s="72">
+        <v>5</v>
+      </c>
+      <c r="M18" s="204"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="139">
+        <f>IF(I18=0,0,K18*J18/I18)</f>
+        <v>2.3721714354372807</v>
+      </c>
+      <c r="P18" s="139">
+        <f>COM_Balance!L42*G18</f>
+        <v>2.3721714354372803</v>
+      </c>
+      <c r="Q18" s="124">
+        <f>I18</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R18" s="73"/>
+      <c r="S18" s="76">
+        <f>W18</f>
+        <v>5190.2533309605633</v>
+      </c>
+      <c r="U18" s="211">
+        <v>100</v>
+      </c>
+      <c r="V18" s="212">
+        <v>8</v>
+      </c>
+      <c r="W18" s="213">
+        <f>P18/(U18*3600*V18*365)*I18*10^12</f>
+        <v>5190.2533309605633</v>
+      </c>
+      <c r="X18" s="214">
+        <v>5000</v>
+      </c>
+      <c r="Z18" s="375"/>
+    </row>
+    <row r="19" spans="3:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+      <c r="C19" s="54" t="str">
+        <f>$C$7</f>
+        <v>CLIG</v>
+      </c>
+      <c r="D19" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E19" s="54" t="str">
+        <f>LEFT(C19,5)&amp;RIGHT(H19,3)&amp;"_00_Flu"</f>
+        <v>CLIGELC_00_Flu</v>
+      </c>
+      <c r="F19" s="106" t="str">
+        <f>"Existing commercial - Lighting "&amp;RIGHT(H19,3)&amp;" Fluoreshent"</f>
+        <v>Existing commercial - Lighting ELC Fluoreshent</v>
+      </c>
+      <c r="G19" s="119">
+        <v>0.34</v>
+      </c>
+      <c r="H19" s="54" t="str">
+        <f>COM_Balance!$L$13</f>
+        <v>COMELC</v>
+      </c>
+      <c r="I19" s="200">
+        <v>4.5</v>
+      </c>
+      <c r="J19" s="116">
+        <f>J18</f>
+        <v>1.0512000000000002E-3</v>
+      </c>
+      <c r="K19" s="206">
+        <f>W19</f>
+        <v>21579.042381439311</v>
+      </c>
+      <c r="L19" s="72">
+        <v>8</v>
+      </c>
+      <c r="M19" s="204"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="139">
+        <f>IF(I19=0,0,K19*J19/I19)</f>
+        <v>5.0408643003042242</v>
+      </c>
+      <c r="P19" s="139">
+        <f>COM_Balance!L42*G19</f>
+        <v>5.0408643003042233</v>
+      </c>
+      <c r="Q19" s="124">
+        <f>I19</f>
+        <v>4.5</v>
+      </c>
+      <c r="R19" s="73"/>
+      <c r="S19" s="76">
+        <f>W19</f>
+        <v>21579.042381439311</v>
+      </c>
+      <c r="U19" s="219">
+        <v>100</v>
+      </c>
+      <c r="V19" s="220">
+        <v>8</v>
+      </c>
+      <c r="W19" s="221">
+        <f>P19/(U19*3600*V19*365)*I19*10^12</f>
+        <v>21579.042381439311</v>
+      </c>
+      <c r="X19" s="222">
+        <v>8000</v>
+      </c>
+      <c r="Z19" s="373">
+        <f>SUMPRODUCT('Commercial SEAI'!C45:G45,'Commercial SEAI'!C6:G6)/SUM('Commercial SEAI'!C6:G6)+50%*SUMPRODUCT('Commercial SEAI'!C44:G44,'Commercial SEAI'!C6:G6)/SUM('Commercial SEAI'!C6:G6)</f>
+        <v>0.6308100829423976</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="54"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+    </row>
+    <row r="21" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="C21" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="108"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="115">
+        <f>SUM(K16:K20)</f>
+        <v>34244.388824924601</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="76">
+        <f>SUM(O16:O19)</f>
+        <v>14.826071471483008</v>
+      </c>
+      <c r="P21" s="76">
+        <f>SUM(P16:P19)</f>
+        <v>14.826071471483008</v>
+      </c>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="158">
+        <f>SUM(W16:W19)</f>
+        <v>34244.388824924601</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="J22" s="94"/>
+      <c r="K22" s="368">
+        <f>K19/SUM(K16:K19)</f>
+        <v>0.63014827018121922</v>
+      </c>
+      <c r="N22" s="69"/>
+      <c r="R22" s="94"/>
+    </row>
+    <row r="23" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="J23" s="94"/>
+      <c r="N23" s="69"/>
+      <c r="R23" s="94"/>
+    </row>
+    <row r="24" spans="3:26" s="16" customFormat="1" ht="18.75">
+      <c r="C24" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="202"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="85"/>
+    </row>
+    <row r="25" spans="3:26" s="16" customFormat="1" ht="45.75" thickBot="1">
+      <c r="C25" s="189" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="189" t="s">
+        <v>603</v>
+      </c>
+      <c r="E25" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="189" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="185" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="128" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="N25" s="192"/>
+      <c r="O25" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="S25" s="125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" s="16" customFormat="1" ht="47.25">
+      <c r="C26" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="201" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="201" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="192"/>
+      <c r="O26" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="C27" s="54" t="str">
+        <f>$C$8</f>
+        <v>CCOK</v>
+      </c>
+      <c r="D27" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E27" s="54" t="str">
+        <f t="shared" ref="E27:E34" si="1">LEFT(C27,5)&amp;RIGHT(H27,3)&amp;"_00"</f>
+        <v>CCOKCOA_00</v>
+      </c>
+      <c r="F27" s="106" t="str">
+        <f>"Existing commercial - Cooking "&amp;RIGHT(H27,3)</f>
+        <v>Existing commercial - Cooking COA</v>
+      </c>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54" t="str">
+        <f>COM_Balance!$D$13</f>
+        <v>COMCOA</v>
+      </c>
+      <c r="I27" s="92">
+        <v>1</v>
+      </c>
+      <c r="J27" s="79">
+        <f>R27</f>
+        <v>1.1575594601268406E-2</v>
+      </c>
+      <c r="K27" s="138">
+        <f>S27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="70">
+        <v>15</v>
+      </c>
+      <c r="M27" s="72"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="139">
+        <f t="shared" ref="O27:O34" si="2">IF(I27=0,0,K27*J27/I27)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="172">
+        <f>COM_Balance!D43</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="203">
+        <f t="shared" ref="Q27:Q34" si="3">I27</f>
+        <v>1</v>
+      </c>
+      <c r="R27" s="74">
+        <f>IF(S36=0,0,SUMPRODUCT(Q27:Q34,P27:P34)/S36)</f>
+        <v>1.1575594601268406E-2</v>
+      </c>
+      <c r="S27" s="76">
+        <f>IF($P$36=0,0,Q27*P27/SUMPRODUCT($P$27:$P$34,$Q$27:$Q$34)*$S$36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="C28" s="54" t="str">
+        <f t="shared" ref="C28:C34" si="4">$C$8</f>
+        <v>CCOK</v>
+      </c>
+      <c r="D28" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E28" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>CCOKLPG_00</v>
+      </c>
+      <c r="F28" s="106" t="str">
+        <f t="shared" ref="F28:F34" si="5">"Existing commercial - Cooking "&amp;RIGHT(H28,3)</f>
+        <v>Existing commercial - Cooking LPG</v>
+      </c>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54" t="str">
+        <f>COM_Balance!$E$13</f>
+        <v>COMLPG</v>
+      </c>
+      <c r="I28" s="92">
+        <v>1</v>
+      </c>
+      <c r="J28" s="73">
+        <f t="shared" ref="J28:J34" si="6">$J$27</f>
+        <v>1.1575594601268406E-2</v>
+      </c>
+      <c r="K28" s="138">
+        <f t="shared" ref="K28:K34" si="7">S28</f>
+        <v>7.4549249811537219</v>
+      </c>
+      <c r="L28" s="70">
+        <v>15</v>
+      </c>
+      <c r="M28" s="72"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="139">
+        <f t="shared" si="2"/>
+        <v>8.6295189364703997E-2</v>
+      </c>
+      <c r="P28" s="172">
+        <f>COM_Balance!E43</f>
+        <v>8.6295189364703997E-2</v>
+      </c>
+      <c r="Q28" s="124">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="73"/>
+      <c r="S28" s="76">
+        <f>IF($P$36=0,0,Q28*P28/SUMPRODUCT($P$27:$P$34,$Q$27:$Q$34)*$S$36)</f>
+        <v>7.4549249811537219</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="C29" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>CCOK</v>
+      </c>
+      <c r="D29" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E29" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>CCOKOIL_00</v>
+      </c>
+      <c r="F29" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Existing commercial - Cooking OIL</v>
+      </c>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54" t="str">
+        <f>COM_Balance!$F$13</f>
+        <v>COMOIL</v>
+      </c>
+      <c r="I29" s="92">
+        <v>1</v>
+      </c>
+      <c r="J29" s="73">
+        <f t="shared" si="6"/>
+        <v>1.1575594601268406E-2</v>
+      </c>
+      <c r="K29" s="138">
+        <f t="shared" si="7"/>
+        <v>20.725802933652879</v>
+      </c>
+      <c r="L29" s="70">
+        <v>15</v>
+      </c>
+      <c r="M29" s="72"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="139">
+        <f t="shared" si="2"/>
+        <v>0.23991349254574518</v>
+      </c>
+      <c r="P29" s="172">
+        <f>COM_Balance!F43</f>
+        <v>0.23991349254574518</v>
+      </c>
+      <c r="Q29" s="124">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R29" s="73"/>
+      <c r="S29" s="76">
+        <f t="shared" ref="S29:S34" si="8">IF($P$36=0,0,Q29*P29/SUMPRODUCT($P$27:$P$34,$Q$27:$Q$34)*$S$36)</f>
+        <v>20.725802933652879</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="C30" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>CCOK</v>
+      </c>
+      <c r="D30" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E30" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>CCOKGAS_00</v>
+      </c>
+      <c r="F30" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Existing commercial - Cooking GAS</v>
+      </c>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54" t="str">
+        <f>COM_Balance!$G$13</f>
+        <v>COMGAS</v>
+      </c>
+      <c r="I30" s="92">
+        <v>1</v>
+      </c>
+      <c r="J30" s="73">
+        <f t="shared" si="6"/>
+        <v>1.1575594601268406E-2</v>
+      </c>
+      <c r="K30" s="138">
+        <f t="shared" si="7"/>
+        <v>42.523296827944641</v>
+      </c>
+      <c r="L30" s="70">
+        <v>15</v>
+      </c>
+      <c r="M30" s="72"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="139">
+        <f t="shared" si="2"/>
+        <v>0.49223244518968995</v>
+      </c>
+      <c r="P30" s="172">
+        <f>COM_Balance!G43</f>
+        <v>0.49223244518968989</v>
+      </c>
+      <c r="Q30" s="124">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R30" s="73"/>
+      <c r="S30" s="76">
+        <f t="shared" si="8"/>
+        <v>42.523296827944641</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="C31" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>CCOK</v>
+      </c>
+      <c r="D31" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E31" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>CCOKBIO_00</v>
+      </c>
+      <c r="F31" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Existing commercial - Cooking BIO</v>
+      </c>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54" t="str">
+        <f>COM_Balance!$H$13</f>
+        <v>COMBIO</v>
+      </c>
+      <c r="I31" s="92">
+        <v>1</v>
+      </c>
+      <c r="J31" s="73">
+        <f t="shared" si="6"/>
+        <v>1.1575594601268406E-2</v>
+      </c>
+      <c r="K31" s="138">
+        <f t="shared" si="7"/>
+        <v>1.9239190471840706</v>
+      </c>
+      <c r="L31" s="70">
+        <v>15</v>
+      </c>
+      <c r="M31" s="72"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="139">
+        <f t="shared" si="2"/>
+        <v>2.2270506935861384E-2</v>
+      </c>
+      <c r="P31" s="172">
+        <f>COM_Balance!H43</f>
+        <v>2.2270506935861384E-2</v>
+      </c>
+      <c r="Q31" s="124">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R31" s="73"/>
+      <c r="S31" s="76">
+        <f t="shared" si="8"/>
+        <v>1.9239190471840706</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" s="16" customFormat="1" ht="15">
+      <c r="C32" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>CCOK</v>
+      </c>
+      <c r="D32" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E32" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>CCOKBGS_00</v>
+      </c>
+      <c r="F32" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Existing commercial - Cooking BGS</v>
+      </c>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54" t="str">
+        <f>COM_Balance!$I$13</f>
+        <v>COMBGS</v>
+      </c>
+      <c r="I32" s="92">
+        <v>1</v>
+      </c>
+      <c r="J32" s="73">
+        <f t="shared" si="6"/>
+        <v>1.1575594601268406E-2</v>
+      </c>
+      <c r="K32" s="138">
+        <f>S32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="70">
+        <v>15</v>
+      </c>
+      <c r="M32" s="72"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="139">
+        <f>IF(I32=0,0,K32*J32/I32)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="172">
+        <f>COM_Balance!I43</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="124">
+        <f>I32</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="73"/>
+      <c r="S32" s="76">
+        <f>IF($P$36=0,0,Q32*P32/SUMPRODUCT($P$27:$P$34,$Q$27:$Q$34)*$S$36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C33" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>CCOK</v>
+      </c>
+      <c r="D33" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E33" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>CCOKSOL_00</v>
+      </c>
+      <c r="F33" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Existing commercial - Cooking SOL</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54" t="str">
+        <f>COM_Balance!$J$13</f>
+        <v>COMSOL</v>
+      </c>
+      <c r="I33" s="92">
+        <v>1</v>
+      </c>
+      <c r="J33" s="73">
+        <f t="shared" si="6"/>
+        <v>1.1575594601268406E-2</v>
+      </c>
+      <c r="K33" s="138">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="70">
+        <v>15</v>
+      </c>
+      <c r="M33" s="72"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="172">
+        <f>COM_Balance!J43</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="124">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="73"/>
+      <c r="S33" s="76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C34" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>CCOK</v>
+      </c>
+      <c r="D34" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E34" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>CCOKELC_00</v>
+      </c>
+      <c r="F34" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>Existing commercial - Cooking ELC</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54" t="str">
+        <f>COM_Balance!$L$13</f>
+        <v>COMELC</v>
+      </c>
+      <c r="I34" s="92">
+        <v>1</v>
+      </c>
+      <c r="J34" s="73">
+        <f t="shared" si="6"/>
+        <v>1.1575594601268406E-2</v>
+      </c>
+      <c r="K34" s="138">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="70">
+        <v>15</v>
+      </c>
+      <c r="M34" s="72"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="172">
+        <f>COM_Balance!K43</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="124">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R34" s="73"/>
+      <c r="S34" s="76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="165"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="54"/>
+    </row>
+    <row r="36" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C36" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="108"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="115">
+        <f>SUM(K27:K35)</f>
+        <v>72.627943789935316</v>
+      </c>
+      <c r="L36" s="54"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="76">
+        <f>SUM(O27:O34)</f>
+        <v>0.84071163403600047</v>
+      </c>
+      <c r="P36" s="76">
+        <f>SUM(P27:P34)</f>
+        <v>0.84071163403600047</v>
+      </c>
+      <c r="Q36" s="165"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="158">
+        <f>COM_Balance!C56*0.4</f>
+        <v>72.627943789935316</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="J37" s="94"/>
+      <c r="N37" s="69"/>
+      <c r="R37" s="94"/>
+    </row>
+    <row r="38" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="J38" s="94"/>
+      <c r="N38" s="69"/>
+      <c r="R38" s="94"/>
+    </row>
+    <row r="39" spans="3:19" s="16" customFormat="1" ht="18.75">
+      <c r="C39" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="202"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="85"/>
+    </row>
+    <row r="40" spans="3:19" s="16" customFormat="1" ht="45.75" thickBot="1">
+      <c r="C40" s="189" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="189" t="s">
+        <v>603</v>
+      </c>
+      <c r="E40" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="189" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="185" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="128" t="s">
+        <v>210</v>
+      </c>
+      <c r="K40" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="L40" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="M40" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="N40" s="192"/>
+      <c r="O40" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="P40" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="S40" s="125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" s="16" customFormat="1" ht="48" thickBot="1">
+      <c r="C41" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="201" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="201" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="192"/>
+      <c r="O41" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="154"/>
+      <c r="R41" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="S41" s="133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C42" s="54" t="str">
+        <f>$C$9</f>
+        <v>CREF</v>
+      </c>
+      <c r="D42" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E42" s="54" t="str">
+        <f>LEFT(C42,5)&amp;RIGHT(H42,3)&amp;"_00_Ref"</f>
+        <v>CREFELC_00_Ref</v>
+      </c>
+      <c r="F42" s="106" t="str">
+        <f>"Existing commercial - Refrigeration "&amp;RIGHT(H42,3)&amp;" Refrigerator"</f>
+        <v>Existing commercial - Refrigeration ELC Refrigerator</v>
+      </c>
+      <c r="G42" s="118">
+        <v>0.3</v>
+      </c>
+      <c r="H42" s="54" t="str">
+        <f>COM_Balance!$L$13</f>
+        <v>COMELC</v>
+      </c>
+      <c r="I42" s="88">
+        <v>0.9</v>
+      </c>
+      <c r="J42" s="138">
+        <f>R42</f>
+        <v>3.5735257854611201E-2</v>
+      </c>
+      <c r="K42" s="138">
+        <f>S42</f>
+        <v>21.199507917062203</v>
+      </c>
+      <c r="L42" s="70">
+        <v>15</v>
+      </c>
+      <c r="M42" s="72"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="139">
+        <f>IF(I42=0,0,K42*J42/I42)</f>
+        <v>0.84174431311898823</v>
+      </c>
+      <c r="P42" s="139">
+        <f>COM_Balance!L44*G42</f>
+        <v>0.84174431311898812</v>
+      </c>
+      <c r="Q42" s="203">
+        <f>I42</f>
+        <v>0.9</v>
+      </c>
+      <c r="R42" s="73">
+        <f>IF(S46=0,0,SUMPRODUCT(Q42:Q44,P42:P44)/S46)</f>
+        <v>3.5735257854611201E-2</v>
+      </c>
+      <c r="S42" s="76">
+        <f>IF($P$46*Q42=0,0,Q42*P42/SUMPRODUCT($P$42:$P$44,$Q$42:$Q$44)*$S$46)</f>
+        <v>21.199507917062203</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C43" s="54" t="str">
+        <f>$C$9</f>
+        <v>CREF</v>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E43" s="54" t="str">
+        <f>LEFT(C43,5)&amp;RIGHT(H43,3)&amp;"_00_Fre"</f>
+        <v>CREFELC_00_Fre</v>
+      </c>
+      <c r="F43" s="106" t="str">
+        <f>"Existing commercial - Refrigeration "&amp;RIGHT(H43,3)&amp;" Freezer"</f>
+        <v>Existing commercial - Refrigeration ELC Freezer</v>
+      </c>
+      <c r="G43" s="120">
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="54" t="str">
+        <f>COM_Balance!$L$13</f>
+        <v>COMELC</v>
+      </c>
+      <c r="I43" s="88">
+        <v>0.85</v>
+      </c>
+      <c r="J43" s="73">
+        <f>$J$42</f>
+        <v>3.5735257854611201E-2</v>
+      </c>
+      <c r="K43" s="138">
+        <f>S43</f>
+        <v>20.021757477225414</v>
+      </c>
+      <c r="L43" s="70">
+        <v>15</v>
+      </c>
+      <c r="M43" s="72"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="139">
+        <f>IF(I43=0,0,K43*J43/I43)</f>
+        <v>0.84174431311898823</v>
+      </c>
+      <c r="P43" s="139">
+        <f>COM_Balance!L44*G43</f>
+        <v>0.84174431311898812</v>
+      </c>
+      <c r="Q43" s="124">
+        <f>I43</f>
+        <v>0.85</v>
+      </c>
+      <c r="R43" s="73"/>
+      <c r="S43" s="76">
+        <f>IF($P$46*Q43=0,0,Q43*P43/SUMPRODUCT($P$42:$P$44,$Q$42:$Q$44)*$S$46)</f>
+        <v>20.021757477225414</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" s="16" customFormat="1" ht="15.75" thickBot="1">
+      <c r="C44" s="54" t="str">
+        <f>$C$9</f>
+        <v>CREF</v>
+      </c>
+      <c r="D44" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E44" s="54" t="str">
+        <f>LEFT(C44,5)&amp;RIGHT(H44,3)&amp;"_00_RF"</f>
+        <v>CREFELC_00_RF</v>
+      </c>
+      <c r="F44" s="106" t="str">
+        <f>"Existing commercial - Refrigeration "&amp;RIGHT(H44,3)&amp;" Refrigerator + Freezer"</f>
+        <v>Existing commercial - Refrigeration ELC Refrigerator + Freezer</v>
+      </c>
+      <c r="G44" s="119">
+        <f>1-G43-G42</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="H44" s="54" t="str">
+        <f>COM_Balance!$L$13</f>
+        <v>COMELC</v>
+      </c>
+      <c r="I44" s="88">
+        <v>1</v>
+      </c>
+      <c r="J44" s="73">
+        <f>$J$42</f>
+        <v>3.5735257854611201E-2</v>
+      </c>
+      <c r="K44" s="138">
+        <f>S44</f>
+        <v>31.406678395647706</v>
+      </c>
+      <c r="L44" s="70">
+        <v>15</v>
+      </c>
+      <c r="M44" s="72"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="139">
+        <f>IF(I44=0,0,K44*J44/I44)</f>
+        <v>1.1223257508253175</v>
+      </c>
+      <c r="P44" s="139">
+        <f>COM_Balance!L44*G44</f>
+        <v>1.1223257508253175</v>
+      </c>
+      <c r="Q44" s="124">
+        <f>I44</f>
+        <v>1</v>
+      </c>
+      <c r="R44" s="73"/>
+      <c r="S44" s="76">
+        <f>IF($P$46*Q44=0,0,Q44*P44/SUMPRODUCT($P$42:$P$44,$Q$42:$Q$44)*$S$46)</f>
+        <v>31.406678395647706</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="165"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="54"/>
+    </row>
+    <row r="46" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C46" s="208" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="208"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="115">
+        <f>SUM(K42:K45)</f>
+        <v>72.627943789935316</v>
+      </c>
+      <c r="L46" s="54"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="76">
+        <f>SUM(O42:O44)</f>
+        <v>2.8058143770632942</v>
+      </c>
+      <c r="P46" s="76">
+        <f>SUM(P42:P44)</f>
+        <v>2.8058143770632937</v>
+      </c>
+      <c r="Q46" s="165"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="158">
+        <f>COM_Balance!C56*0.4</f>
+        <v>72.627943789935316</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="J47" s="94"/>
+      <c r="N47" s="69"/>
+      <c r="R47" s="94"/>
+    </row>
+    <row r="48" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="J48" s="94"/>
+      <c r="N48" s="69"/>
+      <c r="R48" s="94"/>
+    </row>
+    <row r="49" spans="3:19" s="16" customFormat="1" ht="18.75">
+      <c r="C49" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="66"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" s="101"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="103"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="202"/>
+      <c r="R49" s="134"/>
+      <c r="S49" s="85"/>
+    </row>
+    <row r="50" spans="3:19" s="16" customFormat="1" ht="45.75" thickBot="1">
+      <c r="C50" s="189" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="189" t="s">
+        <v>603</v>
+      </c>
+      <c r="E50" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="189" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="185" t="s">
+        <v>81</v>
+      </c>
+      <c r="J50" s="128" t="s">
+        <v>210</v>
+      </c>
+      <c r="K50" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="L50" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="M50" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="N50" s="192"/>
+      <c r="O50" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="P50" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="R50" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="S50" s="125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" s="16" customFormat="1" ht="47.25">
+      <c r="C51" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="190"/>
+      <c r="E51" s="190"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="190" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="190"/>
+      <c r="I51" s="190"/>
+      <c r="J51" s="201" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="201" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="192"/>
+      <c r="O51" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="S51" s="133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C52" s="54" t="str">
+        <f>C10</f>
+        <v>CPLI</v>
+      </c>
+      <c r="D52" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E52" s="209" t="str">
+        <f>LEFT(C52,5)&amp;RIGHT(H52,3)&amp;"_00"</f>
+        <v>CPLIELC_00</v>
+      </c>
+      <c r="F52" s="106" t="str">
+        <f>"Existing commercial - Public Lighting "&amp;RIGHT(H52,3)</f>
+        <v>Existing commercial - Public Lighting ELC</v>
+      </c>
+      <c r="G52" s="54"/>
+      <c r="H52" s="209" t="str">
+        <f>COM_Balance!$L$13</f>
+        <v>COMELC</v>
+      </c>
+      <c r="I52" s="92">
+        <v>1</v>
+      </c>
+      <c r="J52" s="210">
+        <f>R52</f>
+        <v>5.7101787793856456E-4</v>
+      </c>
+      <c r="K52" s="138">
+        <f>S52</f>
+        <v>2005</v>
+      </c>
+      <c r="L52" s="193">
+        <v>15</v>
+      </c>
+      <c r="M52" s="205"/>
+      <c r="N52" s="192"/>
+      <c r="O52" s="139">
+        <f>IF(I52=0,0,K52*J52/I52)</f>
+        <v>1.1448908452668221</v>
+      </c>
+      <c r="P52" s="139">
+        <f>COM_Balance!L45</f>
+        <v>1.1448908452668221</v>
+      </c>
+      <c r="Q52" s="203">
+        <f>I52</f>
+        <v>1</v>
+      </c>
+      <c r="R52" s="116">
+        <f>IF(S54=0,0,SUMPRODUCT(Q52,P52)/S54)</f>
+        <v>5.7101787793856456E-4</v>
+      </c>
+      <c r="S52" s="76">
+        <f>IF($P$54*Q52=0,0,Q52*P52/SUMPRODUCT($P$52,$Q$52)*$S$54)</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="165"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="54"/>
+    </row>
+    <row r="54" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C54" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="108"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="115">
+        <f>SUM(K52:K53)</f>
+        <v>2005</v>
+      </c>
+      <c r="L54" s="54"/>
+      <c r="M54" s="100"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="76">
+        <f>SUM(O52)</f>
+        <v>1.1448908452668221</v>
+      </c>
+      <c r="P54" s="76">
+        <f>SUM(P52)</f>
+        <v>1.1448908452668221</v>
+      </c>
+      <c r="Q54" s="165"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="398">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="J55" s="94"/>
+      <c r="N55" s="69"/>
+      <c r="R55" s="94"/>
+    </row>
+    <row r="56" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="J56" s="94"/>
+      <c r="N56" s="69"/>
+      <c r="R56" s="94"/>
+    </row>
+    <row r="57" spans="3:19" s="16" customFormat="1" ht="18.75">
+      <c r="C57" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="66"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" s="101"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="103"/>
+      <c r="M57" s="104"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="202"/>
+      <c r="R57" s="134"/>
+      <c r="S57" s="85"/>
+    </row>
+    <row r="58" spans="3:19" s="16" customFormat="1" ht="45.75" thickBot="1">
+      <c r="C58" s="189" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="189" t="s">
+        <v>603</v>
+      </c>
+      <c r="E58" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="189" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="185" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" s="128" t="s">
+        <v>210</v>
+      </c>
+      <c r="K58" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="L58" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="M58" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="N58" s="192"/>
+      <c r="O58" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="P58" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="R58" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="S58" s="125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" s="16" customFormat="1" ht="47.25">
+      <c r="C59" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="190"/>
+      <c r="E59" s="190"/>
+      <c r="F59" s="190"/>
+      <c r="G59" s="190" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" s="190"/>
+      <c r="I59" s="190"/>
+      <c r="J59" s="201" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" s="201" t="s">
+        <v>35</v>
+      </c>
+      <c r="N59" s="192"/>
+      <c r="O59" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="154"/>
+      <c r="R59" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="S59" s="133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C60" s="54" t="str">
+        <f>C11</f>
+        <v>COEL</v>
+      </c>
+      <c r="D60" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E60" s="54" t="str">
+        <f>LEFT(C60,5)&amp;RIGHT(H60,3)&amp;"_00"</f>
+        <v>COELELC_00</v>
+      </c>
+      <c r="F60" s="106" t="str">
+        <f>"Existing commercial - Other "&amp;RIGHT(H60,3)</f>
+        <v>Existing commercial - Other ELC</v>
+      </c>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54" t="str">
+        <f>COM_Balance!$L$13</f>
+        <v>COMELC</v>
+      </c>
+      <c r="I60" s="92">
+        <v>1</v>
+      </c>
+      <c r="J60" s="138">
+        <f>R60</f>
+        <v>0.21907780602535418</v>
+      </c>
+      <c r="K60" s="138">
+        <f>S60</f>
+        <v>72.627943789935316</v>
+      </c>
+      <c r="L60" s="70">
+        <v>15</v>
+      </c>
+      <c r="M60" s="72"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="139">
+        <f>IF(I60=0,0,K60*J60/I60)</f>
+        <v>15.911170581631776</v>
+      </c>
+      <c r="P60" s="139">
+        <f>COM_Balance!L46</f>
+        <v>15.911170581631776</v>
+      </c>
+      <c r="Q60" s="203">
+        <f>I60</f>
+        <v>1</v>
+      </c>
+      <c r="R60" s="73">
+        <f>IF(S62=0,0,SUMPRODUCT(Q60,P60)/S62)</f>
+        <v>0.21907780602535418</v>
+      </c>
+      <c r="S60" s="76">
+        <f>IF($P$62*Q60=0,0,Q60*P60/SUMPRODUCT($P$60,$Q$60)*$S$62)</f>
+        <v>72.627943789935316</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="76"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="165"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="54"/>
+    </row>
+    <row r="62" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="C62" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="108"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="115">
+        <f>SUM(K60:K61)</f>
+        <v>72.627943789935316</v>
+      </c>
+      <c r="L62" s="54"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="76">
+        <f>SUM(O60)</f>
+        <v>15.911170581631776</v>
+      </c>
+      <c r="P62" s="76">
+        <f>SUM(P60)</f>
+        <v>15.911170581631776</v>
+      </c>
+      <c r="Q62" s="165"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="191">
+        <f>COM_Balance!C56*0.4</f>
+        <v>72.627943789935316</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="J63" s="94"/>
+      <c r="M63" s="69"/>
+      <c r="R63" s="94"/>
+    </row>
+    <row r="64" spans="3:19" s="16" customFormat="1" ht="15">
+      <c r="M64" s="69"/>
+      <c r="R64" s="94"/>
+    </row>
+    <row r="65" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
+      <c r="M65" s="69"/>
+      <c r="R65" s="94"/>
+    </row>
+    <row r="66" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
+      <c r="M66" s="69"/>
+      <c r="Q66" s="94"/>
+    </row>
+    <row r="67" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C67" s="194"/>
+      <c r="D67" s="195"/>
+      <c r="E67" s="195"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="M67" s="69"/>
+      <c r="Q67" s="94"/>
+    </row>
+    <row r="68" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C68" s="147"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="147"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="75"/>
+      <c r="M68" s="69"/>
+      <c r="Q68" s="94"/>
+    </row>
+    <row r="69" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C69" s="37"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="147"/>
+      <c r="F69" s="147"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="148"/>
+      <c r="K69" s="75"/>
+      <c r="M69" s="69"/>
+      <c r="Q69" s="94"/>
+    </row>
+    <row r="70" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="196"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="142"/>
+      <c r="H70" s="142"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75"/>
+      <c r="M70" s="69"/>
+      <c r="Q70" s="94"/>
+    </row>
+    <row r="71" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="146"/>
+      <c r="K71" s="75"/>
+      <c r="M71" s="69"/>
+      <c r="Q71" s="94"/>
+    </row>
+    <row r="72" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="142"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="146"/>
+      <c r="K72" s="75"/>
+      <c r="M72" s="69"/>
+      <c r="Q72" s="94"/>
+    </row>
+    <row r="73" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="142"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="146"/>
+      <c r="K73" s="75"/>
+      <c r="M73" s="69"/>
+      <c r="Q73" s="94"/>
+    </row>
+    <row r="74" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="142"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="146"/>
+      <c r="K74" s="75"/>
+      <c r="M74" s="69"/>
+      <c r="Q74" s="94"/>
+    </row>
+    <row r="75" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="142"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="146"/>
+      <c r="K75" s="75"/>
+      <c r="M75" s="69"/>
+      <c r="Q75" s="94"/>
+    </row>
+    <row r="76" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="142"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="146"/>
+      <c r="K76" s="75"/>
+      <c r="M76" s="69"/>
+      <c r="Q76" s="94"/>
+    </row>
+    <row r="77" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="142"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="146"/>
+      <c r="K77" s="75"/>
+      <c r="M77" s="69"/>
+      <c r="Q77" s="94"/>
+    </row>
+    <row r="78" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="142"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="146"/>
+      <c r="K78" s="75"/>
+      <c r="M78" s="69"/>
+      <c r="Q78" s="94"/>
+    </row>
+    <row r="79" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C79" s="152"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="197"/>
+      <c r="K79" s="75"/>
+      <c r="M79" s="69"/>
+      <c r="Q79" s="94"/>
+    </row>
+    <row r="80" spans="3:18" s="16" customFormat="1" ht="15">
+      <c r="C80" s="144"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="142"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="146"/>
+      <c r="K80" s="75"/>
+      <c r="M80" s="69"/>
+      <c r="Q80" s="94"/>
+    </row>
+    <row r="81" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="75"/>
+      <c r="M81" s="69"/>
+      <c r="Q81" s="94"/>
+    </row>
+    <row r="82" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
+      <c r="K82" s="75"/>
+      <c r="M82" s="69"/>
+      <c r="Q82" s="94"/>
+    </row>
+    <row r="83" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="75"/>
+      <c r="M83" s="69"/>
+      <c r="Q83" s="94"/>
+    </row>
+    <row r="84" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="M84" s="69"/>
+      <c r="Q84" s="94"/>
+    </row>
+    <row r="85" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="M85" s="69"/>
+      <c r="Q85" s="94"/>
+    </row>
+    <row r="86" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="M86" s="69"/>
+      <c r="Q86" s="94"/>
+    </row>
+    <row r="87" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="M87" s="69"/>
+      <c r="Q87" s="94"/>
+    </row>
+    <row r="88" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="M88" s="69"/>
+      <c r="Q88" s="94"/>
+    </row>
+    <row r="89" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="M89" s="69"/>
+      <c r="Q89" s="94"/>
+    </row>
+    <row r="90" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="M90" s="69"/>
+      <c r="Q90" s="94"/>
+    </row>
+    <row r="91" spans="3:17" s="16" customFormat="1" ht="15">
+      <c r="M91" s="69"/>
+      <c r="Q91" s="94"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="B1:V271"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="C27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18657,2547 +21210,239 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr codeName="Sheet9">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015E74B2-BC67-4F08-B572-2D160C87B034}">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:Z91"/>
+  <dimension ref="B3:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="4.42578125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="11.28515625" style="65" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="174" customWidth="1"/>
-    <col min="14" max="16" width="11.28515625" style="65" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="135" customWidth="1"/>
-    <col min="18" max="22" width="11.28515625" style="65" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="24" max="254" width="11.42578125" style="65" customWidth="1"/>
-    <col min="255" max="16384" width="9.140625" style="65"/>
+    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="26.25">
-      <c r="C1" s="83" t="s">
-        <v>249</v>
-      </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="174"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="135"/>
-    </row>
-    <row r="2" spans="2:26">
-      <c r="M2" s="65"/>
-      <c r="N2" s="174"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="135"/>
-    </row>
-    <row r="3" spans="2:26" ht="18.75">
-      <c r="C3" s="66" t="s">
-        <v>248</v>
-      </c>
+    <row r="3" spans="2:18" ht="18.75">
+      <c r="B3" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="H3" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="174"/>
-      <c r="Q3" s="65"/>
-    </row>
-    <row r="4" spans="2:26" s="16" customFormat="1" ht="15">
-      <c r="C4" s="68" t="s">
+    </row>
+    <row r="4" spans="2:18" ht="15">
+      <c r="B4" s="68" t="s">
         <v>602</v>
       </c>
-      <c r="H4" s="122" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" s="114"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-    </row>
-    <row r="5" spans="2:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="C5" s="184" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" thickBot="1">
+      <c r="B5" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="185" t="str">
-        <f>Regions!C3</f>
-        <v>IE</v>
-      </c>
-      <c r="E5" s="185" t="str">
-        <f>Regions!D3</f>
-        <v>National</v>
-      </c>
-      <c r="F5" s="187"/>
-      <c r="H5" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-    </row>
-    <row r="6" spans="2:26" s="16" customFormat="1" ht="15">
-      <c r="C6" s="186" t="s">
+      <c r="C5" s="812" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="812" t="s">
+        <v>565</v>
+      </c>
+      <c r="E5" s="99"/>
+    </row>
+    <row r="6" spans="2:18" ht="31.5" customHeight="1">
+      <c r="B6" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="186" t="s">
+      <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="188" t="str">
-        <f t="shared" ref="E6:E11" si="0">D6</f>
+      <c r="D6" s="188" t="str">
+        <f>C6</f>
         <v>PJ</v>
       </c>
-      <c r="F6" s="188" t="s">
+      <c r="E6" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-    </row>
-    <row r="7" spans="2:26" s="16" customFormat="1" ht="15">
-      <c r="C7" s="54" t="str">
-        <f>COM_Commodities!D34</f>
-        <v>CLIG</v>
-      </c>
-      <c r="D7" s="179">
-        <f>K21*J16</f>
-        <v>35.99770153276075</v>
-      </c>
-      <c r="E7" s="179">
-        <f t="shared" si="0"/>
-        <v>35.99770153276075</v>
-      </c>
-      <c r="F7" s="54" t="str">
-        <f>COM_Commodities!E34</f>
-        <v>Commercial Lighting Demand</v>
-      </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="75"/>
-    </row>
-    <row r="8" spans="2:26" s="16" customFormat="1" ht="15">
-      <c r="C8" s="54" t="str">
-        <f>COM_Commodities!D35</f>
-        <v>CCOK</v>
-      </c>
-      <c r="D8" s="179">
-        <f>K36*J27</f>
-        <v>0.84071163403600058</v>
-      </c>
-      <c r="E8" s="179">
-        <f t="shared" si="0"/>
-        <v>0.84071163403600058</v>
-      </c>
-      <c r="F8" s="54" t="str">
-        <f>COM_Commodities!E35</f>
-        <v>Commercial Cooking Demand</v>
-      </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="136"/>
-      <c r="S8" s="75"/>
-    </row>
-    <row r="9" spans="2:26" s="16" customFormat="1" ht="15">
-      <c r="C9" s="54" t="str">
-        <f>COM_Commodities!D36</f>
-        <v>CREF</v>
-      </c>
-      <c r="D9" s="179">
-        <f>K46*J42</f>
-        <v>2.595378298783547</v>
-      </c>
-      <c r="E9" s="179">
-        <f t="shared" si="0"/>
-        <v>2.595378298783547</v>
-      </c>
-      <c r="F9" s="54" t="str">
-        <f>COM_Commodities!E36</f>
-        <v>Commercial Refrigeration Demand</v>
-      </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="136"/>
-      <c r="S9" s="75"/>
-    </row>
-    <row r="10" spans="2:26" s="16" customFormat="1" ht="15">
-      <c r="C10" s="54" t="str">
-        <f>COM_Commodities!D37</f>
-        <v>CPLI</v>
-      </c>
-      <c r="D10" s="179">
-        <f>K54*J52</f>
-        <v>1.1448908452668221</v>
-      </c>
-      <c r="E10" s="179">
-        <f t="shared" si="0"/>
-        <v>1.1448908452668221</v>
-      </c>
-      <c r="F10" s="54" t="str">
-        <f>COM_Commodities!E37</f>
-        <v>Commercial Public Lighting Demand</v>
-      </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="75"/>
-    </row>
-    <row r="11" spans="2:26" s="16" customFormat="1" ht="15">
-      <c r="C11" s="54" t="str">
-        <f>COM_Commodities!D38</f>
-        <v>COEL</v>
-      </c>
-      <c r="D11" s="179">
-        <f>K62*J60</f>
-        <v>15.911170581631776</v>
-      </c>
-      <c r="E11" s="179">
-        <f t="shared" si="0"/>
-        <v>15.911170581631776</v>
-      </c>
-      <c r="F11" s="54" t="str">
-        <f>COM_Commodities!E38</f>
-        <v>Commercial Other Electric Demand</v>
-      </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="75"/>
-    </row>
-    <row r="12" spans="2:26" customFormat="1">
-      <c r="B12" s="378"/>
-    </row>
-    <row r="13" spans="2:26" s="16" customFormat="1" ht="18.75">
-      <c r="C13" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="68" t="s">
+    </row>
+    <row r="7" spans="2:18" ht="15">
+      <c r="B7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C7">
+        <v>7.8120000000000003</v>
+      </c>
+      <c r="D7" s="378">
+        <v>7.8120000000000003</v>
+      </c>
+      <c r="E7" s="811" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="378" customFormat="1" ht="15">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="2:18" s="378" customFormat="1" ht="15">
+      <c r="E9" s="25"/>
+    </row>
+    <row r="11" spans="2:18" ht="18.75">
+      <c r="B11" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="90" t="s">
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+    </row>
+    <row r="12" spans="2:18" ht="45.75" thickBot="1">
+      <c r="B12" s="189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="189" t="s">
+        <v>603</v>
+      </c>
+      <c r="D12" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="189" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="185" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="128" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="202" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" s="134"/>
-      <c r="S13" s="85"/>
-      <c r="U13" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" s="16" customFormat="1" ht="60.75" thickBot="1">
-      <c r="C14" s="189" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="189" t="s">
-        <v>603</v>
-      </c>
-      <c r="E14" s="189" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="189" t="s">
-        <v>245</v>
-      </c>
-      <c r="H14" s="189" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="185" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="128" t="s">
-        <v>210</v>
-      </c>
-      <c r="K14" s="128" t="s">
-        <v>239</v>
-      </c>
-      <c r="L14" s="128" t="s">
-        <v>238</v>
-      </c>
-      <c r="M14" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="N14" s="69"/>
-      <c r="O14" s="125" t="s">
-        <v>128</v>
-      </c>
-      <c r="P14" s="125" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q14" s="166" t="s">
-        <v>145</v>
-      </c>
-      <c r="R14" s="125" t="s">
+      <c r="O12" s="90"/>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="85"/>
+    </row>
+    <row r="13" spans="2:18" ht="75.75" thickBot="1">
+      <c r="B13" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="201" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="125" t="s">
+        <v>644</v>
+      </c>
+      <c r="P13" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="S14" s="125" t="s">
+      <c r="R13" s="125" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:26" s="16" customFormat="1" ht="48" thickBot="1">
-      <c r="C15" s="190" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="190" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="190"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="201" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="201" t="s">
-        <v>108</v>
-      </c>
-      <c r="N15" s="69"/>
-      <c r="O15" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="133" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="223" t="s">
-        <v>130</v>
-      </c>
-      <c r="V15" s="224" t="s">
-        <v>131</v>
-      </c>
-      <c r="W15" s="224" t="s">
-        <v>132</v>
-      </c>
-      <c r="X15" s="225" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z15" s="367" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" s="16" customFormat="1" ht="15">
-      <c r="C16" s="54" t="str">
-        <f>$C$7</f>
-        <v>CLIG</v>
-      </c>
-      <c r="D16" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E16" s="54" t="str">
-        <f>LEFT(C16,5)&amp;RIGHT(H16,3)&amp;"_00_IStd"</f>
-        <v>CLIGELC_00_IStd</v>
-      </c>
-      <c r="F16" s="106" t="str">
-        <f>"Existing commercial - Lighting "&amp;RIGHT(H16,3)&amp;" Incandescent STD"</f>
-        <v>Existing commercial - Lighting ELC Incandescent STD</v>
-      </c>
-      <c r="G16" s="198">
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="54" t="str">
+    <row r="14" spans="2:18" ht="47.25">
+      <c r="B14" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="D14" s="54" t="str">
+        <f>LEFT(B14,5)&amp;RIGHT(G14,3)&amp;"_00"</f>
+        <v>CDCEELC_00</v>
+      </c>
+      <c r="E14" s="106" t="str">
+        <f>"Existing commercial - Data Centres "&amp;RIGHT(G14,3)</f>
+        <v>Existing commercial - Data Centres ELC</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54" t="str">
         <f>COM_Balance!$L$13</f>
         <v>COMELC</v>
       </c>
-      <c r="I16" s="200">
+      <c r="H14" s="92">
         <v>1</v>
       </c>
-      <c r="J16" s="207">
-        <f>R16</f>
-        <v>1.0512000000000002E-3</v>
-      </c>
-      <c r="K16" s="206">
-        <f>W16</f>
-        <v>2820.7898537829165</v>
-      </c>
-      <c r="L16" s="72">
+      <c r="I14" s="138">
         <v>1</v>
       </c>
-      <c r="M16" s="204"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="139">
-        <f>IF(I16=0,0,K16*J16/I16)</f>
-        <v>2.9652142942966022</v>
-      </c>
-      <c r="P16" s="139">
-        <f>COM_Balance!L42*G16</f>
-        <v>2.9652142942966018</v>
-      </c>
-      <c r="Q16" s="124">
-        <f>I16</f>
-        <v>1</v>
-      </c>
-      <c r="R16" s="112">
-        <f>IF(S21=0,0,SUMPRODUCT(Q16:Q19,P16:P19)/S21)</f>
-        <v>1.0512000000000002E-3</v>
-      </c>
-      <c r="S16" s="76">
-        <f>W16</f>
-        <v>2820.7898537829165</v>
-      </c>
-      <c r="U16" s="215">
-        <v>100</v>
-      </c>
-      <c r="V16" s="216">
-        <v>8</v>
-      </c>
-      <c r="W16" s="217">
-        <f>P16/(U16*3600*V16*365)*I16*10^12</f>
-        <v>2820.7898537829165</v>
-      </c>
-      <c r="X16" s="218">
-        <v>1000</v>
-      </c>
-      <c r="Z16" s="374"/>
-    </row>
-    <row r="17" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="C17" s="54" t="str">
-        <f>$C$7</f>
-        <v>CLIG</v>
-      </c>
-      <c r="D17" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E17" s="54" t="str">
-        <f>LEFT(C17,5)&amp;RIGHT(H17,3)&amp;"_00_IImp"</f>
-        <v>CLIGELC_00_IImp</v>
-      </c>
-      <c r="F17" s="106" t="str">
-        <f>"Existing commercial - Lighting "&amp;RIGHT(H17,3)&amp;" Incandescent IMP"</f>
-        <v>Existing commercial - Lighting ELC Incandescent IMP</v>
-      </c>
-      <c r="G17" s="199">
-        <v>0.3</v>
-      </c>
-      <c r="H17" s="54" t="str">
-        <f>COM_Balance!$L$13</f>
-        <v>COMELC</v>
-      </c>
-      <c r="I17" s="200">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J17" s="116">
-        <f>J16</f>
-        <v>1.0512000000000002E-3</v>
-      </c>
-      <c r="K17" s="206">
-        <f>W17</f>
-        <v>4654.303258741812</v>
-      </c>
-      <c r="L17" s="72">
-        <v>1.5</v>
-      </c>
-      <c r="M17" s="204"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="139">
-        <f>IF(I17=0,0,K17*J17/I17)</f>
-        <v>4.4478214414449022</v>
-      </c>
-      <c r="P17" s="139">
-        <f>COM_Balance!L42*G17</f>
-        <v>4.4478214414449022</v>
-      </c>
-      <c r="Q17" s="124">
-        <f>I17</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R17" s="73"/>
-      <c r="S17" s="76">
-        <f>W17</f>
-        <v>4654.303258741812</v>
-      </c>
-      <c r="U17" s="211">
-        <v>100</v>
-      </c>
-      <c r="V17" s="212">
-        <v>8</v>
-      </c>
-      <c r="W17" s="213">
-        <f>P17/(U17*3600*V17*365)*I17*10^12</f>
-        <v>4654.303258741812</v>
-      </c>
-      <c r="X17" s="214">
-        <v>1500</v>
-      </c>
-      <c r="Z17" s="375"/>
-    </row>
-    <row r="18" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="C18" s="54" t="str">
-        <f>$C$7</f>
-        <v>CLIG</v>
-      </c>
-      <c r="D18" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E18" s="54" t="str">
-        <f>LEFT(C18,5)&amp;RIGHT(H18,3)&amp;"_00_Hal"</f>
-        <v>CLIGELC_00_Hal</v>
-      </c>
-      <c r="F18" s="106" t="str">
-        <f>"Existing commercial - Lighting "&amp;RIGHT(H18,3)&amp;" Halogen"</f>
-        <v>Existing commercial - Lighting ELC Halogen</v>
-      </c>
-      <c r="G18" s="199">
-        <f>1-SUM(G16:G17,G19)</f>
-        <v>0.15999999999999992</v>
-      </c>
-      <c r="H18" s="54" t="str">
-        <f>COM_Balance!$L$13</f>
-        <v>COMELC</v>
-      </c>
-      <c r="I18" s="200">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J18" s="116">
-        <f>J17</f>
-        <v>1.0512000000000002E-3</v>
-      </c>
-      <c r="K18" s="206">
-        <f>W18</f>
-        <v>5190.2533309605633</v>
-      </c>
-      <c r="L18" s="72">
-        <v>5</v>
-      </c>
-      <c r="M18" s="204"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="139">
-        <f>IF(I18=0,0,K18*J18/I18)</f>
-        <v>2.3721714354372807</v>
-      </c>
-      <c r="P18" s="139">
-        <f>COM_Balance!L42*G18</f>
-        <v>2.3721714354372803</v>
-      </c>
-      <c r="Q18" s="124">
-        <f>I18</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R18" s="73"/>
-      <c r="S18" s="76">
-        <f>W18</f>
-        <v>5190.2533309605633</v>
-      </c>
-      <c r="U18" s="211">
-        <v>100</v>
-      </c>
-      <c r="V18" s="212">
-        <v>8</v>
-      </c>
-      <c r="W18" s="213">
-        <f>P18/(U18*3600*V18*365)*I18*10^12</f>
-        <v>5190.2533309605633</v>
-      </c>
-      <c r="X18" s="214">
-        <v>5000</v>
-      </c>
-      <c r="Z18" s="375"/>
-    </row>
-    <row r="19" spans="3:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="C19" s="54" t="str">
-        <f>$C$7</f>
-        <v>CLIG</v>
-      </c>
-      <c r="D19" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E19" s="54" t="str">
-        <f>LEFT(C19,5)&amp;RIGHT(H19,3)&amp;"_00_Flu"</f>
-        <v>CLIGELC_00_Flu</v>
-      </c>
-      <c r="F19" s="106" t="str">
-        <f>"Existing commercial - Lighting "&amp;RIGHT(H19,3)&amp;" Fluoreshent"</f>
-        <v>Existing commercial - Lighting ELC Fluoreshent</v>
-      </c>
-      <c r="G19" s="119">
-        <v>0.34</v>
-      </c>
-      <c r="H19" s="54" t="str">
-        <f>COM_Balance!$L$13</f>
-        <v>COMELC</v>
-      </c>
-      <c r="I19" s="200">
-        <v>4.5</v>
-      </c>
-      <c r="J19" s="116">
-        <f>J18</f>
-        <v>1.0512000000000002E-3</v>
-      </c>
-      <c r="K19" s="206">
-        <f>W19</f>
-        <v>21579.042381439311</v>
-      </c>
-      <c r="L19" s="72">
-        <v>8</v>
-      </c>
-      <c r="M19" s="204"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="139">
-        <f>IF(I19=0,0,K19*J19/I19)</f>
-        <v>5.0408643003042242</v>
-      </c>
-      <c r="P19" s="139">
-        <f>COM_Balance!L42*G19</f>
-        <v>5.0408643003042233</v>
-      </c>
-      <c r="Q19" s="124">
-        <f>I19</f>
-        <v>4.5</v>
-      </c>
-      <c r="R19" s="73"/>
-      <c r="S19" s="76">
-        <f>W19</f>
-        <v>21579.042381439311</v>
-      </c>
-      <c r="U19" s="219">
-        <v>100</v>
-      </c>
-      <c r="V19" s="220">
-        <v>8</v>
-      </c>
-      <c r="W19" s="221">
-        <f>P19/(U19*3600*V19*365)*I19*10^12</f>
-        <v>21579.042381439311</v>
-      </c>
-      <c r="X19" s="222">
-        <v>8000</v>
-      </c>
-      <c r="Z19" s="373">
-        <f>SUMPRODUCT('Commercial SEAI'!C45:G45,'Commercial SEAI'!C6:G6)/SUM('Commercial SEAI'!C6:G6)+50%*SUMPRODUCT('Commercial SEAI'!C44:G44,'Commercial SEAI'!C6:G6)/SUM('Commercial SEAI'!C6:G6)</f>
-        <v>0.6308100829423976</v>
-      </c>
-    </row>
-    <row r="20" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="54"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-    </row>
-    <row r="21" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="C21" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="115">
-        <f>SUM(K16:K20)</f>
-        <v>34244.388824924601</v>
-      </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="76">
-        <f>SUM(O16:O19)</f>
-        <v>14.826071471483008</v>
-      </c>
-      <c r="P21" s="76">
-        <f>SUM(P16:P19)</f>
-        <v>14.826071471483008</v>
-      </c>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="158">
-        <f>SUM(W16:W19)</f>
-        <v>34244.388824924601</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="J22" s="94"/>
-      <c r="K22" s="368">
-        <f>K19/SUM(K16:K19)</f>
-        <v>0.63014827018121922</v>
-      </c>
-      <c r="N22" s="69"/>
-      <c r="R22" s="94"/>
-    </row>
-    <row r="23" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="J23" s="94"/>
-      <c r="N23" s="69"/>
-      <c r="R23" s="94"/>
-    </row>
-    <row r="24" spans="3:26" s="16" customFormat="1" ht="18.75">
-      <c r="C24" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="101"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="202"/>
-      <c r="R24" s="134"/>
-      <c r="S24" s="85"/>
-    </row>
-    <row r="25" spans="3:26" s="16" customFormat="1" ht="45.75" thickBot="1">
-      <c r="C25" s="189" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="189" t="s">
-        <v>603</v>
-      </c>
-      <c r="E25" s="189" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="189" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="189" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="185" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="128" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" s="128" t="s">
-        <v>239</v>
-      </c>
-      <c r="L25" s="128" t="s">
-        <v>238</v>
-      </c>
-      <c r="M25" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="N25" s="192"/>
-      <c r="O25" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q25" s="166" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="S25" s="125" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="3:26" s="16" customFormat="1" ht="47.25">
-      <c r="C26" s="190" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="190" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="201" t="s">
+      <c r="J14" s="70"/>
+      <c r="K14" s="72"/>
+      <c r="N14" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="201" t="s">
+      <c r="R14" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="201" t="s">
-        <v>35</v>
-      </c>
-      <c r="N26" s="192"/>
-      <c r="O26" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="S26" s="133" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="C27" s="54" t="str">
-        <f>$C$8</f>
-        <v>CCOK</v>
-      </c>
-      <c r="D27" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E27" s="54" t="str">
-        <f t="shared" ref="E27:E34" si="1">LEFT(C27,5)&amp;RIGHT(H27,3)&amp;"_00"</f>
-        <v>CCOKCOA_00</v>
-      </c>
-      <c r="F27" s="106" t="str">
-        <f>"Existing commercial - Cooking "&amp;RIGHT(H27,3)</f>
-        <v>Existing commercial - Cooking COA</v>
-      </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54" t="str">
-        <f>COM_Balance!$D$13</f>
-        <v>COMCOA</v>
-      </c>
-      <c r="I27" s="92">
-        <v>1</v>
-      </c>
-      <c r="J27" s="79">
-        <f>R27</f>
-        <v>1.1575594601268406E-2</v>
-      </c>
-      <c r="K27" s="138">
-        <f>S27</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="70">
-        <v>15</v>
-      </c>
-      <c r="M27" s="72"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="139">
-        <f t="shared" ref="O27:O34" si="2">IF(I27=0,0,K27*J27/I27)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="172">
-        <f>COM_Balance!D43</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="203">
-        <f t="shared" ref="Q27:Q34" si="3">I27</f>
-        <v>1</v>
-      </c>
-      <c r="R27" s="74">
-        <f>IF(S36=0,0,SUMPRODUCT(Q27:Q34,P27:P34)/S36)</f>
-        <v>1.1575594601268406E-2</v>
-      </c>
-      <c r="S27" s="76">
-        <f>IF($P$36=0,0,Q27*P27/SUMPRODUCT($P$27:$P$34,$Q$27:$Q$34)*$S$36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="C28" s="54" t="str">
-        <f t="shared" ref="C28:C34" si="4">$C$8</f>
-        <v>CCOK</v>
-      </c>
-      <c r="D28" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E28" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>CCOKLPG_00</v>
-      </c>
-      <c r="F28" s="106" t="str">
-        <f t="shared" ref="F28:F34" si="5">"Existing commercial - Cooking "&amp;RIGHT(H28,3)</f>
-        <v>Existing commercial - Cooking LPG</v>
-      </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54" t="str">
-        <f>COM_Balance!$E$13</f>
-        <v>COMLPG</v>
-      </c>
-      <c r="I28" s="92">
-        <v>1</v>
-      </c>
-      <c r="J28" s="73">
-        <f t="shared" ref="J28:J34" si="6">$J$27</f>
-        <v>1.1575594601268406E-2</v>
-      </c>
-      <c r="K28" s="138">
-        <f t="shared" ref="K28:K34" si="7">S28</f>
-        <v>7.4549249811537219</v>
-      </c>
-      <c r="L28" s="70">
-        <v>15</v>
-      </c>
-      <c r="M28" s="72"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="139">
-        <f t="shared" si="2"/>
-        <v>8.6295189364703997E-2</v>
-      </c>
-      <c r="P28" s="172">
-        <f>COM_Balance!E43</f>
-        <v>8.6295189364703997E-2</v>
-      </c>
-      <c r="Q28" s="124">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R28" s="73"/>
-      <c r="S28" s="76">
-        <f>IF($P$36=0,0,Q28*P28/SUMPRODUCT($P$27:$P$34,$Q$27:$Q$34)*$S$36)</f>
-        <v>7.4549249811537219</v>
-      </c>
-    </row>
-    <row r="29" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="C29" s="54" t="str">
-        <f t="shared" si="4"/>
-        <v>CCOK</v>
-      </c>
-      <c r="D29" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E29" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>CCOKOIL_00</v>
-      </c>
-      <c r="F29" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v>Existing commercial - Cooking OIL</v>
-      </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54" t="str">
-        <f>COM_Balance!$F$13</f>
-        <v>COMOIL</v>
-      </c>
-      <c r="I29" s="92">
-        <v>1</v>
-      </c>
-      <c r="J29" s="73">
-        <f t="shared" si="6"/>
-        <v>1.1575594601268406E-2</v>
-      </c>
-      <c r="K29" s="138">
-        <f t="shared" si="7"/>
-        <v>20.725802933652879</v>
-      </c>
-      <c r="L29" s="70">
-        <v>15</v>
-      </c>
-      <c r="M29" s="72"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="139">
-        <f t="shared" si="2"/>
-        <v>0.23991349254574518</v>
-      </c>
-      <c r="P29" s="172">
-        <f>COM_Balance!F43</f>
-        <v>0.23991349254574518</v>
-      </c>
-      <c r="Q29" s="124">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R29" s="73"/>
-      <c r="S29" s="76">
-        <f t="shared" ref="S29:S34" si="8">IF($P$36=0,0,Q29*P29/SUMPRODUCT($P$27:$P$34,$Q$27:$Q$34)*$S$36)</f>
-        <v>20.725802933652879</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="C30" s="54" t="str">
-        <f t="shared" si="4"/>
-        <v>CCOK</v>
-      </c>
-      <c r="D30" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E30" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>CCOKGAS_00</v>
-      </c>
-      <c r="F30" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v>Existing commercial - Cooking GAS</v>
-      </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54" t="str">
-        <f>COM_Balance!$G$13</f>
-        <v>COMGAS</v>
-      </c>
-      <c r="I30" s="92">
-        <v>1</v>
-      </c>
-      <c r="J30" s="73">
-        <f t="shared" si="6"/>
-        <v>1.1575594601268406E-2</v>
-      </c>
-      <c r="K30" s="138">
-        <f t="shared" si="7"/>
-        <v>42.523296827944641</v>
-      </c>
-      <c r="L30" s="70">
-        <v>15</v>
-      </c>
-      <c r="M30" s="72"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="139">
-        <f t="shared" si="2"/>
-        <v>0.49223244518968995</v>
-      </c>
-      <c r="P30" s="172">
-        <f>COM_Balance!G43</f>
-        <v>0.49223244518968989</v>
-      </c>
-      <c r="Q30" s="124">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R30" s="73"/>
-      <c r="S30" s="76">
-        <f t="shared" si="8"/>
-        <v>42.523296827944641</v>
-      </c>
-    </row>
-    <row r="31" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="C31" s="54" t="str">
-        <f t="shared" si="4"/>
-        <v>CCOK</v>
-      </c>
-      <c r="D31" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E31" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>CCOKBIO_00</v>
-      </c>
-      <c r="F31" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v>Existing commercial - Cooking BIO</v>
-      </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54" t="str">
-        <f>COM_Balance!$H$13</f>
-        <v>COMBIO</v>
-      </c>
-      <c r="I31" s="92">
-        <v>1</v>
-      </c>
-      <c r="J31" s="73">
-        <f t="shared" si="6"/>
-        <v>1.1575594601268406E-2</v>
-      </c>
-      <c r="K31" s="138">
-        <f t="shared" si="7"/>
-        <v>1.9239190471840706</v>
-      </c>
-      <c r="L31" s="70">
-        <v>15</v>
-      </c>
-      <c r="M31" s="72"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="139">
-        <f t="shared" si="2"/>
-        <v>2.2270506935861384E-2</v>
-      </c>
-      <c r="P31" s="172">
-        <f>COM_Balance!H43</f>
-        <v>2.2270506935861384E-2</v>
-      </c>
-      <c r="Q31" s="124">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R31" s="73"/>
-      <c r="S31" s="76">
-        <f t="shared" si="8"/>
-        <v>1.9239190471840706</v>
-      </c>
-    </row>
-    <row r="32" spans="3:26" s="16" customFormat="1" ht="15">
-      <c r="C32" s="54" t="str">
-        <f t="shared" si="4"/>
-        <v>CCOK</v>
-      </c>
-      <c r="D32" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E32" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>CCOKBGS_00</v>
-      </c>
-      <c r="F32" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v>Existing commercial - Cooking BGS</v>
-      </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54" t="str">
-        <f>COM_Balance!$I$13</f>
-        <v>COMBGS</v>
-      </c>
-      <c r="I32" s="92">
-        <v>1</v>
-      </c>
-      <c r="J32" s="73">
-        <f t="shared" si="6"/>
-        <v>1.1575594601268406E-2</v>
-      </c>
-      <c r="K32" s="138">
-        <f>S32</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="70">
-        <v>15</v>
-      </c>
-      <c r="M32" s="72"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="139">
-        <f>IF(I32=0,0,K32*J32/I32)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="172">
-        <f>COM_Balance!I43</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="124">
-        <f>I32</f>
-        <v>1</v>
-      </c>
-      <c r="R32" s="73"/>
-      <c r="S32" s="76">
-        <f>IF($P$36=0,0,Q32*P32/SUMPRODUCT($P$27:$P$34,$Q$27:$Q$34)*$S$36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C33" s="54" t="str">
-        <f t="shared" si="4"/>
-        <v>CCOK</v>
-      </c>
-      <c r="D33" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E33" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>CCOKSOL_00</v>
-      </c>
-      <c r="F33" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v>Existing commercial - Cooking SOL</v>
-      </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54" t="str">
-        <f>COM_Balance!$J$13</f>
-        <v>COMSOL</v>
-      </c>
-      <c r="I33" s="92">
-        <v>1</v>
-      </c>
-      <c r="J33" s="73">
-        <f t="shared" si="6"/>
-        <v>1.1575594601268406E-2</v>
-      </c>
-      <c r="K33" s="138">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="70">
-        <v>15</v>
-      </c>
-      <c r="M33" s="72"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="172">
-        <f>COM_Balance!J43</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="124">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R33" s="73"/>
-      <c r="S33" s="76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C34" s="54" t="str">
-        <f t="shared" si="4"/>
-        <v>CCOK</v>
-      </c>
-      <c r="D34" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E34" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>CCOKELC_00</v>
-      </c>
-      <c r="F34" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v>Existing commercial - Cooking ELC</v>
-      </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54" t="str">
-        <f>COM_Balance!$L$13</f>
-        <v>COMELC</v>
-      </c>
-      <c r="I34" s="92">
-        <v>1</v>
-      </c>
-      <c r="J34" s="73">
-        <f t="shared" si="6"/>
-        <v>1.1575594601268406E-2</v>
-      </c>
-      <c r="K34" s="138">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="70">
-        <v>15</v>
-      </c>
-      <c r="M34" s="72"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="172">
-        <f>COM_Balance!K43</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="124">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R34" s="73"/>
-      <c r="S34" s="76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="165"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="54"/>
-    </row>
-    <row r="36" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C36" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="108"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="115">
-        <f>SUM(K27:K35)</f>
-        <v>72.627943789935316</v>
-      </c>
-      <c r="L36" s="54"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="76">
-        <f>SUM(O27:O34)</f>
-        <v>0.84071163403600047</v>
-      </c>
-      <c r="P36" s="76">
-        <f>SUM(P27:P34)</f>
-        <v>0.84071163403600047</v>
-      </c>
-      <c r="Q36" s="165"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="158">
-        <f>COM_Balance!C56*0.4</f>
-        <v>72.627943789935316</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="J37" s="94"/>
-      <c r="N37" s="69"/>
-      <c r="R37" s="94"/>
-    </row>
-    <row r="38" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="J38" s="94"/>
-      <c r="N38" s="69"/>
-      <c r="R38" s="94"/>
-    </row>
-    <row r="39" spans="3:19" s="16" customFormat="1" ht="18.75">
-      <c r="C39" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="202"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="85"/>
-    </row>
-    <row r="40" spans="3:19" s="16" customFormat="1" ht="45.75" thickBot="1">
-      <c r="C40" s="189" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="189" t="s">
-        <v>603</v>
-      </c>
-      <c r="E40" s="189" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="189" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="189" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="185" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" s="128" t="s">
-        <v>210</v>
-      </c>
-      <c r="K40" s="128" t="s">
-        <v>239</v>
-      </c>
-      <c r="L40" s="128" t="s">
-        <v>238</v>
-      </c>
-      <c r="M40" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="N40" s="192"/>
-      <c r="O40" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="P40" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q40" s="166" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="S40" s="125" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="3:19" s="16" customFormat="1" ht="48" thickBot="1">
-      <c r="C41" s="190" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="201" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="M41" s="201" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="192"/>
-      <c r="O41" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="P41" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="154"/>
-      <c r="R41" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="S41" s="133" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C42" s="54" t="str">
-        <f>$C$9</f>
-        <v>CREF</v>
-      </c>
-      <c r="D42" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E42" s="54" t="str">
-        <f>LEFT(C42,5)&amp;RIGHT(H42,3)&amp;"_00_Ref"</f>
-        <v>CREFELC_00_Ref</v>
-      </c>
-      <c r="F42" s="106" t="str">
-        <f>"Existing commercial - Refrigeration "&amp;RIGHT(H42,3)&amp;" Refrigerator"</f>
-        <v>Existing commercial - Refrigeration ELC Refrigerator</v>
-      </c>
-      <c r="G42" s="118">
-        <v>0.3</v>
-      </c>
-      <c r="H42" s="54" t="str">
-        <f>COM_Balance!$L$13</f>
-        <v>COMELC</v>
-      </c>
-      <c r="I42" s="88">
-        <v>0.9</v>
-      </c>
-      <c r="J42" s="138">
-        <f>R42</f>
-        <v>3.5735257854611201E-2</v>
-      </c>
-      <c r="K42" s="138">
-        <f>S42</f>
-        <v>21.199507917062203</v>
-      </c>
-      <c r="L42" s="70">
-        <v>15</v>
-      </c>
-      <c r="M42" s="72"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="139">
-        <f>IF(I42=0,0,K42*J42/I42)</f>
-        <v>0.84174431311898823</v>
-      </c>
-      <c r="P42" s="139">
-        <f>COM_Balance!L44*G42</f>
-        <v>0.84174431311898812</v>
-      </c>
-      <c r="Q42" s="203">
-        <f>I42</f>
-        <v>0.9</v>
-      </c>
-      <c r="R42" s="73">
-        <f>IF(S46=0,0,SUMPRODUCT(Q42:Q44,P42:P44)/S46)</f>
-        <v>3.5735257854611201E-2</v>
-      </c>
-      <c r="S42" s="76">
-        <f>IF($P$46*Q42=0,0,Q42*P42/SUMPRODUCT($P$42:$P$44,$Q$42:$Q$44)*$S$46)</f>
-        <v>21.199507917062203</v>
-      </c>
-    </row>
-    <row r="43" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C43" s="54" t="str">
-        <f>$C$9</f>
-        <v>CREF</v>
-      </c>
-      <c r="D43" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E43" s="54" t="str">
-        <f>LEFT(C43,5)&amp;RIGHT(H43,3)&amp;"_00_Fre"</f>
-        <v>CREFELC_00_Fre</v>
-      </c>
-      <c r="F43" s="106" t="str">
-        <f>"Existing commercial - Refrigeration "&amp;RIGHT(H43,3)&amp;" Freezer"</f>
-        <v>Existing commercial - Refrigeration ELC Freezer</v>
-      </c>
-      <c r="G43" s="120">
-        <v>0.3</v>
-      </c>
-      <c r="H43" s="54" t="str">
-        <f>COM_Balance!$L$13</f>
-        <v>COMELC</v>
-      </c>
-      <c r="I43" s="88">
-        <v>0.85</v>
-      </c>
-      <c r="J43" s="73">
-        <f>$J$42</f>
-        <v>3.5735257854611201E-2</v>
-      </c>
-      <c r="K43" s="138">
-        <f>S43</f>
-        <v>20.021757477225414</v>
-      </c>
-      <c r="L43" s="70">
-        <v>15</v>
-      </c>
-      <c r="M43" s="72"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="139">
-        <f>IF(I43=0,0,K43*J43/I43)</f>
-        <v>0.84174431311898823</v>
-      </c>
-      <c r="P43" s="139">
-        <f>COM_Balance!L44*G43</f>
-        <v>0.84174431311898812</v>
-      </c>
-      <c r="Q43" s="124">
-        <f>I43</f>
-        <v>0.85</v>
-      </c>
-      <c r="R43" s="73"/>
-      <c r="S43" s="76">
-        <f>IF($P$46*Q43=0,0,Q43*P43/SUMPRODUCT($P$42:$P$44,$Q$42:$Q$44)*$S$46)</f>
-        <v>20.021757477225414</v>
-      </c>
-    </row>
-    <row r="44" spans="3:19" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="C44" s="54" t="str">
-        <f>$C$9</f>
-        <v>CREF</v>
-      </c>
-      <c r="D44" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E44" s="54" t="str">
-        <f>LEFT(C44,5)&amp;RIGHT(H44,3)&amp;"_00_RF"</f>
-        <v>CREFELC_00_RF</v>
-      </c>
-      <c r="F44" s="106" t="str">
-        <f>"Existing commercial - Refrigeration "&amp;RIGHT(H44,3)&amp;" Refrigerator + Freezer"</f>
-        <v>Existing commercial - Refrigeration ELC Refrigerator + Freezer</v>
-      </c>
-      <c r="G44" s="119">
-        <f>1-G43-G42</f>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="H44" s="54" t="str">
-        <f>COM_Balance!$L$13</f>
-        <v>COMELC</v>
-      </c>
-      <c r="I44" s="88">
-        <v>1</v>
-      </c>
-      <c r="J44" s="73">
-        <f>$J$42</f>
-        <v>3.5735257854611201E-2</v>
-      </c>
-      <c r="K44" s="138">
-        <f>S44</f>
-        <v>31.406678395647706</v>
-      </c>
-      <c r="L44" s="70">
-        <v>15</v>
-      </c>
-      <c r="M44" s="72"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="139">
-        <f>IF(I44=0,0,K44*J44/I44)</f>
-        <v>1.1223257508253175</v>
-      </c>
-      <c r="P44" s="139">
-        <f>COM_Balance!L44*G44</f>
-        <v>1.1223257508253175</v>
-      </c>
-      <c r="Q44" s="124">
-        <f>I44</f>
-        <v>1</v>
-      </c>
-      <c r="R44" s="73"/>
-      <c r="S44" s="76">
-        <f>IF($P$46*Q44=0,0,Q44*P44/SUMPRODUCT($P$42:$P$44,$Q$42:$Q$44)*$S$46)</f>
-        <v>31.406678395647706</v>
-      </c>
-    </row>
-    <row r="45" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="165"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="54"/>
-    </row>
-    <row r="46" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C46" s="208" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="208"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="115">
-        <f>SUM(K42:K45)</f>
-        <v>72.627943789935316</v>
-      </c>
-      <c r="L46" s="54"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="76">
-        <f>SUM(O42:O44)</f>
-        <v>2.8058143770632942</v>
-      </c>
-      <c r="P46" s="76">
-        <f>SUM(P42:P44)</f>
-        <v>2.8058143770632937</v>
-      </c>
-      <c r="Q46" s="165"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="158">
-        <f>COM_Balance!C56*0.4</f>
-        <v>72.627943789935316</v>
-      </c>
-    </row>
-    <row r="47" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="J47" s="94"/>
-      <c r="N47" s="69"/>
-      <c r="R47" s="94"/>
-    </row>
-    <row r="48" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="J48" s="94"/>
-      <c r="N48" s="69"/>
-      <c r="R48" s="94"/>
-    </row>
-    <row r="49" spans="3:19" s="16" customFormat="1" ht="18.75">
-      <c r="C49" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="I49" s="101"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="P49" s="90"/>
-      <c r="Q49" s="202"/>
-      <c r="R49" s="134"/>
-      <c r="S49" s="85"/>
-    </row>
-    <row r="50" spans="3:19" s="16" customFormat="1" ht="45.75" thickBot="1">
-      <c r="C50" s="189" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="189" t="s">
-        <v>603</v>
-      </c>
-      <c r="E50" s="189" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="189" t="s">
-        <v>94</v>
-      </c>
-      <c r="H50" s="189" t="s">
-        <v>39</v>
-      </c>
-      <c r="I50" s="185" t="s">
-        <v>81</v>
-      </c>
-      <c r="J50" s="128" t="s">
-        <v>210</v>
-      </c>
-      <c r="K50" s="128" t="s">
-        <v>239</v>
-      </c>
-      <c r="L50" s="128" t="s">
-        <v>238</v>
-      </c>
-      <c r="M50" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="N50" s="192"/>
-      <c r="O50" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="P50" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q50" s="166" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="S50" s="125" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="3:19" s="16" customFormat="1" ht="47.25">
-      <c r="C51" s="190" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="190"/>
-      <c r="E51" s="190"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="190" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="190"/>
-      <c r="I51" s="190"/>
-      <c r="J51" s="201" t="s">
-        <v>38</v>
-      </c>
-      <c r="K51" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="M51" s="201" t="s">
-        <v>35</v>
-      </c>
-      <c r="N51" s="192"/>
-      <c r="O51" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="P51" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="S51" s="133" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C52" s="54" t="str">
-        <f>C10</f>
-        <v>CPLI</v>
-      </c>
-      <c r="D52" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E52" s="209" t="str">
-        <f>LEFT(C52,5)&amp;RIGHT(H52,3)&amp;"_00"</f>
-        <v>CPLIELC_00</v>
-      </c>
-      <c r="F52" s="106" t="str">
-        <f>"Existing commercial - Public Lighting "&amp;RIGHT(H52,3)</f>
-        <v>Existing commercial - Public Lighting ELC</v>
-      </c>
-      <c r="G52" s="54"/>
-      <c r="H52" s="209" t="str">
-        <f>COM_Balance!$L$13</f>
-        <v>COMELC</v>
-      </c>
-      <c r="I52" s="92">
-        <v>1</v>
-      </c>
-      <c r="J52" s="210">
-        <f>R52</f>
-        <v>5.7101787793856456E-4</v>
-      </c>
-      <c r="K52" s="138">
-        <f>S52</f>
-        <v>2005</v>
-      </c>
-      <c r="L52" s="193">
-        <v>15</v>
-      </c>
-      <c r="M52" s="205"/>
-      <c r="N52" s="192"/>
-      <c r="O52" s="139">
-        <f>IF(I52=0,0,K52*J52/I52)</f>
-        <v>1.1448908452668221</v>
-      </c>
-      <c r="P52" s="139">
-        <f>COM_Balance!L45</f>
-        <v>1.1448908452668221</v>
-      </c>
-      <c r="Q52" s="203">
-        <f>I52</f>
-        <v>1</v>
-      </c>
-      <c r="R52" s="116">
-        <f>IF(S54=0,0,SUMPRODUCT(Q52,P52)/S54)</f>
-        <v>5.7101787793856456E-4</v>
-      </c>
-      <c r="S52" s="76">
-        <f>IF($P$54*Q52=0,0,Q52*P52/SUMPRODUCT($P$52,$Q$52)*$S$54)</f>
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="165"/>
-      <c r="R53" s="73"/>
-      <c r="S53" s="54"/>
-    </row>
-    <row r="54" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C54" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="108"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="115">
-        <f>SUM(K52:K53)</f>
-        <v>2005</v>
-      </c>
-      <c r="L54" s="54"/>
-      <c r="M54" s="100"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="76">
-        <f>SUM(O52)</f>
-        <v>1.1448908452668221</v>
-      </c>
-      <c r="P54" s="76">
-        <f>SUM(P52)</f>
-        <v>1.1448908452668221</v>
-      </c>
-      <c r="Q54" s="165"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="398">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="J55" s="94"/>
-      <c r="N55" s="69"/>
-      <c r="R55" s="94"/>
-    </row>
-    <row r="56" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="J56" s="94"/>
-      <c r="N56" s="69"/>
-      <c r="R56" s="94"/>
-    </row>
-    <row r="57" spans="3:19" s="16" customFormat="1" ht="18.75">
-      <c r="C57" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="I57" s="101"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="103"/>
-      <c r="L57" s="103"/>
-      <c r="M57" s="104"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="202"/>
-      <c r="R57" s="134"/>
-      <c r="S57" s="85"/>
-    </row>
-    <row r="58" spans="3:19" s="16" customFormat="1" ht="45.75" thickBot="1">
-      <c r="C58" s="189" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="189" t="s">
-        <v>603</v>
-      </c>
-      <c r="E58" s="189" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="189" t="s">
-        <v>94</v>
-      </c>
-      <c r="H58" s="189" t="s">
-        <v>39</v>
-      </c>
-      <c r="I58" s="185" t="s">
-        <v>81</v>
-      </c>
-      <c r="J58" s="128" t="s">
-        <v>210</v>
-      </c>
-      <c r="K58" s="128" t="s">
-        <v>239</v>
-      </c>
-      <c r="L58" s="128" t="s">
-        <v>238</v>
-      </c>
-      <c r="M58" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="N58" s="192"/>
-      <c r="O58" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="P58" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q58" s="166" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="S58" s="125" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" s="16" customFormat="1" ht="47.25">
-      <c r="C59" s="190" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="190"/>
-      <c r="E59" s="190"/>
-      <c r="F59" s="190"/>
-      <c r="G59" s="190" t="s">
-        <v>109</v>
-      </c>
-      <c r="H59" s="190"/>
-      <c r="I59" s="190"/>
-      <c r="J59" s="201" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="M59" s="201" t="s">
-        <v>35</v>
-      </c>
-      <c r="N59" s="192"/>
-      <c r="O59" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="P59" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="154"/>
-      <c r="R59" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="S59" s="133" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C60" s="54" t="str">
-        <f>C11</f>
-        <v>COEL</v>
-      </c>
-      <c r="D60" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E60" s="54" t="str">
-        <f>LEFT(C60,5)&amp;RIGHT(H60,3)&amp;"_00"</f>
-        <v>COELELC_00</v>
-      </c>
-      <c r="F60" s="106" t="str">
-        <f>"Existing commercial - Other "&amp;RIGHT(H60,3)</f>
-        <v>Existing commercial - Other ELC</v>
-      </c>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54" t="str">
-        <f>COM_Balance!$L$13</f>
-        <v>COMELC</v>
-      </c>
-      <c r="I60" s="92">
-        <v>1</v>
-      </c>
-      <c r="J60" s="138">
-        <f>R60</f>
-        <v>0.21907780602535418</v>
-      </c>
-      <c r="K60" s="138">
-        <f>S60</f>
-        <v>72.627943789935316</v>
-      </c>
-      <c r="L60" s="70">
-        <v>15</v>
-      </c>
-      <c r="M60" s="72"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="139">
-        <f>IF(I60=0,0,K60*J60/I60)</f>
-        <v>15.911170581631776</v>
-      </c>
-      <c r="P60" s="139">
-        <f>COM_Balance!L46</f>
-        <v>15.911170581631776</v>
-      </c>
-      <c r="Q60" s="203">
-        <f>I60</f>
-        <v>1</v>
-      </c>
-      <c r="R60" s="73">
-        <f>IF(S62=0,0,SUMPRODUCT(Q60,P60)/S62)</f>
-        <v>0.21907780602535418</v>
-      </c>
-      <c r="S60" s="76">
-        <f>IF($P$62*Q60=0,0,Q60*P60/SUMPRODUCT($P$60,$Q$60)*$S$62)</f>
-        <v>72.627943789935316</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="69"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="165"/>
-      <c r="R61" s="73"/>
-      <c r="S61" s="54"/>
-    </row>
-    <row r="62" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="C62" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="108"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="115">
-        <f>SUM(K60:K61)</f>
-        <v>72.627943789935316</v>
-      </c>
-      <c r="L62" s="54"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="76">
-        <f>SUM(O60)</f>
-        <v>15.911170581631776</v>
-      </c>
-      <c r="P62" s="76">
-        <f>SUM(P60)</f>
-        <v>15.911170581631776</v>
-      </c>
-      <c r="Q62" s="165"/>
-      <c r="R62" s="73"/>
-      <c r="S62" s="191">
-        <f>COM_Balance!C56*0.4</f>
-        <v>72.627943789935316</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="J63" s="94"/>
-      <c r="M63" s="69"/>
-      <c r="R63" s="94"/>
-    </row>
-    <row r="64" spans="3:19" s="16" customFormat="1" ht="15">
-      <c r="M64" s="69"/>
-      <c r="R64" s="94"/>
-    </row>
-    <row r="65" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="75"/>
-      <c r="M65" s="69"/>
-      <c r="R65" s="94"/>
-    </row>
-    <row r="66" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="75"/>
-      <c r="M66" s="69"/>
-      <c r="Q66" s="94"/>
-    </row>
-    <row r="67" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C67" s="194"/>
-      <c r="D67" s="195"/>
-      <c r="E67" s="195"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75"/>
-      <c r="M67" s="69"/>
-      <c r="Q67" s="94"/>
-    </row>
-    <row r="68" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C68" s="147"/>
-      <c r="D68" s="147"/>
-      <c r="E68" s="147"/>
-      <c r="F68" s="147"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="148"/>
-      <c r="K68" s="75"/>
-      <c r="M68" s="69"/>
-      <c r="Q68" s="94"/>
-    </row>
-    <row r="69" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C69" s="37"/>
-      <c r="D69" s="147"/>
-      <c r="E69" s="147"/>
-      <c r="F69" s="147"/>
-      <c r="G69" s="149"/>
-      <c r="H69" s="149"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="148"/>
-      <c r="K69" s="75"/>
-      <c r="M69" s="69"/>
-      <c r="Q69" s="94"/>
-    </row>
-    <row r="70" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="196"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="142"/>
-      <c r="H70" s="142"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="75"/>
-      <c r="M70" s="69"/>
-      <c r="Q70" s="94"/>
-    </row>
-    <row r="71" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="142"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="146"/>
-      <c r="K71" s="75"/>
-      <c r="M71" s="69"/>
-      <c r="Q71" s="94"/>
-    </row>
-    <row r="72" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="142"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="146"/>
-      <c r="K72" s="75"/>
-      <c r="M72" s="69"/>
-      <c r="Q72" s="94"/>
-    </row>
-    <row r="73" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="146"/>
-      <c r="K73" s="75"/>
-      <c r="M73" s="69"/>
-      <c r="Q73" s="94"/>
-    </row>
-    <row r="74" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C74" s="75"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="142"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="146"/>
-      <c r="K74" s="75"/>
-      <c r="M74" s="69"/>
-      <c r="Q74" s="94"/>
-    </row>
-    <row r="75" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C75" s="75"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="142"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="146"/>
-      <c r="K75" s="75"/>
-      <c r="M75" s="69"/>
-      <c r="Q75" s="94"/>
-    </row>
-    <row r="76" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="142"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="146"/>
-      <c r="K76" s="75"/>
-      <c r="M76" s="69"/>
-      <c r="Q76" s="94"/>
-    </row>
-    <row r="77" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="142"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="146"/>
-      <c r="K77" s="75"/>
-      <c r="M77" s="69"/>
-      <c r="Q77" s="94"/>
-    </row>
-    <row r="78" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C78" s="75"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="142"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="146"/>
-      <c r="K78" s="75"/>
-      <c r="M78" s="69"/>
-      <c r="Q78" s="94"/>
-    </row>
-    <row r="79" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C79" s="152"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="197"/>
-      <c r="K79" s="75"/>
-      <c r="M79" s="69"/>
-      <c r="Q79" s="94"/>
-    </row>
-    <row r="80" spans="3:18" s="16" customFormat="1" ht="15">
-      <c r="C80" s="144"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="75"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="142"/>
-      <c r="I80" s="75"/>
-      <c r="J80" s="146"/>
-      <c r="K80" s="75"/>
-      <c r="M80" s="69"/>
-      <c r="Q80" s="94"/>
-    </row>
-    <row r="81" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="C81" s="75"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="75"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="75"/>
-      <c r="M81" s="69"/>
-      <c r="Q81" s="94"/>
-    </row>
-    <row r="82" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="C82" s="75"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="M82" s="69"/>
-      <c r="Q82" s="94"/>
-    </row>
-    <row r="83" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="C83" s="75"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="M83" s="69"/>
-      <c r="Q83" s="94"/>
-    </row>
-    <row r="84" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="M84" s="69"/>
-      <c r="Q84" s="94"/>
-    </row>
-    <row r="85" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="M85" s="69"/>
-      <c r="Q85" s="94"/>
-    </row>
-    <row r="86" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="M86" s="69"/>
-      <c r="Q86" s="94"/>
-    </row>
-    <row r="87" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="M87" s="69"/>
-      <c r="Q87" s="94"/>
-    </row>
-    <row r="88" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="M88" s="69"/>
-      <c r="Q88" s="94"/>
-    </row>
-    <row r="89" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="M89" s="69"/>
-      <c r="Q89" s="94"/>
-    </row>
-    <row r="90" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="M90" s="69"/>
-      <c r="Q90" s="94"/>
-    </row>
-    <row r="91" spans="3:17" s="16" customFormat="1" ht="15">
-      <c r="M91" s="69"/>
-      <c r="Q91" s="94"/>
+    </row>
+    <row r="15" spans="2:18" ht="15">
+      <c r="N15" s="139">
+        <v>7.8120000000000003</v>
+      </c>
+      <c r="O15" s="139">
+        <v>7.8120000000000003</v>
+      </c>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="74"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFC000"/>
@@ -21297,10 +21542,10 @@
         <v>110</v>
       </c>
       <c r="N7" s="69"/>
-      <c r="O7" s="815" t="s">
+      <c r="O7" s="818" t="s">
         <v>237</v>
       </c>
-      <c r="P7" s="815"/>
+      <c r="P7" s="818"/>
     </row>
     <row r="8" spans="2:16" s="16" customFormat="1" ht="15">
       <c r="B8" s="186" t="s">
@@ -21444,7 +21689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -22213,12 +22458,12 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="343"/>
-      <c r="C53" s="816" t="s">
+      <c r="C53" s="819" t="s">
         <v>484</v>
       </c>
-      <c r="D53" s="817"/>
-      <c r="E53" s="817"/>
-      <c r="F53" s="818"/>
+      <c r="D53" s="820"/>
+      <c r="E53" s="820"/>
+      <c r="F53" s="821"/>
       <c r="G53" s="343"/>
     </row>
     <row r="54" spans="2:7" ht="12.75">
@@ -22239,12 +22484,12 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="343"/>
-      <c r="C56" s="819">
+      <c r="C56" s="822">
         <v>42703</v>
       </c>
-      <c r="D56" s="820"/>
-      <c r="E56" s="820"/>
-      <c r="F56" s="821"/>
+      <c r="D56" s="823"/>
+      <c r="E56" s="823"/>
+      <c r="F56" s="824"/>
       <c r="G56" s="343"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" thickBot="1">
@@ -22285,7 +22530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -22944,7 +23189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -23154,23 +23399,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="822" t="s">
+      <c r="A1" s="825" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="822"/>
-      <c r="C1" s="822"/>
-      <c r="D1" s="822"/>
-      <c r="E1" s="822"/>
-      <c r="F1" s="822"/>
-      <c r="G1" s="822"/>
-      <c r="H1" s="822"/>
-      <c r="I1" s="822"/>
-      <c r="J1" s="822"/>
-      <c r="K1" s="822"/>
-      <c r="L1" s="823"/>
-      <c r="M1" s="823"/>
-      <c r="N1" s="823"/>
-      <c r="O1" s="823"/>
+      <c r="B1" s="825"/>
+      <c r="C1" s="825"/>
+      <c r="D1" s="825"/>
+      <c r="E1" s="825"/>
+      <c r="F1" s="825"/>
+      <c r="G1" s="825"/>
+      <c r="H1" s="825"/>
+      <c r="I1" s="825"/>
+      <c r="J1" s="825"/>
+      <c r="K1" s="825"/>
+      <c r="L1" s="826"/>
+      <c r="M1" s="826"/>
+      <c r="N1" s="826"/>
+      <c r="O1" s="826"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="356" t="s">
@@ -24764,23 +25009,23 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="A37" s="824" t="s">
+      <c r="A37" s="827" t="s">
         <v>481</v>
       </c>
-      <c r="B37" s="824"/>
-      <c r="C37" s="824"/>
-      <c r="D37" s="824"/>
-      <c r="E37" s="824"/>
-      <c r="F37" s="824"/>
-      <c r="G37" s="824"/>
-      <c r="H37" s="824"/>
-      <c r="I37" s="824"/>
-      <c r="J37" s="824"/>
-      <c r="K37" s="824"/>
-      <c r="L37" s="824"/>
-      <c r="M37" s="824"/>
-      <c r="N37" s="824"/>
-      <c r="O37" s="824"/>
+      <c r="B37" s="827"/>
+      <c r="C37" s="827"/>
+      <c r="D37" s="827"/>
+      <c r="E37" s="827"/>
+      <c r="F37" s="827"/>
+      <c r="G37" s="827"/>
+      <c r="H37" s="827"/>
+      <c r="I37" s="827"/>
+      <c r="J37" s="827"/>
+      <c r="K37" s="827"/>
+      <c r="L37" s="827"/>
+      <c r="M37" s="827"/>
+      <c r="N37" s="827"/>
+      <c r="O37" s="827"/>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="B40" s="362"/>
@@ -24811,7 +25056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -25819,8 +26064,8 @@
   </sheetPr>
   <dimension ref="A1:AS81"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="65" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="65" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
@@ -33173,7 +33418,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Myriad Pro,Regular"&amp;14Ireland's Energy Balance &amp;A</oddHeader>
     <oddFooter>&amp;L&amp;G&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -33187,7 +33432,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:BM72"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -35234,10 +35479,10 @@
   <sheetPr codeName="Sheet14">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:K39"/>
+  <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -36052,6 +36297,25 @@
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
     </row>
+    <row r="40" spans="2:10">
+      <c r="C40" s="29" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D40" s="810" t="s">
+        <v>642</v>
+      </c>
+      <c r="E40" s="811" t="s">
+        <v>643</v>
+      </c>
+      <c r="F40" s="811" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="811"/>
+      <c r="H40" s="811"/>
+      <c r="I40" s="811"/>
+      <c r="J40" s="811"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36066,12 +36330,12 @@
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:J100"/>
+  <dimension ref="B2:J101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O44" sqref="O44"/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -38141,110 +38405,112 @@
       <c r="J86" s="55"/>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="C87" s="526" t="str">
+      <c r="B87" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="524" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D87" s="59" t="str">
+      <c r="D87" s="55" t="str">
+        <f>COM_DC!D14</f>
+        <v>CDCEELC_00</v>
+      </c>
+      <c r="E87" s="55" t="str">
+        <f>COM_DC!E14</f>
+        <v>Existing commercial - Data Centres ELC</v>
+      </c>
+      <c r="F87" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="526" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D88" s="59" t="str">
         <f>COM_PV!C9</f>
         <v>COMPVELC_00</v>
       </c>
-      <c r="E87" s="59" t="str">
+      <c r="E88" s="59" t="str">
         <f>COM_PV!D9</f>
         <v>Existing commercial - Solar PV</v>
       </c>
-      <c r="F87" s="59" t="s">
+      <c r="F88" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="59" t="s">
+      <c r="G88" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="H87" s="59" t="s">
+      <c r="H88" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="B88" s="56" t="s">
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="23" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D88" s="23" t="str">
-        <f>COM_FuelTechs!C21</f>
-        <v>COMELC_INF</v>
-      </c>
-      <c r="E88" s="23" t="str">
-        <f>COM_FuelTechs!D21</f>
-        <v>Fuel Tech - Electricity (COM)</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="56"/>
       <c r="C89" s="23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
       <c r="D89" s="23" t="str">
+        <f>COM_FuelTechs!C21</f>
+        <v>COMELC_INF</v>
+      </c>
+      <c r="E89" s="23" t="str">
+        <f>COM_FuelTechs!D21</f>
+        <v>Fuel Tech - Electricity (COM)</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="56"/>
+      <c r="C90" s="23" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D90" s="23" t="str">
         <f>COM_FuelTechs!C28</f>
         <v>COMHET_INF</v>
       </c>
-      <c r="E89" s="23" t="str">
+      <c r="E90" s="23" t="str">
         <f>COM_FuelTechs!D28</f>
         <v>Fuel Tech - Heat (COM)</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F90" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="G90" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H89" s="23" t="s">
+      <c r="H90" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="54"/>
-      <c r="C90" s="54" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D90" s="54" t="str">
-        <f>COM_FuelTechs!C6</f>
-        <v>COMCOA_INF</v>
-      </c>
-      <c r="E90" s="54" t="str">
-        <f>COM_FuelTechs!D6</f>
-        <v>Fuel Tech - Coal (COM)</v>
-      </c>
-      <c r="F90" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="57" t="s">
-        <v>381</v>
-      </c>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="54"/>
@@ -38253,12 +38519,12 @@
         <v>IE,National</v>
       </c>
       <c r="D91" s="54" t="str">
-        <f>COM_FuelTechs!C8</f>
-        <v>COMLPG_INF</v>
+        <f>COM_FuelTechs!C6</f>
+        <v>COMCOA_INF</v>
       </c>
       <c r="E91" s="54" t="str">
-        <f>COM_FuelTechs!D8</f>
-        <v>Fuel Tech - Liquified Petroleum Gas (COM)</v>
+        <f>COM_FuelTechs!D6</f>
+        <v>Fuel Tech - Coal (COM)</v>
       </c>
       <c r="F91" s="57" t="s">
         <v>10</v>
@@ -38277,12 +38543,12 @@
         <v>IE,National</v>
       </c>
       <c r="D92" s="54" t="str">
-        <f>COM_FuelTechs!C9</f>
-        <v>COMOIL_INF</v>
+        <f>COM_FuelTechs!C8</f>
+        <v>COMLPG_INF</v>
       </c>
       <c r="E92" s="54" t="str">
-        <f>COM_FuelTechs!D9</f>
-        <v>Fuel Tech - Oil (COM)</v>
+        <f>COM_FuelTechs!D8</f>
+        <v>Fuel Tech - Liquified Petroleum Gas (COM)</v>
       </c>
       <c r="F92" s="57" t="s">
         <v>10</v>
@@ -38301,12 +38567,12 @@
         <v>IE,National</v>
       </c>
       <c r="D93" s="54" t="str">
-        <f>COM_FuelTechs!C11</f>
-        <v>COMGAS_INF</v>
+        <f>COM_FuelTechs!C9</f>
+        <v>COMOIL_INF</v>
       </c>
       <c r="E93" s="54" t="str">
-        <f>COM_FuelTechs!D11</f>
-        <v>Fuel Tech - Natural Gas (COM)</v>
+        <f>COM_FuelTechs!D9</f>
+        <v>Fuel Tech - Oil (COM)</v>
       </c>
       <c r="F93" s="57" t="s">
         <v>10</v>
@@ -38314,9 +38580,7 @@
       <c r="G93" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="H93" s="54" t="s">
-        <v>378</v>
-      </c>
+      <c r="H93" s="54"/>
       <c r="I93" s="54"/>
       <c r="J93" s="54"/>
     </row>
@@ -38327,12 +38591,12 @@
         <v>IE,National</v>
       </c>
       <c r="D94" s="54" t="str">
-        <f>COM_FuelTechs!C12</f>
-        <v>COMBIO_INF</v>
+        <f>COM_FuelTechs!C11</f>
+        <v>COMGAS_INF</v>
       </c>
       <c r="E94" s="54" t="str">
-        <f>COM_FuelTechs!D12</f>
-        <v>Fuel Tech - Biomass (COM)</v>
+        <f>COM_FuelTechs!D11</f>
+        <v>Fuel Tech - Natural Gas (COM)</v>
       </c>
       <c r="F94" s="57" t="s">
         <v>10</v>
@@ -38340,7 +38604,9 @@
       <c r="G94" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="H94" s="54"/>
+      <c r="H94" s="54" t="s">
+        <v>378</v>
+      </c>
       <c r="I94" s="54"/>
       <c r="J94" s="54"/>
     </row>
@@ -38351,12 +38617,12 @@
         <v>IE,National</v>
       </c>
       <c r="D95" s="54" t="str">
-        <f>COM_FuelTechs!C13</f>
-        <v>COMBGS_INF</v>
+        <f>COM_FuelTechs!C12</f>
+        <v>COMBIO_INF</v>
       </c>
       <c r="E95" s="54" t="str">
-        <f>COM_FuelTechs!D13</f>
-        <v>Fuel Tech - Biogas (COM)</v>
+        <f>COM_FuelTechs!D12</f>
+        <v>Fuel Tech - Biomass (COM)</v>
       </c>
       <c r="F95" s="57" t="s">
         <v>10</v>
@@ -38364,9 +38630,7 @@
       <c r="G95" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="H95" s="54" t="s">
-        <v>378</v>
-      </c>
+      <c r="H95" s="54"/>
       <c r="I95" s="54"/>
       <c r="J95" s="54"/>
     </row>
@@ -38377,12 +38641,12 @@
         <v>IE,National</v>
       </c>
       <c r="D96" s="54" t="str">
-        <f>COM_FuelTechs!C14</f>
-        <v>COMSOL_INF</v>
+        <f>COM_FuelTechs!C13</f>
+        <v>COMBGS_INF</v>
       </c>
       <c r="E96" s="54" t="str">
-        <f>COM_FuelTechs!D14</f>
-        <v>Fuel Tech - Solar (COM)</v>
+        <f>COM_FuelTechs!D13</f>
+        <v>Fuel Tech - Biogas (COM)</v>
       </c>
       <c r="F96" s="57" t="s">
         <v>10</v>
@@ -38390,7 +38654,9 @@
       <c r="G96" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="H96" s="54"/>
+      <c r="H96" s="54" t="s">
+        <v>378</v>
+      </c>
       <c r="I96" s="54"/>
       <c r="J96" s="54"/>
     </row>
@@ -38401,12 +38667,12 @@
         <v>IE,National</v>
       </c>
       <c r="D97" s="54" t="str">
-        <f>COM_FuelTechs!C15</f>
-        <v>COMGEO_INF</v>
+        <f>COM_FuelTechs!C14</f>
+        <v>COMSOL_INF</v>
       </c>
       <c r="E97" s="54" t="str">
-        <f>COM_FuelTechs!D15</f>
-        <v>Fuel Tech - Geothermal (COM)</v>
+        <f>COM_FuelTechs!D14</f>
+        <v>Fuel Tech - Solar (COM)</v>
       </c>
       <c r="F97" s="57" t="s">
         <v>10</v>
@@ -38425,12 +38691,12 @@
         <v>IE,National</v>
       </c>
       <c r="D98" s="54" t="str">
-        <f>COM_FuelTechs!C16</f>
-        <v>COMAMB_INF</v>
+        <f>COM_FuelTechs!C15</f>
+        <v>COMGEO_INF</v>
       </c>
       <c r="E98" s="54" t="str">
-        <f>COM_FuelTechs!D16</f>
-        <v>Fuel Tech - Ambient Heat (COM)</v>
+        <f>COM_FuelTechs!D15</f>
+        <v>Fuel Tech - Geothermal (COM)</v>
       </c>
       <c r="F98" s="57" t="s">
         <v>10</v>
@@ -38449,12 +38715,12 @@
         <v>IE,National</v>
       </c>
       <c r="D99" s="54" t="str">
-        <f>COM_FuelTechs!C44</f>
-        <v>COMH2G_INF</v>
+        <f>COM_FuelTechs!C16</f>
+        <v>COMAMB_INF</v>
       </c>
       <c r="E99" s="54" t="str">
-        <f>COM_FuelTechs!D44</f>
-        <v>Fuel Tech - Hydrogen gaseous (COM)</v>
+        <f>COM_FuelTechs!D16</f>
+        <v>Fuel Tech - Ambient Heat (COM)</v>
       </c>
       <c r="F99" s="57" t="s">
         <v>10</v>
@@ -38473,12 +38739,12 @@
         <v>IE,National</v>
       </c>
       <c r="D100" s="54" t="str">
-        <f>COM_FuelTechs!C45</f>
-        <v>COMH2L_INF</v>
+        <f>COM_FuelTechs!C44</f>
+        <v>COMH2G_INF</v>
       </c>
       <c r="E100" s="54" t="str">
-        <f>COM_FuelTechs!D45</f>
-        <v>Fuel Tech - Hydrogen liquid (COM)</v>
+        <f>COM_FuelTechs!D44</f>
+        <v>Fuel Tech - Hydrogen gaseous (COM)</v>
       </c>
       <c r="F100" s="57" t="s">
         <v>10</v>
@@ -38490,8 +38756,32 @@
       <c r="I100" s="54"/>
       <c r="J100" s="54"/>
     </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="54"/>
+      <c r="C101" s="54" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D101" s="54" t="str">
+        <f>COM_FuelTechs!C45</f>
+        <v>COMH2L_INF</v>
+      </c>
+      <c r="E101" s="54" t="str">
+        <f>COM_FuelTechs!D45</f>
+        <v>Fuel Tech - Hydrogen liquid (COM)</v>
+      </c>
+      <c r="F101" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -39987,6 +40277,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -40132,22 +40437,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B7A5D60-A3DF-417A-ABA8-B7F5CA08C101}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40163,21 +40470,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_IE_COM.xlsx
+++ b/VT_IE_COM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D63797-2A60-49E0-846A-8EA75292A9D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF53B0FC-C715-464D-BE1A-4338DBC42ED2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" tabRatio="891" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3643,7 +3643,7 @@
     <t>IE,National</t>
   </si>
   <si>
-    <t>PWRHTH</t>
+    <t>HETD</t>
   </si>
 </sst>
 </file>
@@ -40319,12 +40319,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40474,15 +40471,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40506,10 +40507,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_IE_COM.xlsx
+++ b/VT_IE_COM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF53B0FC-C715-464D-BE1A-4338DBC42ED2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47244CC-989D-4430-A842-D6BBDAF62F8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" tabRatio="891" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -10126,8 +10126,8 @@
   </sheetPr>
   <dimension ref="B1:X171"/>
   <sheetViews>
-    <sheetView topLeftCell="D33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16759,8 +16759,8 @@
   </sheetPr>
   <dimension ref="B1:Z91"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17010,11 +17010,11 @@
       </c>
       <c r="D11" s="179">
         <f>K62*J60</f>
-        <v>15.911170581631776</v>
+        <v>8.0991705816317747</v>
       </c>
       <c r="E11" s="179">
         <f t="shared" si="0"/>
-        <v>15.911170581631776</v>
+        <v>8.0991705816317747</v>
       </c>
       <c r="F11" s="54" t="str">
         <f>COM_Commodities!E38</f>
@@ -18902,7 +18902,7 @@
       </c>
       <c r="J60" s="138">
         <f>R60</f>
-        <v>0.21907780602535418</v>
+        <v>0.11151590089149883</v>
       </c>
       <c r="K60" s="138">
         <f>S60</f>
@@ -18915,11 +18915,11 @@
       <c r="N60" s="69"/>
       <c r="O60" s="139">
         <f>IF(I60=0,0,K60*J60/I60)</f>
-        <v>15.911170581631776</v>
+        <v>8.0991705816317747</v>
       </c>
       <c r="P60" s="139">
         <f>COM_Balance!L46</f>
-        <v>15.911170581631776</v>
+        <v>8.0991705816317747</v>
       </c>
       <c r="Q60" s="203">
         <f>I60</f>
@@ -18927,7 +18927,7 @@
       </c>
       <c r="R60" s="73">
         <f>IF(S62=0,0,SUMPRODUCT(Q60,P60)/S62)</f>
-        <v>0.21907780602535418</v>
+        <v>0.11151590089149883</v>
       </c>
       <c r="S60" s="76">
         <f>IF($P$62*Q60=0,0,Q60*P60/SUMPRODUCT($P$60,$Q$60)*$S$62)</f>
@@ -18973,11 +18973,11 @@
       <c r="N62" s="69"/>
       <c r="O62" s="76">
         <f>SUM(O60)</f>
-        <v>15.911170581631776</v>
+        <v>8.0991705816317747</v>
       </c>
       <c r="P62" s="76">
         <f>SUM(P60)</f>
-        <v>15.911170581631776</v>
+        <v>8.0991705816317747</v>
       </c>
       <c r="Q62" s="165"/>
       <c r="R62" s="73"/>
@@ -21253,8 +21253,8 @@
   </sheetPr>
   <dimension ref="B3:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21843,7 +21843,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" ht="30">
       <c r="B9" s="329" t="s">
         <v>501</v>
       </c>
@@ -26100,12 +26100,12 @@
   </sheetPr>
   <dimension ref="A1:AS81"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="65" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="65" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33468,8 +33468,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:BM72"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -33952,7 +33952,7 @@
         <v>0.65641279696870891</v>
       </c>
       <c r="L12" s="277">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:L11)</f>
         <v>42.679928352699655</v>
       </c>
       <c r="M12" s="277">
@@ -35088,8 +35088,8 @@
       <c r="J46" s="273"/>
       <c r="K46" s="273"/>
       <c r="L46" s="273">
-        <f>L$12*L25</f>
-        <v>15.911170581631776</v>
+        <f>L$12*L25-COM_DC!C7</f>
+        <v>8.0991705816317747</v>
       </c>
       <c r="M46" s="273"/>
       <c r="N46" s="251"/>
@@ -35156,7 +35156,7 @@
       </c>
       <c r="L48" s="272">
         <f t="shared" si="15"/>
-        <v>34.696483261115439</v>
+        <v>26.884483261115438</v>
       </c>
       <c r="M48" s="272">
         <f t="shared" si="15"/>
@@ -35168,7 +35168,7 @@
       </c>
       <c r="O48" s="135">
         <f>SUM(D48:N48)</f>
-        <v>35.537194895151437</v>
+        <v>27.725194895151439</v>
       </c>
       <c r="T48" s="65"/>
       <c r="U48" s="285"/>
@@ -35184,15 +35184,15 @@
       <c r="I49" s="258"/>
       <c r="O49" s="284">
         <f>O35+O38+O41+O48</f>
-        <v>72.097498869226484</v>
+        <v>64.285498869226501</v>
       </c>
       <c r="P49" s="257">
         <f>O49/3.6</f>
-        <v>20.027083019229579</v>
+        <v>17.857083019229584</v>
       </c>
       <c r="Q49" s="376">
         <f>O49/S5</f>
-        <v>1722.0191762020274</v>
+        <v>1535.432761756628</v>
       </c>
       <c r="T49" s="65"/>
       <c r="U49" s="285"/>
@@ -38831,8 +38831,8 @@
   </sheetPr>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/VT_IE_COM.xlsx
+++ b/VT_IE_COM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47244CC-989D-4430-A842-D6BBDAF62F8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B68F01-A76F-4FD1-A880-39E266E07762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="891" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="33" r:id="rId1"/>
@@ -33468,7 +33468,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:BM72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
@@ -35517,8 +35517,8 @@
   </sheetPr>
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -35809,7 +35809,7 @@
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29" t="s">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
@@ -40319,9 +40319,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40471,19 +40474,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40507,9 +40506,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBACB2E3-CDF0-4ED0-BEB9-5A15710DBCB9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B89BCC-8A48-4F37-9079-7262C2133970}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>